--- a/일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="331">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1222,6 +1222,72 @@
   </si>
   <si>
     <t>특정 지점 도착 시 상호작용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 리소스 확보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary 사용해서 세부적인 인벤토리 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +1775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1953,18 +2019,108 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1980,24 +2136,12 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2022,83 +2166,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3182,13 +3254,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>887</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>95675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>157368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3244,13 +3316,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>24210</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>98016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>8257</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>162161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3678,13 +3750,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>13325</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>87130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>269515</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>151275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4108,6 +4180,254 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>3108</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>75825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14875715" y="12363075"/>
+          <a:ext cx="541178" cy="73853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>6913</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14335234" y="9714644"/>
+          <a:ext cx="1381015" cy="55286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>16327</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14586857" y="14614071"/>
+          <a:ext cx="1118506" cy="54428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>244281</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>108621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14844745" y="9130157"/>
+          <a:ext cx="577591" cy="60107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4374,11 +4694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AV84"/>
+  <dimension ref="B1:AV87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AW10" sqref="AW10"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4398,7 +4718,9 @@
     <col min="32" max="32" width="3.5" customWidth="1"/>
     <col min="33" max="33" width="3.5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="3.5" customWidth="1"/>
-    <col min="35" max="40" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5" customWidth="1"/>
+    <col min="37" max="40" width="3.5" bestFit="1" customWidth="1"/>
     <col min="41" max="48" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4449,92 +4771,92 @@
     </row>
     <row r="4" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:48" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83" t="s">
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="90" t="s">
+      <c r="O5" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="P5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="83" t="s">
+      <c r="Q5" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="92" t="s">
+      <c r="R5" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87" t="s">
+      <c r="T5" s="117"/>
+      <c r="U5" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87"/>
-      <c r="AV5" s="88"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="117"/>
+      <c r="AL5" s="117"/>
+      <c r="AM5" s="117"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
+      <c r="AR5" s="117"/>
+      <c r="AS5" s="117"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="118"/>
     </row>
     <row r="6" spans="2:48" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="101"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="93"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="121"/>
       <c r="S6" s="74">
         <v>29</v>
       </c>
@@ -4630,24 +4952,24 @@
       <c r="B7" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="123"/>
       <c r="N7" s="66"/>
       <c r="O7" s="67"/>
       <c r="P7" s="67"/>
       <c r="Q7" s="66"/>
-      <c r="R7" s="104"/>
+      <c r="R7" s="81"/>
       <c r="S7" s="58"/>
       <c r="T7" s="59"/>
       <c r="U7" s="60"/>
@@ -4683,21 +5005,21 @@
       <c r="B8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="95"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="112"/>
       <c r="N8" s="51" t="s">
         <v>24</v>
       </c>
@@ -4710,7 +5032,7 @@
       <c r="Q8" s="53">
         <v>1</v>
       </c>
-      <c r="R8" s="105">
+      <c r="R8" s="82">
         <v>2</v>
       </c>
       <c r="S8" s="29"/>
@@ -4748,21 +5070,21 @@
       <c r="B9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="51" t="s">
         <v>29</v>
       </c>
@@ -4775,7 +5097,7 @@
       <c r="Q9" s="53">
         <v>1</v>
       </c>
-      <c r="R9" s="105">
+      <c r="R9" s="82">
         <v>2</v>
       </c>
       <c r="S9" s="30"/>
@@ -4813,21 +5135,21 @@
       <c r="B10" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="95"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="112"/>
       <c r="N10" s="51" t="s">
         <v>27</v>
       </c>
@@ -4840,7 +5162,7 @@
       <c r="Q10" s="53">
         <v>1</v>
       </c>
-      <c r="R10" s="105">
+      <c r="R10" s="82">
         <v>1</v>
       </c>
       <c r="S10" s="31"/>
@@ -4878,21 +5200,21 @@
       <c r="B11" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="95"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="51" t="s">
         <v>90</v>
       </c>
@@ -4905,7 +5227,7 @@
       <c r="Q11" s="53">
         <v>1</v>
       </c>
-      <c r="R11" s="105">
+      <c r="R11" s="82">
         <v>2</v>
       </c>
       <c r="S11" s="31"/>
@@ -4943,21 +5265,21 @@
       <c r="B12" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="95"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="112"/>
       <c r="N12" s="51" t="s">
         <v>226</v>
       </c>
@@ -4970,7 +5292,7 @@
       <c r="Q12" s="53">
         <v>1</v>
       </c>
-      <c r="R12" s="105">
+      <c r="R12" s="82">
         <v>2</v>
       </c>
       <c r="S12" s="31"/>
@@ -5008,21 +5330,21 @@
       <c r="B13" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="95"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="112"/>
       <c r="N13" s="51" t="s">
         <v>150</v>
       </c>
@@ -5035,7 +5357,7 @@
       <c r="Q13" s="53">
         <v>1</v>
       </c>
-      <c r="R13" s="105">
+      <c r="R13" s="82">
         <v>1</v>
       </c>
       <c r="S13" s="31"/>
@@ -5073,21 +5395,21 @@
       <c r="B14" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="111" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="95"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="112"/>
       <c r="N14" s="51" t="s">
         <v>232</v>
       </c>
@@ -5098,7 +5420,7 @@
         <v>233</v>
       </c>
       <c r="Q14" s="53"/>
-      <c r="R14" s="105">
+      <c r="R14" s="82">
         <v>2</v>
       </c>
       <c r="S14" s="31"/>
@@ -5136,21 +5458,21 @@
       <c r="B15" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="112"/>
       <c r="N15" s="51" t="s">
         <v>240</v>
       </c>
@@ -5161,7 +5483,7 @@
         <v>243</v>
       </c>
       <c r="Q15" s="53"/>
-      <c r="R15" s="105">
+      <c r="R15" s="82">
         <v>2</v>
       </c>
       <c r="S15" s="31"/>
@@ -5198,24 +5520,24 @@
       <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="99"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="125"/>
       <c r="N16" s="13"/>
       <c r="O16" s="56"/>
       <c r="P16" s="56"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="106"/>
+      <c r="R16" s="83"/>
       <c r="S16" s="25"/>
       <c r="T16" s="7"/>
       <c r="U16" s="43"/>
@@ -5251,21 +5573,21 @@
       <c r="B17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="103"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="129"/>
       <c r="N17" s="14" t="s">
         <v>10</v>
       </c>
@@ -5278,7 +5600,7 @@
       <c r="Q17" s="18">
         <v>1</v>
       </c>
-      <c r="R17" s="107">
+      <c r="R17" s="84">
         <v>1</v>
       </c>
       <c r="S17" s="32"/>
@@ -5319,18 +5641,18 @@
       <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="108"/>
       <c r="N18" s="15" t="s">
         <v>32</v>
       </c>
@@ -5343,7 +5665,7 @@
       <c r="Q18" s="19">
         <v>1</v>
       </c>
-      <c r="R18" s="108">
+      <c r="R18" s="85">
         <v>1</v>
       </c>
       <c r="S18" s="27"/>
@@ -5384,18 +5706,18 @@
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="108"/>
       <c r="N19" s="15" t="s">
         <v>33</v>
       </c>
@@ -5408,7 +5730,7 @@
       <c r="Q19" s="19">
         <v>1</v>
       </c>
-      <c r="R19" s="108">
+      <c r="R19" s="85">
         <v>2</v>
       </c>
       <c r="S19" s="25"/>
@@ -5449,18 +5771,18 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
       <c r="N20" s="15" t="s">
         <v>34</v>
       </c>
@@ -5473,7 +5795,7 @@
       <c r="Q20" s="19">
         <v>1</v>
       </c>
-      <c r="R20" s="108">
+      <c r="R20" s="85">
         <v>1</v>
       </c>
       <c r="S20" s="25"/>
@@ -5511,21 +5833,21 @@
       <c r="B21" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
       <c r="N21" s="15" t="s">
         <v>35</v>
       </c>
@@ -5538,7 +5860,7 @@
       <c r="Q21" s="19">
         <v>1</v>
       </c>
-      <c r="R21" s="108">
+      <c r="R21" s="85">
         <v>2</v>
       </c>
       <c r="S21" s="25"/>
@@ -5579,18 +5901,18 @@
       <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
       <c r="N22" s="15" t="s">
         <v>37</v>
       </c>
@@ -5603,7 +5925,7 @@
       <c r="Q22" s="19">
         <v>1</v>
       </c>
-      <c r="R22" s="108">
+      <c r="R22" s="85">
         <v>2</v>
       </c>
       <c r="S22" s="25"/>
@@ -5644,18 +5966,18 @@
       <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
       <c r="N23" s="15" t="s">
         <v>83</v>
       </c>
@@ -5668,7 +5990,7 @@
       <c r="Q23" s="19">
         <v>1</v>
       </c>
-      <c r="R23" s="108">
+      <c r="R23" s="85">
         <v>1</v>
       </c>
       <c r="S23" s="25"/>
@@ -5709,18 +6031,18 @@
       <c r="C24" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
       <c r="N24" s="15" t="s">
         <v>140</v>
       </c>
@@ -5733,7 +6055,7 @@
       <c r="Q24" s="19">
         <v>1</v>
       </c>
-      <c r="R24" s="108">
+      <c r="R24" s="85">
         <v>1</v>
       </c>
       <c r="S24" s="25"/>
@@ -5774,18 +6096,18 @@
       <c r="C25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="82"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
       <c r="N25" s="15" t="s">
         <v>154</v>
       </c>
@@ -5798,7 +6120,7 @@
       <c r="Q25" s="19">
         <v>1</v>
       </c>
-      <c r="R25" s="108">
+      <c r="R25" s="85">
         <v>1</v>
       </c>
       <c r="S25" s="25"/>
@@ -5836,24 +6158,24 @@
       <c r="B26" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="99"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="125"/>
       <c r="N26" s="13"/>
       <c r="O26" s="56"/>
       <c r="P26" s="56"/>
       <c r="Q26" s="13"/>
-      <c r="R26" s="106"/>
+      <c r="R26" s="83"/>
       <c r="S26" s="25"/>
       <c r="T26" s="7"/>
       <c r="U26" s="43"/>
@@ -5892,18 +6214,18 @@
       <c r="C27" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="82"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
       <c r="N27" s="15" t="s">
         <v>10</v>
       </c>
@@ -5916,7 +6238,7 @@
       <c r="Q27" s="19">
         <v>1</v>
       </c>
-      <c r="R27" s="108">
+      <c r="R27" s="85">
         <v>1</v>
       </c>
       <c r="S27" s="26"/>
@@ -5957,18 +6279,18 @@
       <c r="C28" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="82"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="108"/>
       <c r="N28" s="15" t="s">
         <v>66</v>
       </c>
@@ -5981,7 +6303,7 @@
       <c r="Q28" s="19">
         <v>1</v>
       </c>
-      <c r="R28" s="108">
+      <c r="R28" s="85">
         <v>2</v>
       </c>
       <c r="S28" s="25"/>
@@ -6022,18 +6344,18 @@
       <c r="C29" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="82"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="108"/>
       <c r="N29" s="15" t="s">
         <v>10</v>
       </c>
@@ -6046,7 +6368,7 @@
       <c r="Q29" s="19">
         <v>1</v>
       </c>
-      <c r="R29" s="108">
+      <c r="R29" s="85">
         <v>2</v>
       </c>
       <c r="S29" s="25"/>
@@ -6087,18 +6409,18 @@
       <c r="C30" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="82"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="108"/>
       <c r="N30" s="15" t="s">
         <v>95</v>
       </c>
@@ -6111,7 +6433,7 @@
       <c r="Q30" s="19">
         <v>1</v>
       </c>
-      <c r="R30" s="108">
+      <c r="R30" s="85">
         <v>2</v>
       </c>
       <c r="S30" s="25"/>
@@ -6152,18 +6474,18 @@
       <c r="C31" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="107" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="82"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="108"/>
       <c r="N31" s="15" t="s">
         <v>245</v>
       </c>
@@ -6176,7 +6498,7 @@
       <c r="Q31" s="19">
         <v>1</v>
       </c>
-      <c r="R31" s="108">
+      <c r="R31" s="85">
         <v>1</v>
       </c>
       <c r="S31" s="25"/>
@@ -6217,18 +6539,18 @@
       <c r="C32" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="82"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="108"/>
       <c r="N32" s="15" t="s">
         <v>99</v>
       </c>
@@ -6241,7 +6563,7 @@
       <c r="Q32" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="R32" s="108">
+      <c r="R32" s="85">
         <v>1</v>
       </c>
       <c r="S32" s="25"/>
@@ -6282,18 +6604,18 @@
       <c r="C33" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="82"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="108"/>
       <c r="N33" s="15" t="s">
         <v>104</v>
       </c>
@@ -6304,7 +6626,7 @@
         <v>106</v>
       </c>
       <c r="Q33" s="19"/>
-      <c r="R33" s="108">
+      <c r="R33" s="85">
         <v>1</v>
       </c>
       <c r="S33" s="25"/>
@@ -6345,18 +6667,18 @@
       <c r="C34" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="82"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="108"/>
       <c r="N34" s="15" t="s">
         <v>109</v>
       </c>
@@ -6367,7 +6689,7 @@
         <v>110</v>
       </c>
       <c r="Q34" s="19"/>
-      <c r="R34" s="108">
+      <c r="R34" s="85">
         <v>2</v>
       </c>
       <c r="S34" s="25"/>
@@ -6408,18 +6730,18 @@
       <c r="C35" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="81" t="s">
+      <c r="D35" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="82"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="108"/>
       <c r="N35" s="15" t="s">
         <v>144</v>
       </c>
@@ -6432,7 +6754,7 @@
       <c r="Q35" s="19">
         <v>1</v>
       </c>
-      <c r="R35" s="108">
+      <c r="R35" s="85">
         <v>2</v>
       </c>
       <c r="S35" s="25"/>
@@ -6473,18 +6795,18 @@
       <c r="C36" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="82"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="108"/>
       <c r="N36" s="15" t="s">
         <v>147</v>
       </c>
@@ -6495,7 +6817,7 @@
         <v>138</v>
       </c>
       <c r="Q36" s="19"/>
-      <c r="R36" s="108">
+      <c r="R36" s="85">
         <v>1</v>
       </c>
       <c r="S36" s="25"/>
@@ -6536,18 +6858,18 @@
       <c r="C37" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="107" t="s">
         <v>255</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="82"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="108"/>
       <c r="N37" s="15" t="s">
         <v>256</v>
       </c>
@@ -6558,7 +6880,7 @@
         <v>253</v>
       </c>
       <c r="Q37" s="19"/>
-      <c r="R37" s="108">
+      <c r="R37" s="85">
         <v>2</v>
       </c>
       <c r="S37" s="25"/>
@@ -6599,18 +6921,18 @@
       <c r="C38" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="82"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="108"/>
       <c r="N38" s="15" t="s">
         <v>234</v>
       </c>
@@ -6621,7 +6943,7 @@
         <v>223</v>
       </c>
       <c r="Q38" s="19"/>
-      <c r="R38" s="108">
+      <c r="R38" s="85">
         <v>1</v>
       </c>
       <c r="S38" s="25"/>
@@ -6662,18 +6984,18 @@
       <c r="C39" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="82"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="108"/>
       <c r="N39" s="15" t="s">
         <v>249</v>
       </c>
@@ -6686,7 +7008,7 @@
       <c r="Q39" s="19">
         <v>1</v>
       </c>
-      <c r="R39" s="108">
+      <c r="R39" s="85">
         <v>2</v>
       </c>
       <c r="S39" s="25"/>
@@ -6727,18 +7049,18 @@
       <c r="C40" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="D40" s="81" t="s">
+      <c r="D40" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="82"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="108"/>
       <c r="N40" s="15" t="s">
         <v>234</v>
       </c>
@@ -6749,7 +7071,7 @@
         <v>223</v>
       </c>
       <c r="Q40" s="19"/>
-      <c r="R40" s="108">
+      <c r="R40" s="85">
         <v>2</v>
       </c>
       <c r="S40" s="25"/>
@@ -6790,18 +7112,18 @@
       <c r="C41" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="81" t="s">
+      <c r="D41" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="82"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="108"/>
       <c r="N41" s="15" t="s">
         <v>262</v>
       </c>
@@ -6814,7 +7136,7 @@
       <c r="Q41" s="19">
         <v>1</v>
       </c>
-      <c r="R41" s="108">
+      <c r="R41" s="85">
         <v>1</v>
       </c>
       <c r="S41" s="25"/>
@@ -6855,18 +7177,18 @@
       <c r="C42" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="82"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="108"/>
       <c r="N42" s="15" t="s">
         <v>267</v>
       </c>
@@ -6879,7 +7201,7 @@
       <c r="Q42" s="19">
         <v>1</v>
       </c>
-      <c r="R42" s="108">
+      <c r="R42" s="85">
         <v>2</v>
       </c>
       <c r="S42" s="25"/>
@@ -6920,18 +7242,18 @@
       <c r="C43" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="82"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="108"/>
       <c r="N43" s="15" t="s">
         <v>265</v>
       </c>
@@ -6942,7 +7264,7 @@
         <v>219</v>
       </c>
       <c r="Q43" s="19"/>
-      <c r="R43" s="108">
+      <c r="R43" s="85">
         <v>2</v>
       </c>
       <c r="S43" s="25"/>
@@ -6983,18 +7305,18 @@
       <c r="C44" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="107" t="s">
         <v>250</v>
       </c>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="82"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="108"/>
       <c r="N44" s="15" t="s">
         <v>251</v>
       </c>
@@ -7002,10 +7324,10 @@
         <v>252</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="Q44" s="19"/>
-      <c r="R44" s="108">
+      <c r="R44" s="85">
         <v>1</v>
       </c>
       <c r="S44" s="25"/>
@@ -7024,9 +7346,9 @@
       <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
       <c r="AH44" s="9"/>
-      <c r="AI44" s="43"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="7"/>
+      <c r="AI44" s="45"/>
+      <c r="AJ44" s="49"/>
+      <c r="AK44" s="9"/>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
@@ -7046,18 +7368,18 @@
       <c r="C45" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="81" t="s">
+      <c r="D45" s="107" t="s">
         <v>280</v>
       </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="82"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="108"/>
       <c r="N45" s="15" t="s">
         <v>281</v>
       </c>
@@ -7067,8 +7389,10 @@
       <c r="P45" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="108">
+      <c r="Q45" s="19">
+        <v>1</v>
+      </c>
+      <c r="R45" s="85">
         <v>1</v>
       </c>
       <c r="S45" s="25"/>
@@ -7105,24 +7429,24 @@
       <c r="B46" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="98" t="s">
+      <c r="C46" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="99"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="125"/>
       <c r="N46" s="38"/>
       <c r="O46" s="41"/>
       <c r="P46" s="41"/>
       <c r="Q46" s="38"/>
-      <c r="R46" s="109"/>
+      <c r="R46" s="86"/>
       <c r="S46" s="25"/>
       <c r="T46" s="7"/>
       <c r="U46" s="43"/>
@@ -7158,21 +7482,21 @@
       <c r="B47" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="118" t="s">
+      <c r="C47" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="86"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="115"/>
+      <c r="M47" s="116"/>
       <c r="N47" s="39" t="s">
         <v>64</v>
       </c>
@@ -7185,7 +7509,7 @@
       <c r="Q47" s="80">
         <v>1</v>
       </c>
-      <c r="R47" s="110">
+      <c r="R47" s="87">
         <v>1</v>
       </c>
       <c r="S47" s="25"/>
@@ -7223,21 +7547,21 @@
       <c r="B48" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="118" t="s">
+      <c r="C48" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="D48" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="86"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="115"/>
+      <c r="L48" s="115"/>
+      <c r="M48" s="116"/>
       <c r="N48" s="39" t="s">
         <v>169</v>
       </c>
@@ -7247,8 +7571,10 @@
       <c r="P48" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="110">
+      <c r="Q48" s="80">
+        <v>1</v>
+      </c>
+      <c r="R48" s="87">
         <v>1</v>
       </c>
       <c r="S48" s="25"/>
@@ -7286,32 +7612,32 @@
       <c r="B49" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="86"/>
+      <c r="C49" s="93" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" s="115" t="s">
+        <v>315</v>
+      </c>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="115"/>
+      <c r="M49" s="116"/>
       <c r="N49" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="O49" s="57">
-        <v>10.17</v>
+        <v>317</v>
+      </c>
+      <c r="O49" s="57" t="s">
+        <v>318</v>
       </c>
       <c r="P49" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="110">
+        <v>319</v>
+      </c>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="87">
         <v>1</v>
       </c>
       <c r="S49" s="25"/>
@@ -7330,12 +7656,12 @@
       <c r="AF49" s="11"/>
       <c r="AG49" s="11"/>
       <c r="AH49" s="11"/>
-      <c r="AI49" s="43"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
       <c r="AO49" s="7"/>
       <c r="AP49" s="43"/>
       <c r="AQ49" s="47"/>
@@ -7349,58 +7675,56 @@
       <c r="B50" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O50" s="17">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="P50" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q50" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="R50" s="108">
+      <c r="C50" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+      <c r="L50" s="115"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="O50" s="57">
+        <v>10.17</v>
+      </c>
+      <c r="P50" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="87">
         <v>1</v>
       </c>
-      <c r="S50" s="27"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
       <c r="AB50" s="43"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="9"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
       <c r="AG50" s="11"/>
       <c r="AH50" s="11"/>
       <c r="AI50" s="43"/>
       <c r="AJ50" s="47"/>
-      <c r="AK50" s="11"/>
-      <c r="AL50" s="11"/>
-      <c r="AM50" s="7"/>
-      <c r="AN50" s="7"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
       <c r="AO50" s="7"/>
       <c r="AP50" s="43"/>
       <c r="AQ50" s="47"/>
@@ -7415,31 +7739,33 @@
         <v>130</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="82"/>
+        <v>70</v>
+      </c>
+      <c r="D51" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="108"/>
       <c r="N51" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>241</v>
+        <v>104</v>
+      </c>
+      <c r="O51" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P51" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="108">
+        <v>100</v>
+      </c>
+      <c r="Q51" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="R51" s="85">
         <v>1</v>
       </c>
       <c r="S51" s="27"/>
@@ -7455,16 +7781,16 @@
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
-      <c r="AF51" s="11"/>
+      <c r="AF51" s="9"/>
       <c r="AG51" s="11"/>
-      <c r="AH51" s="7"/>
+      <c r="AH51" s="11"/>
       <c r="AI51" s="43"/>
       <c r="AJ51" s="47"/>
       <c r="AK51" s="11"/>
       <c r="AL51" s="11"/>
-      <c r="AM51" s="11"/>
-      <c r="AN51" s="9"/>
-      <c r="AO51" s="9"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
       <c r="AP51" s="43"/>
       <c r="AQ51" s="47"/>
       <c r="AR51" s="7"/>
@@ -7478,29 +7804,31 @@
         <v>131</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="D52" s="107" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="O52" s="17" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="Q52" s="19"/>
-      <c r="R52" s="108">
+      <c r="R52" s="85">
         <v>1</v>
       </c>
       <c r="S52" s="27"/>
@@ -7516,21 +7844,21 @@
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
       <c r="AH52" s="7"/>
       <c r="AI52" s="43"/>
       <c r="AJ52" s="47"/>
-      <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
       <c r="AM52" s="11"/>
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
-      <c r="AP52" s="46"/>
-      <c r="AQ52" s="50"/>
-      <c r="AR52" s="11"/>
-      <c r="AS52" s="11"/>
-      <c r="AT52" s="11"/>
+      <c r="AP52" s="43"/>
+      <c r="AQ52" s="47"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7"/>
       <c r="AU52" s="7"/>
       <c r="AV52" s="77"/>
     </row>
@@ -7539,30 +7867,30 @@
         <v>178</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="82"/>
+        <v>74</v>
+      </c>
+      <c r="D53" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="108"/>
       <c r="N53" s="15"/>
       <c r="O53" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q53" s="19"/>
-      <c r="R53" s="108">
-        <v>2</v>
+      <c r="R53" s="85">
+        <v>1</v>
       </c>
       <c r="S53" s="27"/>
       <c r="T53" s="11"/>
@@ -7585,12 +7913,12 @@
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
       <c r="AM53" s="11"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="9"/>
       <c r="AP53" s="46"/>
       <c r="AQ53" s="50"/>
-      <c r="AR53" s="9"/>
-      <c r="AS53" s="9"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="11"/>
       <c r="AT53" s="11"/>
       <c r="AU53" s="7"/>
       <c r="AV53" s="77"/>
@@ -7600,30 +7928,30 @@
         <v>179</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="82"/>
+        <v>173</v>
+      </c>
+      <c r="D54" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="107"/>
+      <c r="M54" s="108"/>
       <c r="N54" s="15"/>
       <c r="O54" s="17" t="s">
         <v>293</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q54" s="19"/>
-      <c r="R54" s="108">
-        <v>1</v>
+      <c r="R54" s="85">
+        <v>2</v>
       </c>
       <c r="S54" s="27"/>
       <c r="T54" s="11"/>
@@ -7657,33 +7985,41 @@
       <c r="AV54" s="77"/>
     </row>
     <row r="55" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B55" s="37">
-        <v>5</v>
-      </c>
-      <c r="C55" s="98" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="98"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="99"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
+      <c r="B55" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="107"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="P55" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="85">
+        <v>1</v>
+      </c>
+      <c r="S55" s="27"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
@@ -7698,51 +8034,39 @@
       <c r="AJ55" s="47"/>
       <c r="AK55" s="7"/>
       <c r="AL55" s="7"/>
-      <c r="AM55" s="7"/>
-      <c r="AN55" s="7"/>
-      <c r="AO55" s="7"/>
-      <c r="AP55" s="43"/>
-      <c r="AQ55" s="47"/>
-      <c r="AR55" s="7"/>
-      <c r="AS55" s="7"/>
-      <c r="AT55" s="7"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11"/>
+      <c r="AP55" s="46"/>
+      <c r="AQ55" s="50"/>
+      <c r="AR55" s="9"/>
+      <c r="AS55" s="9"/>
+      <c r="AT55" s="11"/>
       <c r="AU55" s="7"/>
       <c r="AV55" s="77"/>
     </row>
     <row r="56" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B56" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="O56" s="17">
-        <v>10.11</v>
-      </c>
-      <c r="P56" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q56" s="19">
-        <v>1</v>
-      </c>
-      <c r="R56" s="108">
-        <v>1</v>
-      </c>
+      <c r="B56" s="37">
+        <v>5</v>
+      </c>
+      <c r="C56" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="86"/>
       <c r="S56" s="25"/>
       <c r="T56" s="7"/>
       <c r="U56" s="43"/>
@@ -7755,8 +8079,8 @@
       <c r="AB56" s="43"/>
       <c r="AC56" s="7"/>
       <c r="AD56" s="7"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="11"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
       <c r="AH56" s="7"/>
       <c r="AI56" s="43"/>
@@ -7776,34 +8100,36 @@
     </row>
     <row r="57" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B57" s="36" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="82"/>
+        <v>61</v>
+      </c>
+      <c r="D57" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="107"/>
+      <c r="L57" s="107"/>
+      <c r="M57" s="108"/>
       <c r="N57" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="O57" s="17" t="s">
-        <v>297</v>
+        <v>59</v>
+      </c>
+      <c r="O57" s="17">
+        <v>10.11</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="108">
+        <v>65</v>
+      </c>
+      <c r="Q57" s="19">
+        <v>1</v>
+      </c>
+      <c r="R57" s="85">
         <v>1</v>
       </c>
       <c r="S57" s="25"/>
@@ -7818,13 +8144,13 @@
       <c r="AB57" s="43"/>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
-      <c r="AE57" s="11"/>
+      <c r="AE57" s="8"/>
       <c r="AF57" s="11"/>
       <c r="AG57" s="7"/>
-      <c r="AH57" s="8"/>
-      <c r="AI57" s="44"/>
-      <c r="AJ57" s="48"/>
-      <c r="AK57" s="8"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="43"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="7"/>
       <c r="AL57" s="7"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
@@ -7839,32 +8165,36 @@
     </row>
     <row r="58" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B58" s="36" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="D58" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="107"/>
+      <c r="L58" s="107"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="15" t="s">
+        <v>296</v>
+      </c>
       <c r="O58" s="17" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>298</v>
+        <v>170</v>
       </c>
       <c r="Q58" s="19"/>
-      <c r="R58" s="108"/>
+      <c r="R58" s="85">
+        <v>1</v>
+      </c>
       <c r="S58" s="25"/>
       <c r="T58" s="7"/>
       <c r="U58" s="43"/>
@@ -7879,13 +8209,13 @@
       <c r="AD58" s="7"/>
       <c r="AE58" s="11"/>
       <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="7"/>
-      <c r="AI58" s="43"/>
-      <c r="AJ58" s="47"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="44"/>
+      <c r="AJ58" s="48"/>
       <c r="AK58" s="8"/>
-      <c r="AL58" s="8"/>
-      <c r="AM58" s="8"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
       <c r="AO58" s="7"/>
       <c r="AP58" s="43"/>
@@ -7898,38 +8228,34 @@
     </row>
     <row r="59" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B59" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="82"/>
+        <v>111</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="107"/>
+      <c r="K59" s="107"/>
+      <c r="L59" s="107"/>
+      <c r="M59" s="108"/>
       <c r="N59" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O59" s="17">
-        <v>10.11</v>
+        <v>322</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q59" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R59" s="108">
-        <v>2</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="85"/>
       <c r="S59" s="25"/>
       <c r="T59" s="7"/>
       <c r="U59" s="43"/>
@@ -7942,15 +8268,15 @@
       <c r="AB59" s="43"/>
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
-      <c r="AE59" s="9"/>
+      <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
-      <c r="AG59" s="7"/>
+      <c r="AG59" s="11"/>
       <c r="AH59" s="7"/>
       <c r="AI59" s="43"/>
       <c r="AJ59" s="47"/>
-      <c r="AK59" s="7"/>
-      <c r="AL59" s="7"/>
-      <c r="AM59" s="7"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="8"/>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
       <c r="AP59" s="43"/>
@@ -7963,32 +8289,38 @@
     </row>
     <row r="60" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="17" t="s">
-        <v>241</v>
+        <v>78</v>
+      </c>
+      <c r="D60" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="107"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O60" s="17">
+        <v>10.11</v>
       </c>
       <c r="P60" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="108"/>
+        <v>65</v>
+      </c>
+      <c r="Q60" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="R60" s="85">
+        <v>2</v>
+      </c>
       <c r="S60" s="25"/>
       <c r="T60" s="7"/>
       <c r="U60" s="43"/>
@@ -8001,7 +8333,7 @@
       <c r="AB60" s="43"/>
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
-      <c r="AE60" s="11"/>
+      <c r="AE60" s="9"/>
       <c r="AF60" s="11"/>
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
@@ -8010,8 +8342,8 @@
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
       <c r="AM60" s="7"/>
-      <c r="AN60" s="9"/>
-      <c r="AO60" s="9"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
       <c r="AP60" s="43"/>
       <c r="AQ60" s="47"/>
       <c r="AR60" s="7"/>
@@ -8022,34 +8354,32 @@
     </row>
     <row r="61" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B61" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="15" t="s">
-        <v>302</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="15"/>
       <c r="O61" s="17" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="P61" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q61" s="15"/>
-      <c r="R61" s="108"/>
+      <c r="R61" s="85"/>
       <c r="S61" s="25"/>
       <c r="T61" s="7"/>
       <c r="U61" s="43"/>
@@ -8066,13 +8396,13 @@
       <c r="AF61" s="11"/>
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
-      <c r="AI61" s="44"/>
-      <c r="AJ61" s="48"/>
+      <c r="AI61" s="43"/>
+      <c r="AJ61" s="47"/>
       <c r="AK61" s="7"/>
       <c r="AL61" s="7"/>
       <c r="AM61" s="7"/>
-      <c r="AN61" s="7"/>
-      <c r="AO61" s="7"/>
+      <c r="AN61" s="9"/>
+      <c r="AO61" s="9"/>
       <c r="AP61" s="43"/>
       <c r="AQ61" s="47"/>
       <c r="AR61" s="7"/>
@@ -8083,32 +8413,38 @@
     </row>
     <row r="62" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B62" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="107"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="15" t="s">
+        <v>302</v>
+      </c>
       <c r="O62" s="17" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="P62" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="108"/>
+        <v>301</v>
+      </c>
+      <c r="Q62" s="19">
+        <v>1</v>
+      </c>
+      <c r="R62" s="85">
+        <v>1</v>
+      </c>
       <c r="S62" s="25"/>
       <c r="T62" s="7"/>
       <c r="U62" s="43"/>
@@ -8125,12 +8461,12 @@
       <c r="AF62" s="11"/>
       <c r="AG62" s="7"/>
       <c r="AH62" s="7"/>
-      <c r="AI62" s="43"/>
-      <c r="AJ62" s="47"/>
-      <c r="AK62" s="9"/>
-      <c r="AL62" s="9"/>
-      <c r="AM62" s="9"/>
-      <c r="AN62" s="9"/>
+      <c r="AI62" s="44"/>
+      <c r="AJ62" s="48"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
       <c r="AO62" s="7"/>
       <c r="AP62" s="43"/>
       <c r="AQ62" s="47"/>
@@ -8142,32 +8478,32 @@
     </row>
     <row r="63" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B63" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="81" t="s">
-        <v>313</v>
-      </c>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="82"/>
+        <v>186</v>
+      </c>
+      <c r="D63" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="108"/>
       <c r="N63" s="15"/>
       <c r="O63" s="17" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q63" s="15"/>
-      <c r="R63" s="108"/>
+      <c r="R63" s="85"/>
       <c r="S63" s="25"/>
       <c r="T63" s="7"/>
       <c r="U63" s="43"/>
@@ -8190,7 +8526,7 @@
       <c r="AL63" s="9"/>
       <c r="AM63" s="9"/>
       <c r="AN63" s="9"/>
-      <c r="AO63" s="9"/>
+      <c r="AO63" s="7"/>
       <c r="AP63" s="43"/>
       <c r="AQ63" s="47"/>
       <c r="AR63" s="7"/>
@@ -8201,32 +8537,32 @@
     </row>
     <row r="64" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="C64" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="82"/>
+        <v>192</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="107" t="s">
+        <v>313</v>
+      </c>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="107"/>
+      <c r="L64" s="107"/>
+      <c r="M64" s="108"/>
       <c r="N64" s="15"/>
       <c r="O64" s="17" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Q64" s="15"/>
-      <c r="R64" s="108"/>
+      <c r="R64" s="85"/>
       <c r="S64" s="25"/>
       <c r="T64" s="7"/>
       <c r="U64" s="43"/>
@@ -8245,41 +8581,47 @@
       <c r="AH64" s="7"/>
       <c r="AI64" s="43"/>
       <c r="AJ64" s="47"/>
-      <c r="AK64" s="7"/>
-      <c r="AL64" s="7"/>
-      <c r="AM64" s="7"/>
-      <c r="AN64" s="7"/>
-      <c r="AO64" s="7"/>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="9"/>
+      <c r="AN64" s="9"/>
+      <c r="AO64" s="9"/>
       <c r="AP64" s="43"/>
       <c r="AQ64" s="47"/>
       <c r="AR64" s="7"/>
       <c r="AS64" s="7"/>
-      <c r="AT64" s="10"/>
-      <c r="AU64" s="10"/>
-      <c r="AV64" s="128"/>
+      <c r="AT64" s="7"/>
+      <c r="AU64" s="7"/>
+      <c r="AV64" s="77"/>
     </row>
     <row r="65" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B65" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="D65" s="98"/>
-      <c r="E65" s="98"/>
-      <c r="F65" s="98"/>
-      <c r="G65" s="98"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="98"/>
-      <c r="J65" s="98"/>
-      <c r="K65" s="98"/>
-      <c r="L65" s="98"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="109"/>
+      <c r="B65" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="107"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="P65" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="85"/>
       <c r="S65" s="25"/>
       <c r="T65" s="7"/>
       <c r="U65" s="43"/>
@@ -8292,8 +8634,8 @@
       <c r="AB65" s="43"/>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
       <c r="AG65" s="7"/>
       <c r="AH65" s="7"/>
       <c r="AI65" s="43"/>
@@ -8307,44 +8649,32 @@
       <c r="AQ65" s="47"/>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7"/>
-      <c r="AT65" s="7"/>
-      <c r="AU65" s="7"/>
-      <c r="AV65" s="77"/>
+      <c r="AT65" s="10"/>
+      <c r="AU65" s="10"/>
+      <c r="AV65" s="103"/>
     </row>
     <row r="66" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B66" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O66" s="17">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="P66" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q66" s="19">
-        <v>1</v>
-      </c>
-      <c r="R66" s="108">
-        <v>1</v>
-      </c>
+      <c r="B66" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="124" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="125"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="86"/>
       <c r="S66" s="25"/>
       <c r="T66" s="7"/>
       <c r="U66" s="43"/>
@@ -8357,12 +8687,12 @@
       <c r="AB66" s="43"/>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
-      <c r="AE66" s="11"/>
-      <c r="AF66" s="8"/>
-      <c r="AG66" s="8"/>
-      <c r="AH66" s="11"/>
-      <c r="AI66" s="46"/>
-      <c r="AJ66" s="50"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="43"/>
+      <c r="AJ66" s="47"/>
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
@@ -8378,32 +8708,38 @@
     </row>
     <row r="67" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B67" s="36" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="81"/>
-      <c r="K67" s="81"/>
-      <c r="L67" s="81"/>
-      <c r="M67" s="82"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="17" t="s">
-        <v>271</v>
+        <v>63</v>
+      </c>
+      <c r="D67" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="108"/>
+      <c r="N67" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O67" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P67" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="108"/>
+        <v>76</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>1</v>
+      </c>
+      <c r="R67" s="85">
+        <v>1</v>
+      </c>
       <c r="S67" s="25"/>
       <c r="T67" s="7"/>
       <c r="U67" s="43"/>
@@ -8416,14 +8752,14 @@
       <c r="AB67" s="43"/>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="11"/>
-      <c r="AG67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
       <c r="AH67" s="11"/>
       <c r="AI67" s="46"/>
       <c r="AJ67" s="50"/>
-      <c r="AK67" s="8"/>
-      <c r="AL67" s="8"/>
+      <c r="AK67" s="7"/>
+      <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
       <c r="AO67" s="7"/>
@@ -8437,38 +8773,42 @@
     </row>
     <row r="68" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B68" s="36" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="D68" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="107"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
+      <c r="M68" s="108"/>
+      <c r="N68" s="15" t="s">
+        <v>323</v>
+      </c>
       <c r="O68" s="17" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="P68" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="108"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="46"/>
-      <c r="V68" s="50"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
+        <v>303</v>
+      </c>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="85">
+        <v>1</v>
+      </c>
+      <c r="S68" s="25"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
@@ -8483,9 +8823,9 @@
       <c r="AJ68" s="50"/>
       <c r="AK68" s="8"/>
       <c r="AL68" s="8"/>
-      <c r="AM68" s="11"/>
-      <c r="AN68" s="11"/>
-      <c r="AO68" s="11"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+      <c r="AO68" s="7"/>
       <c r="AP68" s="43"/>
       <c r="AQ68" s="47"/>
       <c r="AR68" s="7"/>
@@ -8496,32 +8836,32 @@
     </row>
     <row r="69" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="81"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="81"/>
-      <c r="M69" s="82"/>
+        <v>63</v>
+      </c>
+      <c r="D69" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="107"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="107"/>
+      <c r="L69" s="107"/>
+      <c r="M69" s="108"/>
       <c r="N69" s="15"/>
       <c r="O69" s="17" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q69" s="19"/>
-      <c r="R69" s="108"/>
+      <c r="R69" s="85"/>
       <c r="S69" s="27"/>
       <c r="T69" s="11"/>
       <c r="U69" s="46"/>
@@ -8535,14 +8875,14 @@
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
       <c r="AE69" s="7"/>
-      <c r="AF69" s="7"/>
-      <c r="AG69" s="7"/>
-      <c r="AH69" s="7"/>
-      <c r="AI69" s="43"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="7"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
+      <c r="AI69" s="46"/>
+      <c r="AJ69" s="50"/>
+      <c r="AK69" s="8"/>
       <c r="AL69" s="8"/>
-      <c r="AM69" s="8"/>
+      <c r="AM69" s="11"/>
       <c r="AN69" s="11"/>
       <c r="AO69" s="11"/>
       <c r="AP69" s="43"/>
@@ -8555,32 +8895,32 @@
     </row>
     <row r="70" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B70" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="81"/>
-      <c r="I70" s="81"/>
-      <c r="J70" s="81"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="81"/>
-      <c r="M70" s="82"/>
+        <v>196</v>
+      </c>
+      <c r="D70" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="107"/>
+      <c r="L70" s="107"/>
+      <c r="M70" s="108"/>
       <c r="N70" s="15"/>
       <c r="O70" s="17" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="Q70" s="19"/>
-      <c r="R70" s="108"/>
+      <c r="R70" s="85"/>
       <c r="S70" s="27"/>
       <c r="T70" s="11"/>
       <c r="U70" s="46"/>
@@ -8596,12 +8936,12 @@
       <c r="AE70" s="7"/>
       <c r="AF70" s="7"/>
       <c r="AG70" s="7"/>
-      <c r="AH70" s="8"/>
-      <c r="AI70" s="44"/>
-      <c r="AJ70" s="48"/>
-      <c r="AK70" s="8"/>
-      <c r="AL70" s="7"/>
-      <c r="AM70" s="11"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="43"/>
+      <c r="AJ70" s="47"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="8"/>
       <c r="AN70" s="11"/>
       <c r="AO70" s="11"/>
       <c r="AP70" s="43"/>
@@ -8614,36 +8954,36 @@
     </row>
     <row r="71" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D71" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="81"/>
-      <c r="M71" s="82"/>
+        <v>119</v>
+      </c>
+      <c r="D71" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="107"/>
+      <c r="M71" s="108"/>
       <c r="N71" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="O71" s="17">
-        <v>10.14</v>
+        <v>320</v>
+      </c>
+      <c r="O71" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="P71" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="108">
-        <v>2</v>
-      </c>
+      <c r="Q71" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="R71" s="85"/>
       <c r="S71" s="27"/>
       <c r="T71" s="11"/>
       <c r="U71" s="46"/>
@@ -8677,36 +9017,36 @@
     </row>
     <row r="72" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B72" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D72" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="81"/>
-      <c r="J72" s="81"/>
-      <c r="K72" s="81"/>
-      <c r="L72" s="81"/>
-      <c r="M72" s="82"/>
+        <v>123</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="107"/>
+      <c r="K72" s="107"/>
+      <c r="L72" s="107"/>
+      <c r="M72" s="108"/>
       <c r="N72" s="15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O72" s="17">
-        <v>10.119999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="P72" s="17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q72" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="R72" s="108">
+        <v>1</v>
+      </c>
+      <c r="R72" s="85">
         <v>2</v>
       </c>
       <c r="S72" s="27"/>
@@ -8722,12 +9062,12 @@
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
       <c r="AE72" s="7"/>
-      <c r="AF72" s="9"/>
-      <c r="AG72" s="9"/>
-      <c r="AH72" s="7"/>
-      <c r="AI72" s="43"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="44"/>
+      <c r="AJ72" s="48"/>
+      <c r="AK72" s="8"/>
       <c r="AL72" s="7"/>
       <c r="AM72" s="11"/>
       <c r="AN72" s="11"/>
@@ -8742,37 +9082,37 @@
     </row>
     <row r="73" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="D73" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="82"/>
+      <c r="D73" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="107"/>
+      <c r="L73" s="107"/>
+      <c r="M73" s="108"/>
       <c r="N73" s="15" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="O73" s="17">
-        <v>10.15</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="Q73" s="19">
-        <v>1</v>
-      </c>
-      <c r="R73" s="108">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="R73" s="85">
+        <v>2</v>
       </c>
       <c r="S73" s="27"/>
       <c r="T73" s="11"/>
@@ -8787,12 +9127,12 @@
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
       <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="7"/>
-      <c r="AH73" s="7"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
       <c r="AI73" s="45"/>
-      <c r="AJ73" s="47"/>
-      <c r="AK73" s="7"/>
+      <c r="AJ73" s="49"/>
+      <c r="AK73" s="9"/>
       <c r="AL73" s="7"/>
       <c r="AM73" s="11"/>
       <c r="AN73" s="11"/>
@@ -8807,32 +9147,38 @@
     </row>
     <row r="74" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="82"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="17" t="s">
-        <v>311</v>
+      <c r="D74" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="107"/>
+      <c r="M74" s="108"/>
+      <c r="N74" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="O74" s="17">
+        <v>10.15</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="108"/>
+        <v>235</v>
+      </c>
+      <c r="Q74" s="19">
+        <v>1</v>
+      </c>
+      <c r="R74" s="85">
+        <v>1</v>
+      </c>
       <c r="S74" s="27"/>
       <c r="T74" s="11"/>
       <c r="U74" s="46"/>
@@ -8849,13 +9195,13 @@
       <c r="AF74" s="7"/>
       <c r="AG74" s="7"/>
       <c r="AH74" s="7"/>
-      <c r="AI74" s="43"/>
+      <c r="AI74" s="45"/>
       <c r="AJ74" s="47"/>
       <c r="AK74" s="7"/>
       <c r="AL74" s="7"/>
       <c r="AM74" s="11"/>
-      <c r="AN74" s="9"/>
-      <c r="AO74" s="9"/>
+      <c r="AN74" s="11"/>
+      <c r="AO74" s="11"/>
       <c r="AP74" s="43"/>
       <c r="AQ74" s="47"/>
       <c r="AR74" s="7"/>
@@ -8866,32 +9212,36 @@
     </row>
     <row r="75" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D75" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="81"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="81"/>
-      <c r="K75" s="81"/>
-      <c r="L75" s="81"/>
-      <c r="M75" s="82"/>
-      <c r="N75" s="15"/>
+        <v>326</v>
+      </c>
+      <c r="D75" s="107" t="s">
+        <v>327</v>
+      </c>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
+      <c r="J75" s="107"/>
+      <c r="K75" s="107"/>
+      <c r="L75" s="107"/>
+      <c r="M75" s="108"/>
+      <c r="N75" s="15" t="s">
+        <v>328</v>
+      </c>
       <c r="O75" s="17" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="Q75" s="19"/>
-      <c r="R75" s="108"/>
+      <c r="R75" s="85">
+        <v>2</v>
+      </c>
       <c r="S75" s="27"/>
       <c r="T75" s="11"/>
       <c r="U75" s="46"/>
@@ -8908,49 +9258,39 @@
       <c r="AF75" s="7"/>
       <c r="AG75" s="7"/>
       <c r="AH75" s="7"/>
-      <c r="AI75" s="43"/>
+      <c r="AI75" s="46"/>
       <c r="AJ75" s="47"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="7"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="9"/>
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
       <c r="AO75" s="11"/>
       <c r="AP75" s="43"/>
       <c r="AQ75" s="47"/>
-      <c r="AR75" s="9"/>
-      <c r="AS75" s="9"/>
+      <c r="AR75" s="7"/>
+      <c r="AS75" s="7"/>
       <c r="AT75" s="7"/>
       <c r="AU75" s="7"/>
       <c r="AV75" s="77"/>
     </row>
     <row r="76" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B76" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="81"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="81"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="81"/>
-      <c r="M76" s="82"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="106"/>
       <c r="N76" s="15"/>
-      <c r="O76" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="P76" s="17" t="s">
-        <v>295</v>
-      </c>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
       <c r="Q76" s="19"/>
-      <c r="R76" s="108"/>
+      <c r="R76" s="85"/>
       <c r="S76" s="27"/>
       <c r="T76" s="11"/>
       <c r="U76" s="46"/>
@@ -8967,49 +9307,49 @@
       <c r="AF76" s="7"/>
       <c r="AG76" s="7"/>
       <c r="AH76" s="7"/>
-      <c r="AI76" s="43"/>
+      <c r="AI76" s="46"/>
       <c r="AJ76" s="47"/>
-      <c r="AK76" s="7"/>
-      <c r="AL76" s="7"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="9"/>
       <c r="AM76" s="11"/>
       <c r="AN76" s="11"/>
       <c r="AO76" s="11"/>
       <c r="AP76" s="43"/>
       <c r="AQ76" s="47"/>
-      <c r="AR76" s="22"/>
-      <c r="AS76" s="9"/>
+      <c r="AR76" s="7"/>
+      <c r="AS76" s="7"/>
       <c r="AT76" s="7"/>
       <c r="AU76" s="7"/>
       <c r="AV76" s="77"/>
     </row>
     <row r="77" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="D77" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="81"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="81"/>
-      <c r="K77" s="81"/>
-      <c r="L77" s="81"/>
-      <c r="M77" s="82"/>
+        <v>198</v>
+      </c>
+      <c r="D77" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="107"/>
+      <c r="K77" s="107"/>
+      <c r="L77" s="107"/>
+      <c r="M77" s="108"/>
       <c r="N77" s="15"/>
       <c r="O77" s="17" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q77" s="19"/>
-      <c r="R77" s="108"/>
+      <c r="R77" s="85"/>
       <c r="S77" s="27"/>
       <c r="T77" s="11"/>
       <c r="U77" s="46"/>
@@ -9031,49 +9371,55 @@
       <c r="AK77" s="7"/>
       <c r="AL77" s="7"/>
       <c r="AM77" s="11"/>
-      <c r="AN77" s="11"/>
-      <c r="AO77" s="11"/>
+      <c r="AN77" s="9"/>
+      <c r="AO77" s="9"/>
       <c r="AP77" s="43"/>
       <c r="AQ77" s="47"/>
-      <c r="AR77" s="9"/>
-      <c r="AS77" s="9"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="7"/>
       <c r="AT77" s="7"/>
       <c r="AU77" s="7"/>
       <c r="AV77" s="77"/>
     </row>
     <row r="78" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B78" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="98" t="s">
-        <v>207</v>
-      </c>
-      <c r="D78" s="98"/>
-      <c r="E78" s="98"/>
-      <c r="F78" s="98"/>
-      <c r="G78" s="98"/>
-      <c r="H78" s="98"/>
-      <c r="I78" s="98"/>
-      <c r="J78" s="98"/>
-      <c r="K78" s="98"/>
-      <c r="L78" s="98"/>
-      <c r="M78" s="99"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="109"/>
-      <c r="S78" s="25"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="47"/>
-      <c r="W78" s="7"/>
-      <c r="X78" s="7"/>
+      <c r="B78" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="107"/>
+      <c r="F78" s="107"/>
+      <c r="G78" s="107"/>
+      <c r="H78" s="107"/>
+      <c r="I78" s="107"/>
+      <c r="J78" s="107"/>
+      <c r="K78" s="107"/>
+      <c r="L78" s="107"/>
+      <c r="M78" s="108"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="P78" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="85"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="50"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
       <c r="AA78" s="7"/>
       <c r="AB78" s="43"/>
-      <c r="AC78" s="47"/>
+      <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
       <c r="AE78" s="7"/>
       <c r="AF78" s="7"/>
@@ -9083,60 +9429,56 @@
       <c r="AJ78" s="47"/>
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
-      <c r="AM78" s="7"/>
-      <c r="AN78" s="7"/>
-      <c r="AO78" s="7"/>
+      <c r="AM78" s="11"/>
+      <c r="AN78" s="11"/>
+      <c r="AO78" s="11"/>
       <c r="AP78" s="43"/>
       <c r="AQ78" s="47"/>
-      <c r="AR78" s="7"/>
-      <c r="AS78" s="7"/>
+      <c r="AR78" s="9"/>
+      <c r="AS78" s="9"/>
       <c r="AT78" s="7"/>
       <c r="AU78" s="7"/>
       <c r="AV78" s="77"/>
     </row>
     <row r="79" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B79" s="122" t="s">
-        <v>273</v>
-      </c>
-      <c r="C79" s="126" t="s">
-        <v>236</v>
-      </c>
-      <c r="D79" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
-      <c r="M79" s="86"/>
-      <c r="N79" s="123" t="s">
-        <v>276</v>
-      </c>
-      <c r="O79" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="P79" s="124" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q79" s="123"/>
-      <c r="R79" s="125">
-        <v>1</v>
-      </c>
-      <c r="S79" s="25"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="47"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
+      <c r="B79" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="107"/>
+      <c r="F79" s="107"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="107"/>
+      <c r="I79" s="107"/>
+      <c r="J79" s="107"/>
+      <c r="K79" s="107"/>
+      <c r="L79" s="107"/>
+      <c r="M79" s="108"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="P79" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="85"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="50"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="7"/>
       <c r="AB79" s="43"/>
-      <c r="AC79" s="47"/>
+      <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
       <c r="AE79" s="7"/>
       <c r="AF79" s="7"/>
@@ -9146,56 +9488,56 @@
       <c r="AJ79" s="47"/>
       <c r="AK79" s="7"/>
       <c r="AL79" s="7"/>
-      <c r="AM79" s="7"/>
-      <c r="AN79" s="7"/>
-      <c r="AO79" s="7"/>
+      <c r="AM79" s="11"/>
+      <c r="AN79" s="11"/>
+      <c r="AO79" s="11"/>
       <c r="AP79" s="43"/>
       <c r="AQ79" s="47"/>
-      <c r="AR79" s="8"/>
-      <c r="AS79" s="8"/>
-      <c r="AT79" s="8"/>
-      <c r="AU79" s="8"/>
-      <c r="AV79" s="127"/>
+      <c r="AR79" s="22"/>
+      <c r="AS79" s="9"/>
+      <c r="AT79" s="7"/>
+      <c r="AU79" s="7"/>
+      <c r="AV79" s="77"/>
     </row>
     <row r="80" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B80" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D80" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="81"/>
-      <c r="F80" s="81"/>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
-      <c r="I80" s="81"/>
-      <c r="J80" s="81"/>
-      <c r="K80" s="81"/>
-      <c r="L80" s="81"/>
-      <c r="M80" s="82"/>
+        <v>325</v>
+      </c>
+      <c r="C80" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D80" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" s="107"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="107"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="107"/>
+      <c r="J80" s="107"/>
+      <c r="K80" s="107"/>
+      <c r="L80" s="107"/>
+      <c r="M80" s="108"/>
       <c r="N80" s="15"/>
       <c r="O80" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P80" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="108"/>
-      <c r="S80" s="25"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="47"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="85"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="50"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
       <c r="AB80" s="43"/>
-      <c r="AC80" s="47"/>
+      <c r="AC80" s="7"/>
       <c r="AD80" s="7"/>
       <c r="AE80" s="7"/>
       <c r="AF80" s="7"/>
@@ -9205,45 +9547,39 @@
       <c r="AJ80" s="47"/>
       <c r="AK80" s="7"/>
       <c r="AL80" s="7"/>
-      <c r="AM80" s="7"/>
-      <c r="AN80" s="7"/>
-      <c r="AO80" s="7"/>
+      <c r="AM80" s="11"/>
+      <c r="AN80" s="11"/>
+      <c r="AO80" s="11"/>
       <c r="AP80" s="43"/>
       <c r="AQ80" s="47"/>
-      <c r="AR80" s="8"/>
-      <c r="AS80" s="7"/>
+      <c r="AR80" s="9"/>
+      <c r="AS80" s="9"/>
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
       <c r="AV80" s="77"/>
     </row>
     <row r="81" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B81" s="122" t="s">
-        <v>134</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D81" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="E81" s="81"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="81"/>
-      <c r="L81" s="81"/>
-      <c r="M81" s="82"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="P81" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="108"/>
+      <c r="B81" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="124" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="124"/>
+      <c r="E81" s="124"/>
+      <c r="F81" s="124"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="124"/>
+      <c r="J81" s="124"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="125"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="86"/>
       <c r="S81" s="25"/>
       <c r="T81" s="7"/>
       <c r="U81" s="43"/>
@@ -9269,40 +9605,44 @@
       <c r="AO81" s="7"/>
       <c r="AP81" s="43"/>
       <c r="AQ81" s="47"/>
-      <c r="AR81" s="8"/>
+      <c r="AR81" s="7"/>
       <c r="AS81" s="7"/>
       <c r="AT81" s="7"/>
       <c r="AU81" s="7"/>
       <c r="AV81" s="77"/>
     </row>
     <row r="82" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B82" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D82" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="E82" s="81"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="81"/>
-      <c r="H82" s="81"/>
-      <c r="I82" s="81"/>
-      <c r="J82" s="81"/>
-      <c r="K82" s="81"/>
-      <c r="L82" s="81"/>
-      <c r="M82" s="82"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="P82" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="108"/>
+      <c r="B82" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="C82" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="115" t="s">
+        <v>275</v>
+      </c>
+      <c r="E82" s="115"/>
+      <c r="F82" s="115"/>
+      <c r="G82" s="115"/>
+      <c r="H82" s="115"/>
+      <c r="I82" s="115"/>
+      <c r="J82" s="115"/>
+      <c r="K82" s="115"/>
+      <c r="L82" s="115"/>
+      <c r="M82" s="116"/>
+      <c r="N82" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="O82" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="P82" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q82" s="98"/>
+      <c r="R82" s="100">
+        <v>1</v>
+      </c>
       <c r="S82" s="25"/>
       <c r="T82" s="7"/>
       <c r="U82" s="43"/>
@@ -9328,40 +9668,40 @@
       <c r="AO82" s="7"/>
       <c r="AP82" s="43"/>
       <c r="AQ82" s="47"/>
-      <c r="AR82" s="7"/>
+      <c r="AR82" s="8"/>
       <c r="AS82" s="8"/>
       <c r="AT82" s="8"/>
-      <c r="AU82" s="7"/>
-      <c r="AV82" s="77"/>
+      <c r="AU82" s="8"/>
+      <c r="AV82" s="102"/>
     </row>
     <row r="83" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B83" s="122" t="s">
-        <v>136</v>
+      <c r="B83" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" s="81" t="s">
-        <v>214</v>
-      </c>
-      <c r="E83" s="81"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="81"/>
-      <c r="M83" s="82"/>
+        <v>209</v>
+      </c>
+      <c r="D83" s="107" t="s">
+        <v>210</v>
+      </c>
+      <c r="E83" s="107"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="107"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="107"/>
+      <c r="K83" s="107"/>
+      <c r="L83" s="107"/>
+      <c r="M83" s="108"/>
       <c r="N83" s="15"/>
       <c r="O83" s="17" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="P83" s="17" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="Q83" s="15"/>
-      <c r="R83" s="108"/>
+      <c r="R83" s="85"/>
       <c r="S83" s="25"/>
       <c r="T83" s="7"/>
       <c r="U83" s="43"/>
@@ -9387,115 +9727,294 @@
       <c r="AO83" s="7"/>
       <c r="AP83" s="43"/>
       <c r="AQ83" s="47"/>
-      <c r="AR83" s="7"/>
+      <c r="AR83" s="8"/>
       <c r="AS83" s="7"/>
-      <c r="AT83" s="8"/>
+      <c r="AT83" s="7"/>
       <c r="AU83" s="7"/>
       <c r="AV83" s="77"/>
     </row>
-    <row r="84" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="121" t="s">
+    <row r="84" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B84" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="E84" s="107"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="107"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="107"/>
+      <c r="J84" s="107"/>
+      <c r="K84" s="107"/>
+      <c r="L84" s="107"/>
+      <c r="M84" s="108"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="P84" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="85"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="43"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="43"/>
+      <c r="AC84" s="47"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="7"/>
+      <c r="AG84" s="7"/>
+      <c r="AH84" s="7"/>
+      <c r="AI84" s="43"/>
+      <c r="AJ84" s="47"/>
+      <c r="AK84" s="7"/>
+      <c r="AL84" s="7"/>
+      <c r="AM84" s="7"/>
+      <c r="AN84" s="7"/>
+      <c r="AO84" s="7"/>
+      <c r="AP84" s="43"/>
+      <c r="AQ84" s="47"/>
+      <c r="AR84" s="8"/>
+      <c r="AS84" s="7"/>
+      <c r="AT84" s="7"/>
+      <c r="AU84" s="7"/>
+      <c r="AV84" s="77"/>
+    </row>
+    <row r="85" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B85" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="107"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="107"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="107"/>
+      <c r="K85" s="107"/>
+      <c r="L85" s="107"/>
+      <c r="M85" s="108"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="P85" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="85"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="43"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="43"/>
+      <c r="AC85" s="47"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7"/>
+      <c r="AH85" s="7"/>
+      <c r="AI85" s="43"/>
+      <c r="AJ85" s="47"/>
+      <c r="AK85" s="7"/>
+      <c r="AL85" s="7"/>
+      <c r="AM85" s="7"/>
+      <c r="AN85" s="7"/>
+      <c r="AO85" s="7"/>
+      <c r="AP85" s="43"/>
+      <c r="AQ85" s="47"/>
+      <c r="AR85" s="7"/>
+      <c r="AS85" s="8"/>
+      <c r="AT85" s="8"/>
+      <c r="AU85" s="7"/>
+      <c r="AV85" s="77"/>
+    </row>
+    <row r="86" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B86" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="107"/>
+      <c r="L86" s="107"/>
+      <c r="M86" s="108"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="P86" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="85"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="43"/>
+      <c r="AC86" s="47"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="43"/>
+      <c r="AJ86" s="47"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="43"/>
+      <c r="AQ86" s="47"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7"/>
+      <c r="AT86" s="8"/>
+      <c r="AU86" s="7"/>
+      <c r="AV86" s="77"/>
+    </row>
+    <row r="87" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="111" t="s">
+      <c r="C87" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="D84" s="112" t="s">
+      <c r="D87" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="E84" s="112"/>
-      <c r="F84" s="112"/>
-      <c r="G84" s="112"/>
-      <c r="H84" s="112"/>
-      <c r="I84" s="112"/>
-      <c r="J84" s="112"/>
-      <c r="K84" s="112"/>
-      <c r="L84" s="112"/>
-      <c r="M84" s="113"/>
-      <c r="N84" s="68"/>
-      <c r="O84" s="69" t="s">
+      <c r="E87" s="130"/>
+      <c r="F87" s="130"/>
+      <c r="G87" s="130"/>
+      <c r="H87" s="130"/>
+      <c r="I87" s="130"/>
+      <c r="J87" s="130"/>
+      <c r="K87" s="130"/>
+      <c r="L87" s="130"/>
+      <c r="M87" s="131"/>
+      <c r="N87" s="68"/>
+      <c r="O87" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="P84" s="69" t="s">
+      <c r="P87" s="69" t="s">
         <v>310</v>
       </c>
-      <c r="Q84" s="68"/>
-      <c r="R84" s="114"/>
-      <c r="S84" s="70"/>
-      <c r="T84" s="71"/>
-      <c r="U84" s="72"/>
-      <c r="V84" s="73"/>
-      <c r="W84" s="71"/>
-      <c r="X84" s="71"/>
-      <c r="Y84" s="71"/>
-      <c r="Z84" s="71"/>
-      <c r="AA84" s="71"/>
-      <c r="AB84" s="72"/>
-      <c r="AC84" s="73"/>
-      <c r="AD84" s="71"/>
-      <c r="AE84" s="71"/>
-      <c r="AF84" s="71"/>
-      <c r="AG84" s="71"/>
-      <c r="AH84" s="71"/>
-      <c r="AI84" s="72"/>
-      <c r="AJ84" s="73"/>
-      <c r="AK84" s="71"/>
-      <c r="AL84" s="71"/>
-      <c r="AM84" s="71"/>
-      <c r="AN84" s="71"/>
-      <c r="AO84" s="71"/>
-      <c r="AP84" s="72"/>
-      <c r="AQ84" s="73"/>
-      <c r="AR84" s="71"/>
-      <c r="AS84" s="71"/>
-      <c r="AT84" s="71"/>
-      <c r="AU84" s="129"/>
-      <c r="AV84" s="78"/>
+      <c r="Q87" s="68"/>
+      <c r="R87" s="89"/>
+      <c r="S87" s="70"/>
+      <c r="T87" s="71"/>
+      <c r="U87" s="72"/>
+      <c r="V87" s="73"/>
+      <c r="W87" s="71"/>
+      <c r="X87" s="71"/>
+      <c r="Y87" s="71"/>
+      <c r="Z87" s="71"/>
+      <c r="AA87" s="71"/>
+      <c r="AB87" s="72"/>
+      <c r="AC87" s="73"/>
+      <c r="AD87" s="71"/>
+      <c r="AE87" s="71"/>
+      <c r="AF87" s="71"/>
+      <c r="AG87" s="71"/>
+      <c r="AH87" s="71"/>
+      <c r="AI87" s="72"/>
+      <c r="AJ87" s="73"/>
+      <c r="AK87" s="71"/>
+      <c r="AL87" s="71"/>
+      <c r="AM87" s="71"/>
+      <c r="AN87" s="71"/>
+      <c r="AO87" s="71"/>
+      <c r="AP87" s="72"/>
+      <c r="AQ87" s="73"/>
+      <c r="AR87" s="71"/>
+      <c r="AS87" s="71"/>
+      <c r="AT87" s="71"/>
+      <c r="AU87" s="104"/>
+      <c r="AV87" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="90">
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D78:M78"/>
     <mergeCell ref="D41:M41"/>
     <mergeCell ref="D43:M43"/>
     <mergeCell ref="D42:M42"/>
     <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D79:M79"/>
     <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="C81:M81"/>
+    <mergeCell ref="D83:M83"/>
     <mergeCell ref="D84:M84"/>
-    <mergeCell ref="C78:M78"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D86:M86"/>
     <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D68:M68"/>
     <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D60:M60"/>
     <mergeCell ref="C46:M46"/>
     <mergeCell ref="D47:M47"/>
-    <mergeCell ref="C55:M55"/>
-    <mergeCell ref="D56:M56"/>
-    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="C56:M56"/>
+    <mergeCell ref="D57:M57"/>
     <mergeCell ref="D50:M50"/>
     <mergeCell ref="D51:M51"/>
     <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="C66:M66"/>
+    <mergeCell ref="D67:M67"/>
     <mergeCell ref="D59:M59"/>
-    <mergeCell ref="C65:M65"/>
-    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="D62:M62"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:M6"/>
@@ -9508,11 +10027,11 @@
     <mergeCell ref="D19:M19"/>
     <mergeCell ref="D22:M22"/>
     <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D24:M24"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D54:M54"/>
     <mergeCell ref="U5:AV5"/>
     <mergeCell ref="D27:M27"/>
     <mergeCell ref="S5:T5"/>
@@ -9525,15 +10044,12 @@
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="C16:M16"/>
     <mergeCell ref="C26:M26"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D54:M54"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D31:M31"/>
     <mergeCell ref="D30:M30"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D58:M58"/>
     <mergeCell ref="D33:M33"/>
     <mergeCell ref="D34:M34"/>
     <mergeCell ref="D12:M12"/>
@@ -9542,12 +10058,15 @@
     <mergeCell ref="D44:M44"/>
     <mergeCell ref="D37:M37"/>
     <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D36:M36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B16 B26 P23:P25 B46 B65 P48:P54 B78 P66:P77 B7 P11:P15 O14:O15 O31 P27:P42 O37:O42 O43:P45 O51 O53:O54 O57:O58 O60:O63 O67:O70 O74:O77 O79:P84 O64:P64 P56:P63" numberStoredAsText="1"/>
+    <ignoredError sqref="B16 B26 P23:P25 B46 B66 B81 B7 P11:P15 O14:O15 O31 P27:P42 O37:O42 O43:P43 O52 O54:O55 O58:O59 O61:O64 O68:O71 O77:P80 O82:P87 O65:P65 P57:P64 P48:P55 O49 P67:P73 O75 O44:P45 P74:P75" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="333">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1202,10 +1202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.26</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1221,10 +1217,6 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>특정 지점 도착 시 상호작용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기획</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1264,10 +1256,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6-13</t>
   </si>
   <si>
@@ -1288,6 +1276,26 @@
   </si>
   <si>
     <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google API를 활용하여 맵 특정 좌표에 오브젝트 / 상호작용 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1775,7 +1783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1902,9 +1910,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2097,11 +2102,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2115,18 +2138,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2148,29 +2171,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4428,6 +4430,130 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>268774</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>29937</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14052810" y="7249650"/>
+          <a:ext cx="577591" cy="60107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>8961</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>259818</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14337282" y="8701933"/>
+          <a:ext cx="250857" cy="54343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4694,11 +4820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AV87"/>
+  <dimension ref="B1:AV86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S65" sqref="S65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4771,93 +4897,93 @@
     </row>
     <row r="4" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:48" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="113" t="s">
+      <c r="O5" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="113" t="s">
+      <c r="P5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="109" t="s">
+      <c r="Q5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="120" t="s">
+      <c r="R5" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="119" t="s">
+      <c r="S5" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117" t="s">
+      <c r="T5" s="122"/>
+      <c r="U5" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
-      <c r="AF5" s="117"/>
-      <c r="AG5" s="117"/>
-      <c r="AH5" s="117"/>
-      <c r="AI5" s="117"/>
-      <c r="AJ5" s="117"/>
-      <c r="AK5" s="117"/>
-      <c r="AL5" s="117"/>
-      <c r="AM5" s="117"/>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="117"/>
-      <c r="AP5" s="117"/>
-      <c r="AQ5" s="117"/>
-      <c r="AR5" s="117"/>
-      <c r="AS5" s="117"/>
-      <c r="AT5" s="117"/>
-      <c r="AU5" s="117"/>
-      <c r="AV5" s="118"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="122"/>
+      <c r="AO5" s="122"/>
+      <c r="AP5" s="122"/>
+      <c r="AQ5" s="122"/>
+      <c r="AR5" s="122"/>
+      <c r="AS5" s="122"/>
+      <c r="AT5" s="122"/>
+      <c r="AU5" s="122"/>
+      <c r="AV5" s="123"/>
     </row>
     <row r="6" spans="2:48" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="127"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="74">
+      <c r="B6" s="113"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="73">
         <v>29</v>
       </c>
       <c r="T6" s="2">
@@ -4944,7 +5070,7 @@
       <c r="AU6" s="2">
         <v>27</v>
       </c>
-      <c r="AV6" s="75">
+      <c r="AV6" s="74">
         <v>28</v>
       </c>
     </row>
@@ -4952,642 +5078,642 @@
       <c r="B7" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="60"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="76"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="75"/>
     </row>
     <row r="8" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="51" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="51">
         <v>9.2899999999999991</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="51">
         <v>9.2899999999999991</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="52">
         <v>1</v>
       </c>
-      <c r="R8" s="82">
+      <c r="R8" s="81">
         <v>2</v>
       </c>
       <c r="S8" s="29"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="75"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="74"/>
     </row>
     <row r="9" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="51" t="s">
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="51">
         <v>9.2899999999999991</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="51">
         <v>9.2899999999999991</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="Q9" s="52">
         <v>1</v>
       </c>
-      <c r="R9" s="82">
+      <c r="R9" s="81">
         <v>2</v>
       </c>
       <c r="S9" s="30"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="63"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="75"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="74"/>
     </row>
     <row r="10" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="51" t="s">
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="51">
         <v>10.039999999999999</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="51">
         <v>10.06</v>
       </c>
-      <c r="Q10" s="53">
+      <c r="Q10" s="52">
         <v>1</v>
       </c>
-      <c r="R10" s="82">
+      <c r="R10" s="81">
         <v>1</v>
       </c>
       <c r="S10" s="31"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="63"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="75"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="74"/>
     </row>
     <row r="11" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="51" t="s">
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="51">
         <v>10.07</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="P11" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="Q11" s="52">
         <v>1</v>
       </c>
-      <c r="R11" s="82">
+      <c r="R11" s="81">
         <v>2</v>
       </c>
       <c r="S11" s="31"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="63"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="75"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="63"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="74"/>
     </row>
     <row r="12" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="51" t="s">
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="O12" s="52">
+      <c r="O12" s="51">
         <v>10.130000000000001</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="P12" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="Q12" s="53">
+      <c r="Q12" s="52">
         <v>1</v>
       </c>
-      <c r="R12" s="82">
+      <c r="R12" s="81">
         <v>2</v>
       </c>
       <c r="S12" s="31"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
       <c r="AG12" s="6"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="63"/>
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="75"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="62"/>
+      <c r="AQ12" s="63"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="74"/>
     </row>
     <row r="13" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="51" t="s">
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="51">
         <v>10.130000000000001</v>
       </c>
-      <c r="P13" s="52" t="s">
+      <c r="P13" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="Q13" s="53">
+      <c r="Q13" s="52">
         <v>1</v>
       </c>
-      <c r="R13" s="82">
+      <c r="R13" s="81">
         <v>1</v>
       </c>
       <c r="S13" s="31"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="63"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="75"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="62"/>
+      <c r="AQ13" s="63"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="74"/>
     </row>
     <row r="14" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="51" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="O14" s="52" t="s">
+      <c r="O14" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="P14" s="52" t="s">
+      <c r="P14" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="82">
+      <c r="Q14" s="52"/>
+      <c r="R14" s="81">
         <v>2</v>
       </c>
       <c r="S14" s="31"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
       <c r="AN14" s="6"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="63"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="54"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="54"/>
-      <c r="AV14" s="75"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="74"/>
     </row>
     <row r="15" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="51" t="s">
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="O15" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="P15" s="52" t="s">
+      <c r="P15" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="82">
+      <c r="Q15" s="52"/>
+      <c r="R15" s="81">
         <v>2</v>
       </c>
       <c r="S15" s="31"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="64"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="54"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53"/>
       <c r="AU15" s="6"/>
-      <c r="AV15" s="75"/>
+      <c r="AV15" s="74"/>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="125"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="111"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="83"/>
+      <c r="R16" s="82"/>
       <c r="S16" s="25"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="47"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="46"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="43"/>
+      <c r="AB16" s="42"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="47"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="46"/>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
-      <c r="AP16" s="43"/>
-      <c r="AQ16" s="47"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="46"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
-      <c r="AV16" s="77"/>
+      <c r="AV16" s="76"/>
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="129"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="119"/>
       <c r="N17" s="14" t="s">
         <v>10</v>
       </c>
@@ -5600,39 +5726,39 @@
       <c r="Q17" s="18">
         <v>1</v>
       </c>
-      <c r="R17" s="84">
+      <c r="R17" s="83">
         <v>1</v>
       </c>
       <c r="S17" s="32"/>
       <c r="T17" s="8"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="48"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="47"/>
       <c r="W17" s="8"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="43"/>
+      <c r="AB17" s="42"/>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="43"/>
-      <c r="AJ17" s="47"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="46"/>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
-      <c r="AP17" s="43"/>
-      <c r="AQ17" s="47"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="46"/>
       <c r="AR17" s="7"/>
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
-      <c r="AV17" s="77"/>
+      <c r="AV17" s="76"/>
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B18" s="36" t="s">
@@ -5641,18 +5767,18 @@
       <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="108"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="105"/>
       <c r="N18" s="15" t="s">
         <v>32</v>
       </c>
@@ -5665,39 +5791,39 @@
       <c r="Q18" s="19">
         <v>1</v>
       </c>
-      <c r="R18" s="85">
+      <c r="R18" s="84">
         <v>1</v>
       </c>
       <c r="S18" s="27"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="47"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="46"/>
       <c r="W18" s="7"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="43"/>
+      <c r="AB18" s="42"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="47"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="46"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
-      <c r="AP18" s="43"/>
-      <c r="AQ18" s="47"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="46"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
-      <c r="AV18" s="77"/>
+      <c r="AV18" s="76"/>
     </row>
     <row r="19" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B19" s="36" t="s">
@@ -5706,18 +5832,18 @@
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="108"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="105"/>
       <c r="N19" s="15" t="s">
         <v>33</v>
       </c>
@@ -5730,39 +5856,39 @@
       <c r="Q19" s="19">
         <v>1</v>
       </c>
-      <c r="R19" s="85">
+      <c r="R19" s="84">
         <v>2</v>
       </c>
       <c r="S19" s="25"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="47"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="46"/>
       <c r="W19" s="7"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
-      <c r="AB19" s="43"/>
+      <c r="AB19" s="42"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
-      <c r="AI19" s="43"/>
-      <c r="AJ19" s="47"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="46"/>
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
-      <c r="AP19" s="43"/>
-      <c r="AQ19" s="47"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="46"/>
       <c r="AR19" s="7"/>
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
-      <c r="AV19" s="77"/>
+      <c r="AV19" s="76"/>
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B20" s="36" t="s">
@@ -5771,18 +5897,18 @@
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="108"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="105"/>
       <c r="N20" s="15" t="s">
         <v>34</v>
       </c>
@@ -5795,59 +5921,59 @@
       <c r="Q20" s="19">
         <v>1</v>
       </c>
-      <c r="R20" s="85">
+      <c r="R20" s="84">
         <v>1</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="47"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="46"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="11"/>
-      <c r="AB20" s="43"/>
+      <c r="AB20" s="42"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="43"/>
-      <c r="AJ20" s="47"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="46"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
-      <c r="AP20" s="43"/>
-      <c r="AQ20" s="47"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="46"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
-      <c r="AV20" s="77"/>
+      <c r="AV20" s="76"/>
     </row>
     <row r="21" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B21" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="108"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="105"/>
       <c r="N21" s="15" t="s">
         <v>35</v>
       </c>
@@ -5860,39 +5986,39 @@
       <c r="Q21" s="19">
         <v>1</v>
       </c>
-      <c r="R21" s="85">
+      <c r="R21" s="84">
         <v>2</v>
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="47"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="46"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="7"/>
-      <c r="AB21" s="43"/>
+      <c r="AB21" s="42"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="43"/>
-      <c r="AJ21" s="47"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="46"/>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
-      <c r="AP21" s="43"/>
-      <c r="AQ21" s="47"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="46"/>
       <c r="AR21" s="7"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
-      <c r="AV21" s="77"/>
+      <c r="AV21" s="76"/>
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B22" s="36" t="s">
@@ -5901,18 +6027,18 @@
       <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="108"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="15" t="s">
         <v>37</v>
       </c>
@@ -5925,39 +6051,39 @@
       <c r="Q22" s="19">
         <v>1</v>
       </c>
-      <c r="R22" s="85">
+      <c r="R22" s="84">
         <v>2</v>
       </c>
       <c r="S22" s="25"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="47"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="46"/>
       <c r="W22" s="7"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="43"/>
+      <c r="AB22" s="42"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="43"/>
-      <c r="AJ22" s="47"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="46"/>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
-      <c r="AP22" s="43"/>
-      <c r="AQ22" s="47"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="46"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
-      <c r="AV22" s="77"/>
+      <c r="AV22" s="76"/>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
@@ -5966,18 +6092,18 @@
       <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="108"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="105"/>
       <c r="N23" s="15" t="s">
         <v>83</v>
       </c>
@@ -5990,59 +6116,59 @@
       <c r="Q23" s="19">
         <v>1</v>
       </c>
-      <c r="R23" s="85">
+      <c r="R23" s="84">
         <v>1</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="47"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="46"/>
       <c r="W23" s="7"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="23"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="43"/>
+      <c r="AB23" s="42"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="47"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="46"/>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
-      <c r="AP23" s="43"/>
-      <c r="AQ23" s="47"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="46"/>
       <c r="AR23" s="7"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
-      <c r="AV23" s="77"/>
+      <c r="AV23" s="76"/>
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
       <c r="N24" s="15" t="s">
         <v>140</v>
       </c>
@@ -6055,39 +6181,39 @@
       <c r="Q24" s="19">
         <v>1</v>
       </c>
-      <c r="R24" s="85">
+      <c r="R24" s="84">
         <v>1</v>
       </c>
       <c r="S24" s="25"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="47"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="46"/>
       <c r="W24" s="7"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
       <c r="AA24" s="11"/>
-      <c r="AB24" s="43"/>
+      <c r="AB24" s="42"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="47"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="46"/>
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="47"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="46"/>
       <c r="AR24" s="7"/>
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
-      <c r="AV24" s="77"/>
+      <c r="AV24" s="76"/>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
@@ -6096,18 +6222,18 @@
       <c r="C25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="108"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="105"/>
       <c r="N25" s="15" t="s">
         <v>154</v>
       </c>
@@ -6120,112 +6246,112 @@
       <c r="Q25" s="19">
         <v>1</v>
       </c>
-      <c r="R25" s="85">
+      <c r="R25" s="84">
         <v>1</v>
       </c>
       <c r="S25" s="25"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="47"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="46"/>
       <c r="W25" s="7"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
       <c r="AA25" s="11"/>
-      <c r="AB25" s="43"/>
+      <c r="AB25" s="42"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="47"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="46"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="47"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="46"/>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
-      <c r="AV25" s="77"/>
+      <c r="AV25" s="76"/>
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="125"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="111"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
       <c r="Q26" s="13"/>
-      <c r="R26" s="83"/>
+      <c r="R26" s="82"/>
       <c r="S26" s="25"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="47"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="46"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="43"/>
+      <c r="AB26" s="42"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="47"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="46"/>
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="47"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="46"/>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
-      <c r="AV26" s="77"/>
+      <c r="AV26" s="76"/>
     </row>
     <row r="27" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B27" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="108"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="105"/>
       <c r="N27" s="15" t="s">
         <v>10</v>
       </c>
@@ -6238,59 +6364,59 @@
       <c r="Q27" s="19">
         <v>1</v>
       </c>
-      <c r="R27" s="85">
+      <c r="R27" s="84">
         <v>1</v>
       </c>
       <c r="S27" s="26"/>
       <c r="T27" s="9"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="49"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="48"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="7"/>
-      <c r="AB27" s="43"/>
+      <c r="AB27" s="42"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="43"/>
-      <c r="AJ27" s="47"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="46"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="47"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="46"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="7"/>
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
-      <c r="AV27" s="77"/>
+      <c r="AV27" s="76"/>
     </row>
     <row r="28" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="108"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="105"/>
       <c r="N28" s="15" t="s">
         <v>66</v>
       </c>
@@ -6303,59 +6429,59 @@
       <c r="Q28" s="19">
         <v>1</v>
       </c>
-      <c r="R28" s="85">
+      <c r="R28" s="84">
         <v>2</v>
       </c>
       <c r="S28" s="25"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="47"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="46"/>
       <c r="W28" s="7"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
-      <c r="AB28" s="43"/>
+      <c r="AB28" s="42"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="43"/>
-      <c r="AJ28" s="47"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="46"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
-      <c r="AP28" s="43"/>
-      <c r="AQ28" s="47"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="46"/>
       <c r="AR28" s="7"/>
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
-      <c r="AV28" s="77"/>
+      <c r="AV28" s="76"/>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="107" t="s">
+      <c r="D29" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="108"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="105"/>
       <c r="N29" s="15" t="s">
         <v>10</v>
       </c>
@@ -6368,59 +6494,59 @@
       <c r="Q29" s="19">
         <v>1</v>
       </c>
-      <c r="R29" s="85">
+      <c r="R29" s="84">
         <v>2</v>
       </c>
       <c r="S29" s="25"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="47"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="46"/>
       <c r="W29" s="7"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
-      <c r="AB29" s="43"/>
+      <c r="AB29" s="42"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="47"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="46"/>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
-      <c r="AP29" s="43"/>
-      <c r="AQ29" s="47"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="46"/>
       <c r="AR29" s="7"/>
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
-      <c r="AV29" s="77"/>
+      <c r="AV29" s="76"/>
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="108"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="105"/>
       <c r="N30" s="15" t="s">
         <v>95</v>
       </c>
@@ -6433,59 +6559,59 @@
       <c r="Q30" s="19">
         <v>1</v>
       </c>
-      <c r="R30" s="85">
+      <c r="R30" s="84">
         <v>2</v>
       </c>
       <c r="S30" s="25"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="47"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="46"/>
       <c r="W30" s="7"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="43"/>
+      <c r="AB30" s="42"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="9"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="47"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="46"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="47"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="46"/>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
-      <c r="AV30" s="77"/>
+      <c r="AV30" s="76"/>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B31" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="107" t="s">
+      <c r="D31" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="108"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="105"/>
       <c r="N31" s="15" t="s">
         <v>245</v>
       </c>
@@ -6498,59 +6624,59 @@
       <c r="Q31" s="19">
         <v>1</v>
       </c>
-      <c r="R31" s="85">
+      <c r="R31" s="84">
         <v>1</v>
       </c>
       <c r="S31" s="25"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="47"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="46"/>
       <c r="W31" s="7"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
-      <c r="AB31" s="43"/>
+      <c r="AB31" s="42"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="11"/>
       <c r="AF31" s="11"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="47"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="46"/>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
       <c r="AO31" s="7"/>
-      <c r="AP31" s="43"/>
-      <c r="AQ31" s="47"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="46"/>
       <c r="AR31" s="7"/>
       <c r="AS31" s="7"/>
       <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
-      <c r="AV31" s="77"/>
+      <c r="AV31" s="76"/>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="108"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="105"/>
       <c r="N32" s="15" t="s">
         <v>99</v>
       </c>
@@ -6563,59 +6689,59 @@
       <c r="Q32" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="R32" s="85">
+      <c r="R32" s="84">
         <v>1</v>
       </c>
       <c r="S32" s="25"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="47"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="46"/>
       <c r="W32" s="7"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="43"/>
+      <c r="AB32" s="42"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="43"/>
-      <c r="AJ32" s="47"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="46"/>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
-      <c r="AP32" s="43"/>
-      <c r="AQ32" s="47"/>
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="46"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7"/>
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
-      <c r="AV32" s="77"/>
+      <c r="AV32" s="76"/>
     </row>
     <row r="33" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B33" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="107" t="s">
+      <c r="D33" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="108"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="105"/>
       <c r="N33" s="15" t="s">
         <v>104</v>
       </c>
@@ -6625,60 +6751,62 @@
       <c r="P33" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="85">
-        <v>1</v>
+      <c r="Q33" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="R33" s="84">
+        <v>2</v>
       </c>
       <c r="S33" s="25"/>
       <c r="T33" s="7"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="47"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="46"/>
       <c r="W33" s="7"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
-      <c r="AB33" s="43"/>
+      <c r="AB33" s="42"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="43"/>
-      <c r="AJ33" s="47"/>
+      <c r="AI33" s="42"/>
+      <c r="AJ33" s="46"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
-      <c r="AP33" s="43"/>
-      <c r="AQ33" s="47"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="46"/>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7"/>
       <c r="AT33" s="7"/>
       <c r="AU33" s="7"/>
-      <c r="AV33" s="77"/>
+      <c r="AV33" s="76"/>
     </row>
     <row r="34" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B34" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="108"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="105"/>
       <c r="N34" s="15" t="s">
         <v>109</v>
       </c>
@@ -6689,59 +6817,59 @@
         <v>110</v>
       </c>
       <c r="Q34" s="19"/>
-      <c r="R34" s="85">
+      <c r="R34" s="84">
         <v>2</v>
       </c>
       <c r="S34" s="25"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="47"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="46"/>
       <c r="W34" s="7"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="43"/>
+      <c r="AB34" s="42"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="11"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="9"/>
       <c r="AH34" s="7"/>
-      <c r="AI34" s="43"/>
-      <c r="AJ34" s="47"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="46"/>
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
-      <c r="AP34" s="43"/>
-      <c r="AQ34" s="47"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="46"/>
       <c r="AR34" s="7"/>
       <c r="AS34" s="7"/>
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
-      <c r="AV34" s="77"/>
+      <c r="AV34" s="76"/>
     </row>
     <row r="35" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B35" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="107" t="s">
+      <c r="D35" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="108"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="105"/>
       <c r="N35" s="15" t="s">
         <v>144</v>
       </c>
@@ -6754,59 +6882,59 @@
       <c r="Q35" s="19">
         <v>1</v>
       </c>
-      <c r="R35" s="85">
+      <c r="R35" s="84">
         <v>2</v>
       </c>
       <c r="S35" s="25"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="47"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="46"/>
       <c r="W35" s="7"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
-      <c r="AB35" s="43"/>
+      <c r="AB35" s="42"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="11"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="11"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="43"/>
-      <c r="AJ35" s="47"/>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="46"/>
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
-      <c r="AP35" s="43"/>
-      <c r="AQ35" s="47"/>
+      <c r="AP35" s="42"/>
+      <c r="AQ35" s="46"/>
       <c r="AR35" s="7"/>
       <c r="AS35" s="7"/>
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
-      <c r="AV35" s="77"/>
+      <c r="AV35" s="76"/>
     </row>
     <row r="36" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B36" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="107" t="s">
+      <c r="D36" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="108"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="105"/>
       <c r="N36" s="15" t="s">
         <v>147</v>
       </c>
@@ -6816,60 +6944,62 @@
       <c r="P36" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="85">
+      <c r="Q36" s="19">
+        <v>1</v>
+      </c>
+      <c r="R36" s="84">
         <v>1</v>
       </c>
       <c r="S36" s="25"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="47"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="46"/>
       <c r="W36" s="7"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="43"/>
+      <c r="AB36" s="42"/>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="11"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="9"/>
       <c r="AH36" s="7"/>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="47"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="46"/>
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7"/>
-      <c r="AP36" s="43"/>
-      <c r="AQ36" s="47"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="46"/>
       <c r="AR36" s="7"/>
       <c r="AS36" s="7"/>
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
-      <c r="AV36" s="77"/>
+      <c r="AV36" s="76"/>
     </row>
     <row r="37" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B37" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="D37" s="107" t="s">
+      <c r="D37" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="108"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="105"/>
       <c r="N37" s="15" t="s">
         <v>256</v>
       </c>
@@ -6879,60 +7009,62 @@
       <c r="P37" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="85">
+      <c r="Q37" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="R37" s="84">
         <v>2</v>
       </c>
       <c r="S37" s="25"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="47"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="46"/>
       <c r="W37" s="7"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
-      <c r="AB37" s="43"/>
+      <c r="AB37" s="42"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
-      <c r="AI37" s="43"/>
-      <c r="AJ37" s="47"/>
+      <c r="AI37" s="42"/>
+      <c r="AJ37" s="46"/>
       <c r="AK37" s="7"/>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
-      <c r="AP37" s="43"/>
-      <c r="AQ37" s="47"/>
+      <c r="AP37" s="42"/>
+      <c r="AQ37" s="46"/>
       <c r="AR37" s="7"/>
       <c r="AS37" s="7"/>
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
-      <c r="AV37" s="77"/>
+      <c r="AV37" s="76"/>
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B38" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="104" t="s">
         <v>270</v>
       </c>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="108"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="105"/>
       <c r="N38" s="15" t="s">
         <v>234</v>
       </c>
@@ -6943,59 +7075,59 @@
         <v>223</v>
       </c>
       <c r="Q38" s="19"/>
-      <c r="R38" s="85">
+      <c r="R38" s="84">
         <v>1</v>
       </c>
       <c r="S38" s="25"/>
       <c r="T38" s="7"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="47"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="46"/>
       <c r="W38" s="7"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="43"/>
+      <c r="AB38" s="42"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="11"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
       <c r="AH38" s="9"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="49"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="48"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
-      <c r="AP38" s="43"/>
-      <c r="AQ38" s="47"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="46"/>
       <c r="AR38" s="7"/>
       <c r="AS38" s="7"/>
       <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
-      <c r="AV38" s="77"/>
+      <c r="AV38" s="76"/>
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="107" t="s">
+      <c r="D39" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="108"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="105"/>
       <c r="N39" s="15" t="s">
         <v>249</v>
       </c>
@@ -7008,59 +7140,59 @@
       <c r="Q39" s="19">
         <v>1</v>
       </c>
-      <c r="R39" s="85">
+      <c r="R39" s="84">
         <v>2</v>
       </c>
       <c r="S39" s="25"/>
       <c r="T39" s="7"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="47"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="46"/>
       <c r="W39" s="7"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
-      <c r="AB39" s="43"/>
+      <c r="AB39" s="42"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="9"/>
-      <c r="AI39" s="46"/>
-      <c r="AJ39" s="50"/>
+      <c r="AI39" s="45"/>
+      <c r="AJ39" s="49"/>
       <c r="AK39" s="11"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
-      <c r="AP39" s="43"/>
-      <c r="AQ39" s="47"/>
+      <c r="AP39" s="42"/>
+      <c r="AQ39" s="46"/>
       <c r="AR39" s="7"/>
       <c r="AS39" s="7"/>
       <c r="AT39" s="7"/>
       <c r="AU39" s="7"/>
-      <c r="AV39" s="77"/>
+      <c r="AV39" s="76"/>
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B40" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D40" s="107" t="s">
+      <c r="D40" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="108"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="105"/>
       <c r="N40" s="15" t="s">
         <v>234</v>
       </c>
@@ -7071,59 +7203,59 @@
         <v>223</v>
       </c>
       <c r="Q40" s="19"/>
-      <c r="R40" s="85">
+      <c r="R40" s="84">
         <v>2</v>
       </c>
       <c r="S40" s="25"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="47"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="46"/>
       <c r="W40" s="7"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
-      <c r="AB40" s="43"/>
+      <c r="AB40" s="42"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="11"/>
       <c r="AF40" s="11"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="49"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="48"/>
       <c r="AK40" s="9"/>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
-      <c r="AP40" s="43"/>
-      <c r="AQ40" s="47"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="46"/>
       <c r="AR40" s="7"/>
       <c r="AS40" s="7"/>
       <c r="AT40" s="7"/>
       <c r="AU40" s="7"/>
-      <c r="AV40" s="77"/>
+      <c r="AV40" s="76"/>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B41" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="107" t="s">
+      <c r="D41" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="108"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="105"/>
       <c r="N41" s="15" t="s">
         <v>262</v>
       </c>
@@ -7136,59 +7268,59 @@
       <c r="Q41" s="19">
         <v>1</v>
       </c>
-      <c r="R41" s="85">
+      <c r="R41" s="84">
         <v>1</v>
       </c>
       <c r="S41" s="25"/>
       <c r="T41" s="7"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="47"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="46"/>
       <c r="W41" s="7"/>
       <c r="X41" s="11"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
-      <c r="AB41" s="43"/>
+      <c r="AB41" s="42"/>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="9"/>
       <c r="AH41" s="9"/>
-      <c r="AI41" s="46"/>
-      <c r="AJ41" s="50"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="49"/>
       <c r="AK41" s="11"/>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
       <c r="AN41" s="7"/>
       <c r="AO41" s="7"/>
-      <c r="AP41" s="43"/>
-      <c r="AQ41" s="47"/>
+      <c r="AP41" s="42"/>
+      <c r="AQ41" s="46"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="7"/>
       <c r="AT41" s="7"/>
       <c r="AU41" s="7"/>
-      <c r="AV41" s="77"/>
+      <c r="AV41" s="76"/>
     </row>
     <row r="42" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B42" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="107" t="s">
+      <c r="D42" s="104" t="s">
         <v>266</v>
       </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="108"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="105"/>
       <c r="N42" s="15" t="s">
         <v>267</v>
       </c>
@@ -7201,59 +7333,59 @@
       <c r="Q42" s="19">
         <v>1</v>
       </c>
-      <c r="R42" s="85">
+      <c r="R42" s="84">
         <v>2</v>
       </c>
       <c r="S42" s="25"/>
       <c r="T42" s="7"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="47"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="46"/>
       <c r="W42" s="7"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
-      <c r="AB42" s="43"/>
+      <c r="AB42" s="42"/>
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="11"/>
       <c r="AF42" s="11"/>
       <c r="AG42" s="9"/>
       <c r="AH42" s="11"/>
-      <c r="AI42" s="46"/>
-      <c r="AJ42" s="50"/>
+      <c r="AI42" s="45"/>
+      <c r="AJ42" s="49"/>
       <c r="AK42" s="11"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="7"/>
       <c r="AO42" s="7"/>
-      <c r="AP42" s="43"/>
-      <c r="AQ42" s="47"/>
+      <c r="AP42" s="42"/>
+      <c r="AQ42" s="46"/>
       <c r="AR42" s="7"/>
       <c r="AS42" s="7"/>
       <c r="AT42" s="7"/>
       <c r="AU42" s="7"/>
-      <c r="AV42" s="77"/>
+      <c r="AV42" s="76"/>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B43" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="107" t="s">
+      <c r="D43" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="108"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="105"/>
       <c r="N43" s="15" t="s">
         <v>265</v>
       </c>
@@ -7261,62 +7393,64 @@
         <v>219</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="85">
+        <v>151</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>1</v>
+      </c>
+      <c r="R43" s="84">
         <v>2</v>
       </c>
       <c r="S43" s="25"/>
       <c r="T43" s="7"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="47"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="46"/>
       <c r="W43" s="7"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
-      <c r="AB43" s="43"/>
+      <c r="AB43" s="42"/>
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="11"/>
-      <c r="AI43" s="46"/>
-      <c r="AJ43" s="50"/>
+      <c r="AI43" s="45"/>
+      <c r="AJ43" s="49"/>
       <c r="AK43" s="11"/>
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="7"/>
       <c r="AO43" s="7"/>
-      <c r="AP43" s="43"/>
-      <c r="AQ43" s="47"/>
+      <c r="AP43" s="42"/>
+      <c r="AQ43" s="46"/>
       <c r="AR43" s="7"/>
       <c r="AS43" s="7"/>
       <c r="AT43" s="7"/>
       <c r="AU43" s="7"/>
-      <c r="AV43" s="77"/>
+      <c r="AV43" s="76"/>
     </row>
     <row r="44" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B44" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="107" t="s">
+      <c r="D44" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="108"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="105"/>
       <c r="N44" s="15" t="s">
         <v>251</v>
       </c>
@@ -7324,62 +7458,62 @@
         <v>252</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q44" s="19"/>
-      <c r="R44" s="85">
+      <c r="R44" s="84">
         <v>1</v>
       </c>
       <c r="S44" s="25"/>
       <c r="T44" s="7"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="47"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="46"/>
       <c r="W44" s="7"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
-      <c r="AB44" s="43"/>
+      <c r="AB44" s="42"/>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
       <c r="AH44" s="9"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="49"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="48"/>
       <c r="AK44" s="9"/>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
       <c r="AO44" s="7"/>
-      <c r="AP44" s="43"/>
-      <c r="AQ44" s="47"/>
+      <c r="AP44" s="42"/>
+      <c r="AQ44" s="46"/>
       <c r="AR44" s="7"/>
       <c r="AS44" s="7"/>
       <c r="AT44" s="7"/>
       <c r="AU44" s="7"/>
-      <c r="AV44" s="77"/>
+      <c r="AV44" s="76"/>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B45" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="107" t="s">
+      <c r="D45" s="104" t="s">
         <v>280</v>
       </c>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="108"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="105"/>
       <c r="N45" s="15" t="s">
         <v>281</v>
       </c>
@@ -7392,367 +7526,371 @@
       <c r="Q45" s="19">
         <v>1</v>
       </c>
-      <c r="R45" s="85">
+      <c r="R45" s="84">
         <v>1</v>
       </c>
       <c r="S45" s="25"/>
       <c r="T45" s="7"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="47"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="46"/>
       <c r="W45" s="7"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
-      <c r="AB45" s="43"/>
+      <c r="AB45" s="42"/>
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="11"/>
       <c r="AF45" s="11"/>
       <c r="AG45" s="11"/>
       <c r="AI45" s="9"/>
-      <c r="AJ45" s="49"/>
+      <c r="AJ45" s="48"/>
       <c r="AK45" s="7"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
       <c r="AO45" s="7"/>
-      <c r="AP45" s="43"/>
-      <c r="AQ45" s="47"/>
+      <c r="AP45" s="42"/>
+      <c r="AQ45" s="46"/>
       <c r="AR45" s="7"/>
       <c r="AS45" s="7"/>
       <c r="AT45" s="7"/>
       <c r="AU45" s="7"/>
-      <c r="AV45" s="77"/>
+      <c r="AV45" s="76"/>
     </row>
     <row r="46" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="124" t="s">
+      <c r="C46" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="125"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="111"/>
       <c r="N46" s="38"/>
       <c r="O46" s="41"/>
       <c r="P46" s="41"/>
       <c r="Q46" s="38"/>
-      <c r="R46" s="86"/>
+      <c r="R46" s="85"/>
       <c r="S46" s="25"/>
       <c r="T46" s="7"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="47"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="46"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
-      <c r="AB46" s="43"/>
+      <c r="AB46" s="42"/>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
-      <c r="AI46" s="43"/>
-      <c r="AJ46" s="47"/>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="46"/>
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
       <c r="AO46" s="7"/>
-      <c r="AP46" s="43"/>
-      <c r="AQ46" s="47"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="46"/>
       <c r="AR46" s="7"/>
       <c r="AS46" s="7"/>
       <c r="AT46" s="7"/>
       <c r="AU46" s="7"/>
-      <c r="AV46" s="77"/>
+      <c r="AV46" s="76"/>
     </row>
     <row r="47" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B47" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="115" t="s">
+      <c r="D47" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="116"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="107"/>
       <c r="N47" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="O47" s="57">
+      <c r="O47" s="56">
         <v>10.11</v>
       </c>
-      <c r="P47" s="57">
+      <c r="P47" s="56">
         <v>10.119999999999999</v>
       </c>
-      <c r="Q47" s="80">
+      <c r="Q47" s="79">
         <v>1</v>
       </c>
-      <c r="R47" s="87">
+      <c r="R47" s="86">
         <v>1</v>
       </c>
       <c r="S47" s="25"/>
       <c r="T47" s="7"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="47"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="46"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
-      <c r="AB47" s="43"/>
+      <c r="AB47" s="42"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
-      <c r="AI47" s="43"/>
-      <c r="AJ47" s="47"/>
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="46"/>
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
       <c r="AO47" s="7"/>
-      <c r="AP47" s="43"/>
-      <c r="AQ47" s="47"/>
+      <c r="AP47" s="42"/>
+      <c r="AQ47" s="46"/>
       <c r="AR47" s="7"/>
       <c r="AS47" s="7"/>
       <c r="AT47" s="7"/>
       <c r="AU47" s="7"/>
-      <c r="AV47" s="77"/>
+      <c r="AV47" s="76"/>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B48" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="93" t="s">
+      <c r="C48" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="115" t="s">
+      <c r="D48" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="115"/>
-      <c r="L48" s="115"/>
-      <c r="M48" s="116"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="106"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="107"/>
       <c r="N48" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="O48" s="57">
+      <c r="O48" s="56">
         <v>10.130000000000001</v>
       </c>
-      <c r="P48" s="57" t="s">
+      <c r="P48" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="Q48" s="80">
+      <c r="Q48" s="79">
         <v>1</v>
       </c>
-      <c r="R48" s="87">
+      <c r="R48" s="86">
         <v>1</v>
       </c>
       <c r="S48" s="25"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="47"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="46"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
-      <c r="AB48" s="43"/>
+      <c r="AB48" s="42"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="11"/>
       <c r="AF48" s="11"/>
       <c r="AG48" s="8"/>
       <c r="AH48" s="8"/>
-      <c r="AI48" s="44"/>
-      <c r="AJ48" s="48"/>
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="47"/>
       <c r="AK48" s="8"/>
       <c r="AL48" s="7"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
       <c r="AO48" s="7"/>
-      <c r="AP48" s="43"/>
-      <c r="AQ48" s="47"/>
+      <c r="AP48" s="42"/>
+      <c r="AQ48" s="46"/>
       <c r="AR48" s="7"/>
       <c r="AS48" s="7"/>
       <c r="AT48" s="7"/>
       <c r="AU48" s="7"/>
-      <c r="AV48" s="77"/>
+      <c r="AV48" s="76"/>
     </row>
     <row r="49" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="93" t="s">
-        <v>314</v>
-      </c>
-      <c r="D49" s="115" t="s">
+      <c r="C49" s="92" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" s="106" t="s">
+        <v>313</v>
+      </c>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="115"/>
-      <c r="L49" s="115"/>
-      <c r="M49" s="116"/>
-      <c r="N49" s="39" t="s">
+      <c r="O49" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="P49" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="O49" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="P49" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="87">
+      <c r="Q49" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="R49" s="86">
         <v>1</v>
       </c>
       <c r="S49" s="25"/>
       <c r="T49" s="7"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="47"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="46"/>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
-      <c r="AB49" s="43"/>
+      <c r="AB49" s="42"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="11"/>
       <c r="AF49" s="11"/>
       <c r="AG49" s="11"/>
       <c r="AH49" s="11"/>
-      <c r="AI49" s="46"/>
-      <c r="AJ49" s="50"/>
+      <c r="AI49" s="45"/>
+      <c r="AJ49" s="49"/>
       <c r="AK49" s="8"/>
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
       <c r="AO49" s="7"/>
-      <c r="AP49" s="43"/>
-      <c r="AQ49" s="47"/>
+      <c r="AP49" s="42"/>
+      <c r="AQ49" s="46"/>
       <c r="AR49" s="7"/>
       <c r="AS49" s="7"/>
       <c r="AT49" s="7"/>
       <c r="AU49" s="7"/>
-      <c r="AV49" s="77"/>
+      <c r="AV49" s="76"/>
     </row>
     <row r="50" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="95" t="s">
+      <c r="C50" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="115" t="s">
+      <c r="D50" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
-      <c r="L50" s="115"/>
-      <c r="M50" s="116"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="107"/>
       <c r="N50" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="O50" s="57">
+      <c r="O50" s="56">
         <v>10.17</v>
       </c>
-      <c r="P50" s="57" t="s">
+      <c r="P50" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="87">
+      <c r="Q50" s="129" t="s">
+        <v>330</v>
+      </c>
+      <c r="R50" s="86">
         <v>1</v>
       </c>
       <c r="S50" s="25"/>
       <c r="T50" s="7"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="47"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="46"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
-      <c r="AB50" s="43"/>
+      <c r="AB50" s="42"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="11"/>
       <c r="AF50" s="11"/>
       <c r="AG50" s="11"/>
       <c r="AH50" s="11"/>
-      <c r="AI50" s="43"/>
-      <c r="AJ50" s="47"/>
+      <c r="AI50" s="42"/>
+      <c r="AJ50" s="46"/>
       <c r="AK50" s="10"/>
       <c r="AL50" s="10"/>
       <c r="AM50" s="10"/>
       <c r="AN50" s="10"/>
       <c r="AO50" s="7"/>
-      <c r="AP50" s="43"/>
-      <c r="AQ50" s="47"/>
+      <c r="AP50" s="42"/>
+      <c r="AQ50" s="46"/>
       <c r="AR50" s="7"/>
       <c r="AS50" s="7"/>
       <c r="AT50" s="7"/>
       <c r="AU50" s="7"/>
-      <c r="AV50" s="77"/>
+      <c r="AV50" s="76"/>
     </row>
     <row r="51" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B51" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="107" t="s">
+      <c r="D51" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="108"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
+      <c r="L51" s="104"/>
+      <c r="M51" s="105"/>
       <c r="N51" s="15" t="s">
         <v>104</v>
       </c>
@@ -7765,59 +7903,59 @@
       <c r="Q51" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="R51" s="85">
+      <c r="R51" s="84">
         <v>1</v>
       </c>
       <c r="S51" s="27"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="50"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="49"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
-      <c r="AB51" s="43"/>
+      <c r="AB51" s="42"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="11"/>
       <c r="AH51" s="11"/>
-      <c r="AI51" s="43"/>
-      <c r="AJ51" s="47"/>
+      <c r="AI51" s="42"/>
+      <c r="AJ51" s="46"/>
       <c r="AK51" s="11"/>
       <c r="AL51" s="11"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
       <c r="AO51" s="7"/>
-      <c r="AP51" s="43"/>
-      <c r="AQ51" s="47"/>
+      <c r="AP51" s="42"/>
+      <c r="AQ51" s="46"/>
       <c r="AR51" s="7"/>
       <c r="AS51" s="7"/>
       <c r="AT51" s="7"/>
       <c r="AU51" s="7"/>
-      <c r="AV51" s="77"/>
+      <c r="AV51" s="76"/>
     </row>
     <row r="52" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="108"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="105"/>
       <c r="N52" s="15" t="s">
         <v>75</v>
       </c>
@@ -7828,59 +7966,59 @@
         <v>73</v>
       </c>
       <c r="Q52" s="19"/>
-      <c r="R52" s="85">
+      <c r="R52" s="84">
         <v>1</v>
       </c>
       <c r="S52" s="27"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="50"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="49"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
-      <c r="AB52" s="43"/>
+      <c r="AB52" s="42"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
       <c r="AF52" s="11"/>
       <c r="AG52" s="11"/>
       <c r="AH52" s="7"/>
-      <c r="AI52" s="43"/>
-      <c r="AJ52" s="47"/>
+      <c r="AI52" s="42"/>
+      <c r="AJ52" s="46"/>
       <c r="AK52" s="11"/>
       <c r="AL52" s="11"/>
       <c r="AM52" s="11"/>
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
-      <c r="AP52" s="43"/>
-      <c r="AQ52" s="47"/>
+      <c r="AP52" s="42"/>
+      <c r="AQ52" s="46"/>
       <c r="AR52" s="7"/>
       <c r="AS52" s="7"/>
       <c r="AT52" s="7"/>
       <c r="AU52" s="7"/>
-      <c r="AV52" s="77"/>
+      <c r="AV52" s="76"/>
     </row>
     <row r="53" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B53" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="107" t="s">
+      <c r="D53" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="107"/>
-      <c r="M53" s="108"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="105"/>
       <c r="N53" s="15"/>
       <c r="O53" s="17" t="s">
         <v>291</v>
@@ -7889,59 +8027,59 @@
         <v>292</v>
       </c>
       <c r="Q53" s="19"/>
-      <c r="R53" s="85">
+      <c r="R53" s="84">
         <v>1</v>
       </c>
       <c r="S53" s="27"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="50"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="49"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
-      <c r="AB53" s="43"/>
+      <c r="AB53" s="42"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
-      <c r="AI53" s="43"/>
-      <c r="AJ53" s="47"/>
+      <c r="AI53" s="42"/>
+      <c r="AJ53" s="46"/>
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
       <c r="AM53" s="11"/>
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
-      <c r="AP53" s="46"/>
-      <c r="AQ53" s="50"/>
+      <c r="AP53" s="45"/>
+      <c r="AQ53" s="49"/>
       <c r="AR53" s="11"/>
       <c r="AS53" s="11"/>
       <c r="AT53" s="11"/>
       <c r="AU53" s="7"/>
-      <c r="AV53" s="77"/>
+      <c r="AV53" s="76"/>
     </row>
     <row r="54" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B54" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="107" t="s">
+      <c r="D54" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="108"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="105"/>
       <c r="N54" s="15"/>
       <c r="O54" s="17" t="s">
         <v>293</v>
@@ -7950,59 +8088,59 @@
         <v>294</v>
       </c>
       <c r="Q54" s="19"/>
-      <c r="R54" s="85">
+      <c r="R54" s="84">
         <v>2</v>
       </c>
       <c r="S54" s="27"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="50"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="49"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
-      <c r="AB54" s="43"/>
+      <c r="AB54" s="42"/>
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="7"/>
       <c r="AH54" s="7"/>
-      <c r="AI54" s="43"/>
-      <c r="AJ54" s="47"/>
+      <c r="AI54" s="42"/>
+      <c r="AJ54" s="46"/>
       <c r="AK54" s="7"/>
       <c r="AL54" s="7"/>
       <c r="AM54" s="11"/>
       <c r="AN54" s="11"/>
       <c r="AO54" s="11"/>
-      <c r="AP54" s="46"/>
-      <c r="AQ54" s="50"/>
+      <c r="AP54" s="45"/>
+      <c r="AQ54" s="49"/>
       <c r="AR54" s="9"/>
       <c r="AS54" s="9"/>
       <c r="AT54" s="11"/>
       <c r="AU54" s="7"/>
-      <c r="AV54" s="77"/>
+      <c r="AV54" s="76"/>
     </row>
     <row r="55" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B55" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="C55" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="107" t="s">
+      <c r="D55" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="107"/>
-      <c r="L55" s="107"/>
-      <c r="M55" s="108"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="105"/>
       <c r="N55" s="15"/>
       <c r="O55" s="17" t="s">
         <v>293</v>
@@ -8011,92 +8149,92 @@
         <v>295</v>
       </c>
       <c r="Q55" s="19"/>
-      <c r="R55" s="85">
+      <c r="R55" s="84">
         <v>1</v>
       </c>
       <c r="S55" s="27"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="50"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="49"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
-      <c r="AB55" s="43"/>
+      <c r="AB55" s="42"/>
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
-      <c r="AI55" s="43"/>
-      <c r="AJ55" s="47"/>
+      <c r="AI55" s="42"/>
+      <c r="AJ55" s="46"/>
       <c r="AK55" s="7"/>
       <c r="AL55" s="7"/>
       <c r="AM55" s="11"/>
       <c r="AN55" s="11"/>
       <c r="AO55" s="11"/>
-      <c r="AP55" s="46"/>
-      <c r="AQ55" s="50"/>
+      <c r="AP55" s="45"/>
+      <c r="AQ55" s="49"/>
       <c r="AR55" s="9"/>
       <c r="AS55" s="9"/>
       <c r="AT55" s="11"/>
       <c r="AU55" s="7"/>
-      <c r="AV55" s="77"/>
+      <c r="AV55" s="76"/>
     </row>
     <row r="56" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B56" s="37">
         <v>5</v>
       </c>
-      <c r="C56" s="124" t="s">
+      <c r="C56" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="125"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="111"/>
       <c r="N56" s="40"/>
       <c r="O56" s="41"/>
       <c r="P56" s="41"/>
       <c r="Q56" s="38"/>
-      <c r="R56" s="86"/>
+      <c r="R56" s="85"/>
       <c r="S56" s="25"/>
       <c r="T56" s="7"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="47"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="46"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
-      <c r="AB56" s="43"/>
+      <c r="AB56" s="42"/>
       <c r="AC56" s="7"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
       <c r="AH56" s="7"/>
-      <c r="AI56" s="43"/>
-      <c r="AJ56" s="47"/>
+      <c r="AI56" s="42"/>
+      <c r="AJ56" s="46"/>
       <c r="AK56" s="7"/>
       <c r="AL56" s="7"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="7"/>
       <c r="AO56" s="7"/>
-      <c r="AP56" s="43"/>
-      <c r="AQ56" s="47"/>
+      <c r="AP56" s="42"/>
+      <c r="AQ56" s="46"/>
       <c r="AR56" s="7"/>
       <c r="AS56" s="7"/>
       <c r="AT56" s="7"/>
       <c r="AU56" s="7"/>
-      <c r="AV56" s="77"/>
+      <c r="AV56" s="76"/>
     </row>
     <row r="57" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B57" s="36" t="s">
@@ -8105,18 +8243,18 @@
       <c r="C57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="107" t="s">
+      <c r="D57" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="107"/>
-      <c r="L57" s="107"/>
-      <c r="M57" s="108"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="105"/>
       <c r="N57" s="15" t="s">
         <v>59</v>
       </c>
@@ -8129,39 +8267,39 @@
       <c r="Q57" s="19">
         <v>1</v>
       </c>
-      <c r="R57" s="85">
+      <c r="R57" s="84">
         <v>1</v>
       </c>
       <c r="S57" s="25"/>
       <c r="T57" s="7"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="47"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="46"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
-      <c r="AB57" s="43"/>
+      <c r="AB57" s="42"/>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="8"/>
       <c r="AF57" s="11"/>
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
-      <c r="AI57" s="43"/>
-      <c r="AJ57" s="47"/>
+      <c r="AI57" s="42"/>
+      <c r="AJ57" s="46"/>
       <c r="AK57" s="7"/>
       <c r="AL57" s="7"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7"/>
-      <c r="AP57" s="43"/>
-      <c r="AQ57" s="47"/>
+      <c r="AP57" s="42"/>
+      <c r="AQ57" s="46"/>
       <c r="AR57" s="7"/>
       <c r="AS57" s="7"/>
       <c r="AT57" s="7"/>
       <c r="AU57" s="7"/>
-      <c r="AV57" s="77"/>
+      <c r="AV57" s="76"/>
     </row>
     <row r="58" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B58" s="36" t="s">
@@ -8170,18 +8308,18 @@
       <c r="C58" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="107" t="s">
+      <c r="D58" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="107"/>
-      <c r="L58" s="107"/>
-      <c r="M58" s="108"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="105"/>
       <c r="N58" s="15" t="s">
         <v>296</v>
       </c>
@@ -8192,39 +8330,39 @@
         <v>170</v>
       </c>
       <c r="Q58" s="19"/>
-      <c r="R58" s="85">
+      <c r="R58" s="84">
         <v>1</v>
       </c>
       <c r="S58" s="25"/>
       <c r="T58" s="7"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="47"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="46"/>
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
-      <c r="AB58" s="43"/>
+      <c r="AB58" s="42"/>
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="11"/>
       <c r="AF58" s="11"/>
       <c r="AG58" s="7"/>
       <c r="AH58" s="8"/>
-      <c r="AI58" s="44"/>
-      <c r="AJ58" s="48"/>
+      <c r="AI58" s="43"/>
+      <c r="AJ58" s="47"/>
       <c r="AK58" s="8"/>
       <c r="AL58" s="7"/>
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
       <c r="AO58" s="7"/>
-      <c r="AP58" s="43"/>
-      <c r="AQ58" s="47"/>
+      <c r="AP58" s="42"/>
+      <c r="AQ58" s="46"/>
       <c r="AR58" s="7"/>
       <c r="AS58" s="7"/>
       <c r="AT58" s="7"/>
       <c r="AU58" s="7"/>
-      <c r="AV58" s="77"/>
+      <c r="AV58" s="76"/>
     </row>
     <row r="59" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B59" s="36" t="s">
@@ -8233,20 +8371,20 @@
       <c r="C59" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="107" t="s">
+      <c r="D59" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="107"/>
-      <c r="L59" s="107"/>
-      <c r="M59" s="108"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="105"/>
       <c r="N59" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O59" s="17" t="s">
         <v>271</v>
@@ -8255,57 +8393,57 @@
         <v>298</v>
       </c>
       <c r="Q59" s="19"/>
-      <c r="R59" s="85"/>
+      <c r="R59" s="84"/>
       <c r="S59" s="25"/>
       <c r="T59" s="7"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="47"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="46"/>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
-      <c r="AB59" s="43"/>
+      <c r="AB59" s="42"/>
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
       <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
       <c r="AG59" s="11"/>
       <c r="AH59" s="7"/>
-      <c r="AI59" s="43"/>
-      <c r="AJ59" s="47"/>
+      <c r="AI59" s="42"/>
+      <c r="AJ59" s="46"/>
       <c r="AK59" s="8"/>
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
-      <c r="AP59" s="43"/>
-      <c r="AQ59" s="47"/>
+      <c r="AP59" s="42"/>
+      <c r="AQ59" s="46"/>
       <c r="AR59" s="7"/>
       <c r="AS59" s="7"/>
       <c r="AT59" s="7"/>
       <c r="AU59" s="7"/>
-      <c r="AV59" s="77"/>
+      <c r="AV59" s="76"/>
     </row>
     <row r="60" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="107" t="s">
+      <c r="D60" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="107"/>
-      <c r="K60" s="107"/>
-      <c r="L60" s="107"/>
-      <c r="M60" s="108"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="105"/>
       <c r="N60" s="15" t="s">
         <v>68</v>
       </c>
@@ -8318,59 +8456,59 @@
       <c r="Q60" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="R60" s="85">
+      <c r="R60" s="84">
         <v>2</v>
       </c>
       <c r="S60" s="25"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="47"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="46"/>
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
-      <c r="AB60" s="43"/>
+      <c r="AB60" s="42"/>
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
       <c r="AE60" s="9"/>
       <c r="AF60" s="11"/>
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
-      <c r="AI60" s="43"/>
-      <c r="AJ60" s="47"/>
+      <c r="AI60" s="42"/>
+      <c r="AJ60" s="46"/>
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
       <c r="AO60" s="7"/>
-      <c r="AP60" s="43"/>
-      <c r="AQ60" s="47"/>
+      <c r="AP60" s="42"/>
+      <c r="AQ60" s="46"/>
       <c r="AR60" s="7"/>
       <c r="AS60" s="7"/>
       <c r="AT60" s="7"/>
       <c r="AU60" s="7"/>
-      <c r="AV60" s="77"/>
+      <c r="AV60" s="76"/>
     </row>
     <row r="61" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B61" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="107" t="s">
+      <c r="D61" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="108"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="104"/>
+      <c r="L61" s="104"/>
+      <c r="M61" s="105"/>
       <c r="N61" s="15"/>
       <c r="O61" s="17" t="s">
         <v>241</v>
@@ -8379,37 +8517,37 @@
         <v>299</v>
       </c>
       <c r="Q61" s="15"/>
-      <c r="R61" s="85"/>
+      <c r="R61" s="84"/>
       <c r="S61" s="25"/>
       <c r="T61" s="7"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="47"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="46"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
-      <c r="AB61" s="43"/>
+      <c r="AB61" s="42"/>
       <c r="AC61" s="7"/>
       <c r="AD61" s="7"/>
       <c r="AE61" s="11"/>
       <c r="AF61" s="11"/>
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
-      <c r="AI61" s="43"/>
-      <c r="AJ61" s="47"/>
+      <c r="AI61" s="42"/>
+      <c r="AJ61" s="46"/>
       <c r="AK61" s="7"/>
       <c r="AL61" s="7"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="9"/>
       <c r="AO61" s="9"/>
-      <c r="AP61" s="43"/>
-      <c r="AQ61" s="47"/>
+      <c r="AP61" s="42"/>
+      <c r="AQ61" s="46"/>
       <c r="AR61" s="7"/>
       <c r="AS61" s="7"/>
       <c r="AT61" s="7"/>
       <c r="AU61" s="7"/>
-      <c r="AV61" s="77"/>
+      <c r="AV61" s="76"/>
     </row>
     <row r="62" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B62" s="36" t="s">
@@ -8418,18 +8556,18 @@
       <c r="C62" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="107" t="s">
+      <c r="D62" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="107"/>
-      <c r="K62" s="107"/>
-      <c r="L62" s="107"/>
-      <c r="M62" s="108"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="104"/>
+      <c r="M62" s="105"/>
       <c r="N62" s="15" t="s">
         <v>302</v>
       </c>
@@ -8442,59 +8580,59 @@
       <c r="Q62" s="19">
         <v>1</v>
       </c>
-      <c r="R62" s="85">
+      <c r="R62" s="84">
         <v>1</v>
       </c>
       <c r="S62" s="25"/>
       <c r="T62" s="7"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="47"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="46"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
       <c r="AA62" s="7"/>
-      <c r="AB62" s="43"/>
+      <c r="AB62" s="42"/>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="11"/>
       <c r="AF62" s="11"/>
       <c r="AG62" s="7"/>
       <c r="AH62" s="7"/>
-      <c r="AI62" s="44"/>
-      <c r="AJ62" s="48"/>
+      <c r="AI62" s="43"/>
+      <c r="AJ62" s="47"/>
       <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="7"/>
       <c r="AO62" s="7"/>
-      <c r="AP62" s="43"/>
-      <c r="AQ62" s="47"/>
+      <c r="AP62" s="42"/>
+      <c r="AQ62" s="46"/>
       <c r="AR62" s="7"/>
       <c r="AS62" s="7"/>
       <c r="AT62" s="7"/>
       <c r="AU62" s="7"/>
-      <c r="AV62" s="77"/>
+      <c r="AV62" s="76"/>
     </row>
     <row r="63" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B63" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="107" t="s">
+      <c r="D63" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="108"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="105"/>
       <c r="N63" s="15"/>
       <c r="O63" s="17" t="s">
         <v>223</v>
@@ -8503,116 +8641,120 @@
         <v>304</v>
       </c>
       <c r="Q63" s="15"/>
-      <c r="R63" s="85"/>
+      <c r="R63" s="84"/>
       <c r="S63" s="25"/>
       <c r="T63" s="7"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="47"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="46"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
-      <c r="AB63" s="43"/>
+      <c r="AB63" s="42"/>
       <c r="AC63" s="7"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="11"/>
       <c r="AF63" s="11"/>
       <c r="AG63" s="7"/>
       <c r="AH63" s="7"/>
-      <c r="AI63" s="43"/>
-      <c r="AJ63" s="47"/>
+      <c r="AI63" s="42"/>
+      <c r="AJ63" s="46"/>
       <c r="AK63" s="9"/>
       <c r="AL63" s="9"/>
       <c r="AM63" s="9"/>
       <c r="AN63" s="9"/>
       <c r="AO63" s="7"/>
-      <c r="AP63" s="43"/>
-      <c r="AQ63" s="47"/>
+      <c r="AP63" s="42"/>
+      <c r="AQ63" s="46"/>
       <c r="AR63" s="7"/>
       <c r="AS63" s="7"/>
       <c r="AT63" s="7"/>
       <c r="AU63" s="7"/>
-      <c r="AV63" s="77"/>
+      <c r="AV63" s="76"/>
     </row>
     <row r="64" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="107" t="s">
-        <v>313</v>
-      </c>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="107"/>
-      <c r="L64" s="107"/>
-      <c r="M64" s="108"/>
-      <c r="N64" s="15"/>
+      <c r="D64" s="104" t="s">
+        <v>332</v>
+      </c>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="105"/>
+      <c r="N64" s="15" t="s">
+        <v>328</v>
+      </c>
       <c r="O64" s="17" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Q64" s="15"/>
-      <c r="R64" s="85"/>
+      <c r="R64" s="84">
+        <v>1</v>
+      </c>
       <c r="S64" s="25"/>
       <c r="T64" s="7"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="47"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="46"/>
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
-      <c r="AB64" s="43"/>
+      <c r="AB64" s="42"/>
       <c r="AC64" s="7"/>
       <c r="AD64" s="7"/>
       <c r="AE64" s="11"/>
       <c r="AF64" s="11"/>
       <c r="AG64" s="7"/>
       <c r="AH64" s="7"/>
-      <c r="AI64" s="43"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="11"/>
+      <c r="AI64" s="42"/>
+      <c r="AJ64" s="46"/>
+      <c r="AK64" s="9"/>
       <c r="AL64" s="11"/>
-      <c r="AM64" s="9"/>
-      <c r="AN64" s="9"/>
-      <c r="AO64" s="9"/>
-      <c r="AP64" s="43"/>
-      <c r="AQ64" s="47"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="11"/>
+      <c r="AP64" s="42"/>
+      <c r="AQ64" s="46"/>
       <c r="AR64" s="7"/>
       <c r="AS64" s="7"/>
       <c r="AT64" s="7"/>
       <c r="AU64" s="7"/>
-      <c r="AV64" s="77"/>
+      <c r="AV64" s="76"/>
     </row>
     <row r="65" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="C65" s="94" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="107" t="s">
+      <c r="D65" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="108"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104"/>
+      <c r="L65" s="104"/>
+      <c r="M65" s="105"/>
       <c r="N65" s="15"/>
       <c r="O65" s="17" t="s">
         <v>305</v>
@@ -8621,90 +8763,90 @@
         <v>278</v>
       </c>
       <c r="Q65" s="15"/>
-      <c r="R65" s="85"/>
+      <c r="R65" s="84"/>
       <c r="S65" s="25"/>
       <c r="T65" s="7"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="47"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="46"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
-      <c r="AB65" s="43"/>
+      <c r="AB65" s="42"/>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="11"/>
       <c r="AF65" s="11"/>
       <c r="AG65" s="7"/>
       <c r="AH65" s="7"/>
-      <c r="AI65" s="43"/>
-      <c r="AJ65" s="47"/>
+      <c r="AI65" s="42"/>
+      <c r="AJ65" s="46"/>
       <c r="AK65" s="7"/>
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
       <c r="AO65" s="7"/>
-      <c r="AP65" s="43"/>
-      <c r="AQ65" s="47"/>
+      <c r="AP65" s="42"/>
+      <c r="AQ65" s="46"/>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7"/>
       <c r="AT65" s="10"/>
       <c r="AU65" s="10"/>
-      <c r="AV65" s="103"/>
+      <c r="AV65" s="102"/>
     </row>
     <row r="66" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B66" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="124" t="s">
+      <c r="C66" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="124"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="125"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="110"/>
+      <c r="M66" s="111"/>
       <c r="N66" s="38"/>
       <c r="O66" s="41"/>
       <c r="P66" s="41"/>
       <c r="Q66" s="38"/>
-      <c r="R66" s="86"/>
+      <c r="R66" s="85"/>
       <c r="S66" s="25"/>
       <c r="T66" s="7"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="47"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="46"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
-      <c r="AB66" s="43"/>
+      <c r="AB66" s="42"/>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="7"/>
       <c r="AG66" s="7"/>
       <c r="AH66" s="7"/>
-      <c r="AI66" s="43"/>
-      <c r="AJ66" s="47"/>
+      <c r="AI66" s="42"/>
+      <c r="AJ66" s="46"/>
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
       <c r="AO66" s="7"/>
-      <c r="AP66" s="43"/>
-      <c r="AQ66" s="47"/>
+      <c r="AP66" s="42"/>
+      <c r="AQ66" s="46"/>
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
       <c r="AT66" s="7"/>
       <c r="AU66" s="7"/>
-      <c r="AV66" s="77"/>
+      <c r="AV66" s="76"/>
     </row>
     <row r="67" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B67" s="36" t="s">
@@ -8713,18 +8855,18 @@
       <c r="C67" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="107" t="s">
+      <c r="D67" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="107"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="107"/>
-      <c r="J67" s="107"/>
-      <c r="K67" s="107"/>
-      <c r="L67" s="107"/>
-      <c r="M67" s="108"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="105"/>
       <c r="N67" s="15" t="s">
         <v>85</v>
       </c>
@@ -8737,39 +8879,39 @@
       <c r="Q67" s="19">
         <v>1</v>
       </c>
-      <c r="R67" s="85">
+      <c r="R67" s="84">
         <v>1</v>
       </c>
       <c r="S67" s="25"/>
       <c r="T67" s="7"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="47"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="46"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
-      <c r="AB67" s="43"/>
+      <c r="AB67" s="42"/>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
       <c r="AE67" s="11"/>
       <c r="AF67" s="8"/>
       <c r="AG67" s="8"/>
       <c r="AH67" s="11"/>
-      <c r="AI67" s="46"/>
-      <c r="AJ67" s="50"/>
+      <c r="AI67" s="45"/>
+      <c r="AJ67" s="49"/>
       <c r="AK67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
       <c r="AO67" s="7"/>
-      <c r="AP67" s="43"/>
-      <c r="AQ67" s="47"/>
+      <c r="AP67" s="42"/>
+      <c r="AQ67" s="46"/>
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
       <c r="AT67" s="7"/>
       <c r="AU67" s="7"/>
-      <c r="AV67" s="77"/>
+      <c r="AV67" s="76"/>
     </row>
     <row r="68" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B68" s="36" t="s">
@@ -8778,20 +8920,20 @@
       <c r="C68" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="107" t="s">
+      <c r="D68" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="107"/>
-      <c r="L68" s="107"/>
-      <c r="M68" s="108"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="104"/>
+      <c r="L68" s="104"/>
+      <c r="M68" s="105"/>
       <c r="N68" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O68" s="17" t="s">
         <v>271</v>
@@ -8800,39 +8942,39 @@
         <v>303</v>
       </c>
       <c r="Q68" s="15"/>
-      <c r="R68" s="85">
+      <c r="R68" s="84">
         <v>1</v>
       </c>
       <c r="S68" s="25"/>
       <c r="T68" s="7"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="47"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="46"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
-      <c r="AB68" s="43"/>
+      <c r="AB68" s="42"/>
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="11"/>
       <c r="AG68" s="11"/>
       <c r="AH68" s="11"/>
-      <c r="AI68" s="46"/>
-      <c r="AJ68" s="50"/>
+      <c r="AI68" s="45"/>
+      <c r="AJ68" s="49"/>
       <c r="AK68" s="8"/>
       <c r="AL68" s="8"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
       <c r="AO68" s="7"/>
-      <c r="AP68" s="43"/>
-      <c r="AQ68" s="47"/>
+      <c r="AP68" s="42"/>
+      <c r="AQ68" s="46"/>
       <c r="AR68" s="7"/>
       <c r="AS68" s="7"/>
       <c r="AT68" s="7"/>
       <c r="AU68" s="7"/>
-      <c r="AV68" s="77"/>
+      <c r="AV68" s="76"/>
     </row>
     <row r="69" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
@@ -8841,18 +8983,18 @@
       <c r="C69" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="107" t="s">
+      <c r="D69" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="E69" s="107"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="107"/>
-      <c r="L69" s="107"/>
-      <c r="M69" s="108"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104"/>
+      <c r="L69" s="104"/>
+      <c r="M69" s="105"/>
       <c r="N69" s="15"/>
       <c r="O69" s="17" t="s">
         <v>223</v>
@@ -8861,37 +9003,37 @@
         <v>306</v>
       </c>
       <c r="Q69" s="19"/>
-      <c r="R69" s="85"/>
+      <c r="R69" s="84"/>
       <c r="S69" s="27"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="50"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="49"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
-      <c r="AB69" s="43"/>
+      <c r="AB69" s="42"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
       <c r="AE69" s="7"/>
       <c r="AF69" s="11"/>
       <c r="AG69" s="11"/>
       <c r="AH69" s="11"/>
-      <c r="AI69" s="46"/>
-      <c r="AJ69" s="50"/>
+      <c r="AI69" s="45"/>
+      <c r="AJ69" s="49"/>
       <c r="AK69" s="8"/>
       <c r="AL69" s="8"/>
       <c r="AM69" s="11"/>
       <c r="AN69" s="11"/>
       <c r="AO69" s="11"/>
-      <c r="AP69" s="43"/>
-      <c r="AQ69" s="47"/>
+      <c r="AP69" s="42"/>
+      <c r="AQ69" s="46"/>
       <c r="AR69" s="7"/>
       <c r="AS69" s="7"/>
       <c r="AT69" s="7"/>
       <c r="AU69" s="7"/>
-      <c r="AV69" s="77"/>
+      <c r="AV69" s="76"/>
     </row>
     <row r="70" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B70" s="36" t="s">
@@ -8900,18 +9042,18 @@
       <c r="C70" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="107" t="s">
+      <c r="D70" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="E70" s="107"/>
-      <c r="F70" s="107"/>
-      <c r="G70" s="107"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="107"/>
-      <c r="J70" s="107"/>
-      <c r="K70" s="107"/>
-      <c r="L70" s="107"/>
-      <c r="M70" s="108"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="104"/>
+      <c r="L70" s="104"/>
+      <c r="M70" s="105"/>
       <c r="N70" s="15"/>
       <c r="O70" s="17" t="s">
         <v>303</v>
@@ -8920,37 +9062,37 @@
         <v>298</v>
       </c>
       <c r="Q70" s="19"/>
-      <c r="R70" s="85"/>
+      <c r="R70" s="84"/>
       <c r="S70" s="27"/>
       <c r="T70" s="11"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="50"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="49"/>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
-      <c r="AB70" s="43"/>
+      <c r="AB70" s="42"/>
       <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="7"/>
       <c r="AG70" s="7"/>
       <c r="AH70" s="7"/>
-      <c r="AI70" s="43"/>
-      <c r="AJ70" s="47"/>
+      <c r="AI70" s="42"/>
+      <c r="AJ70" s="46"/>
       <c r="AK70" s="7"/>
       <c r="AL70" s="8"/>
       <c r="AM70" s="8"/>
       <c r="AN70" s="11"/>
       <c r="AO70" s="11"/>
-      <c r="AP70" s="43"/>
-      <c r="AQ70" s="47"/>
+      <c r="AP70" s="42"/>
+      <c r="AQ70" s="46"/>
       <c r="AR70" s="7"/>
       <c r="AS70" s="7"/>
       <c r="AT70" s="7"/>
       <c r="AU70" s="7"/>
-      <c r="AV70" s="77"/>
+      <c r="AV70" s="76"/>
     </row>
     <row r="71" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
@@ -8959,20 +9101,20 @@
       <c r="C71" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D71" s="107" t="s">
+      <c r="D71" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="E71" s="107"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="107"/>
-      <c r="H71" s="107"/>
-      <c r="I71" s="107"/>
-      <c r="J71" s="107"/>
-      <c r="K71" s="107"/>
-      <c r="L71" s="107"/>
-      <c r="M71" s="108"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="104"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="104"/>
+      <c r="L71" s="104"/>
+      <c r="M71" s="105"/>
       <c r="N71" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O71" s="17" t="s">
         <v>253</v>
@@ -8981,39 +9123,39 @@
         <v>223</v>
       </c>
       <c r="Q71" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="R71" s="85"/>
+        <v>319</v>
+      </c>
+      <c r="R71" s="84"/>
       <c r="S71" s="27"/>
       <c r="T71" s="11"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="50"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="49"/>
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
-      <c r="AB71" s="43"/>
+      <c r="AB71" s="42"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
       <c r="AE71" s="7"/>
       <c r="AF71" s="7"/>
       <c r="AG71" s="7"/>
       <c r="AH71" s="8"/>
-      <c r="AI71" s="44"/>
-      <c r="AJ71" s="48"/>
+      <c r="AI71" s="43"/>
+      <c r="AJ71" s="47"/>
       <c r="AK71" s="8"/>
       <c r="AL71" s="7"/>
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="11"/>
-      <c r="AP71" s="43"/>
-      <c r="AQ71" s="47"/>
+      <c r="AP71" s="42"/>
+      <c r="AQ71" s="46"/>
       <c r="AR71" s="7"/>
       <c r="AS71" s="7"/>
       <c r="AT71" s="7"/>
       <c r="AU71" s="7"/>
-      <c r="AV71" s="77"/>
+      <c r="AV71" s="76"/>
     </row>
     <row r="72" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B72" s="36" t="s">
@@ -9022,18 +9164,18 @@
       <c r="C72" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D72" s="107" t="s">
+      <c r="D72" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="E72" s="107"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="107"/>
-      <c r="J72" s="107"/>
-      <c r="K72" s="107"/>
-      <c r="L72" s="107"/>
-      <c r="M72" s="108"/>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
+      <c r="G72" s="104"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
+      <c r="L72" s="104"/>
+      <c r="M72" s="105"/>
       <c r="N72" s="15" t="s">
         <v>222</v>
       </c>
@@ -9046,59 +9188,59 @@
       <c r="Q72" s="19">
         <v>1</v>
       </c>
-      <c r="R72" s="85">
+      <c r="R72" s="84">
         <v>2</v>
       </c>
       <c r="S72" s="27"/>
       <c r="T72" s="11"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="50"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="49"/>
       <c r="W72" s="11"/>
       <c r="X72" s="11"/>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
-      <c r="AB72" s="43"/>
+      <c r="AB72" s="42"/>
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
       <c r="AG72" s="7"/>
       <c r="AH72" s="8"/>
-      <c r="AI72" s="44"/>
-      <c r="AJ72" s="48"/>
+      <c r="AI72" s="43"/>
+      <c r="AJ72" s="47"/>
       <c r="AK72" s="8"/>
       <c r="AL72" s="7"/>
       <c r="AM72" s="11"/>
       <c r="AN72" s="11"/>
       <c r="AO72" s="11"/>
-      <c r="AP72" s="43"/>
-      <c r="AQ72" s="47"/>
+      <c r="AP72" s="42"/>
+      <c r="AQ72" s="46"/>
       <c r="AR72" s="7"/>
       <c r="AS72" s="7"/>
       <c r="AT72" s="7"/>
       <c r="AU72" s="7"/>
-      <c r="AV72" s="77"/>
+      <c r="AV72" s="76"/>
     </row>
     <row r="73" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D73" s="107" t="s">
+      <c r="D73" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="107"/>
-      <c r="J73" s="107"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="107"/>
-      <c r="M73" s="108"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="104"/>
+      <c r="J73" s="104"/>
+      <c r="K73" s="104"/>
+      <c r="L73" s="104"/>
+      <c r="M73" s="105"/>
       <c r="N73" s="15" t="s">
         <v>218</v>
       </c>
@@ -9111,59 +9253,59 @@
       <c r="Q73" s="19">
         <v>0.5</v>
       </c>
-      <c r="R73" s="85">
+      <c r="R73" s="84">
         <v>2</v>
       </c>
       <c r="S73" s="27"/>
       <c r="T73" s="11"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="50"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="49"/>
       <c r="W73" s="11"/>
       <c r="X73" s="11"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
       <c r="AA73" s="7"/>
-      <c r="AB73" s="43"/>
+      <c r="AB73" s="42"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
       <c r="AE73" s="7"/>
       <c r="AF73" s="9"/>
       <c r="AG73" s="9"/>
       <c r="AH73" s="9"/>
-      <c r="AI73" s="45"/>
-      <c r="AJ73" s="49"/>
+      <c r="AI73" s="44"/>
+      <c r="AJ73" s="48"/>
       <c r="AK73" s="9"/>
       <c r="AL73" s="7"/>
       <c r="AM73" s="11"/>
       <c r="AN73" s="11"/>
       <c r="AO73" s="11"/>
-      <c r="AP73" s="43"/>
-      <c r="AQ73" s="47"/>
+      <c r="AP73" s="42"/>
+      <c r="AQ73" s="46"/>
       <c r="AR73" s="7"/>
       <c r="AS73" s="7"/>
       <c r="AT73" s="7"/>
       <c r="AU73" s="7"/>
-      <c r="AV73" s="77"/>
+      <c r="AV73" s="76"/>
     </row>
     <row r="74" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="107" t="s">
+      <c r="D74" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="E74" s="107"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="107"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="107"/>
-      <c r="K74" s="107"/>
-      <c r="L74" s="107"/>
-      <c r="M74" s="108"/>
+      <c r="E74" s="104"/>
+      <c r="F74" s="104"/>
+      <c r="G74" s="104"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="104"/>
+      <c r="J74" s="104"/>
+      <c r="K74" s="104"/>
+      <c r="L74" s="104"/>
+      <c r="M74" s="105"/>
       <c r="N74" s="15" t="s">
         <v>234</v>
       </c>
@@ -9176,230 +9318,240 @@
       <c r="Q74" s="19">
         <v>1</v>
       </c>
-      <c r="R74" s="85">
+      <c r="R74" s="84">
         <v>1</v>
       </c>
       <c r="S74" s="27"/>
       <c r="T74" s="11"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="50"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="49"/>
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
       <c r="AA74" s="7"/>
-      <c r="AB74" s="43"/>
+      <c r="AB74" s="42"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
       <c r="AE74" s="7"/>
       <c r="AF74" s="7"/>
       <c r="AG74" s="7"/>
       <c r="AH74" s="7"/>
-      <c r="AI74" s="45"/>
-      <c r="AJ74" s="47"/>
+      <c r="AI74" s="44"/>
+      <c r="AJ74" s="46"/>
       <c r="AK74" s="7"/>
       <c r="AL74" s="7"/>
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
       <c r="AO74" s="11"/>
-      <c r="AP74" s="43"/>
-      <c r="AQ74" s="47"/>
+      <c r="AP74" s="42"/>
+      <c r="AQ74" s="46"/>
       <c r="AR74" s="7"/>
       <c r="AS74" s="7"/>
       <c r="AT74" s="7"/>
       <c r="AU74" s="7"/>
-      <c r="AV74" s="77"/>
+      <c r="AV74" s="76"/>
     </row>
     <row r="75" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="D75" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="E75" s="104"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="104"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="104"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="104"/>
+      <c r="L75" s="104"/>
+      <c r="M75" s="105"/>
+      <c r="N75" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="O75" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="P75" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="D75" s="107" t="s">
-        <v>327</v>
-      </c>
-      <c r="E75" s="107"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="107"/>
-      <c r="J75" s="107"/>
-      <c r="K75" s="107"/>
-      <c r="L75" s="107"/>
-      <c r="M75" s="108"/>
-      <c r="N75" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="O75" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="P75" s="17" t="s">
-        <v>329</v>
-      </c>
       <c r="Q75" s="19"/>
-      <c r="R75" s="85">
+      <c r="R75" s="84">
         <v>2</v>
       </c>
       <c r="S75" s="27"/>
       <c r="T75" s="11"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="50"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="49"/>
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
       <c r="AA75" s="7"/>
-      <c r="AB75" s="43"/>
+      <c r="AB75" s="42"/>
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="7"/>
       <c r="AF75" s="7"/>
       <c r="AG75" s="7"/>
       <c r="AH75" s="7"/>
-      <c r="AI75" s="46"/>
-      <c r="AJ75" s="47"/>
+      <c r="AI75" s="45"/>
+      <c r="AJ75" s="46"/>
       <c r="AK75" s="9"/>
       <c r="AL75" s="9"/>
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
       <c r="AO75" s="11"/>
-      <c r="AP75" s="43"/>
-      <c r="AQ75" s="47"/>
+      <c r="AP75" s="42"/>
+      <c r="AQ75" s="46"/>
       <c r="AR75" s="7"/>
       <c r="AS75" s="7"/>
       <c r="AT75" s="7"/>
       <c r="AU75" s="7"/>
-      <c r="AV75" s="77"/>
+      <c r="AV75" s="76"/>
     </row>
     <row r="76" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B76" s="36"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="105"/>
-      <c r="L76" s="105"/>
-      <c r="M76" s="106"/>
+      <c r="B76" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="104"/>
+      <c r="L76" s="104"/>
+      <c r="M76" s="105"/>
       <c r="N76" s="15"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
+      <c r="O76" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="P76" s="17" t="s">
+        <v>307</v>
+      </c>
       <c r="Q76" s="19"/>
-      <c r="R76" s="85"/>
+      <c r="R76" s="84"/>
       <c r="S76" s="27"/>
       <c r="T76" s="11"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="50"/>
+      <c r="U76" s="45"/>
+      <c r="V76" s="49"/>
       <c r="W76" s="11"/>
       <c r="X76" s="11"/>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
       <c r="AA76" s="7"/>
-      <c r="AB76" s="43"/>
+      <c r="AB76" s="42"/>
       <c r="AC76" s="7"/>
       <c r="AD76" s="7"/>
       <c r="AE76" s="7"/>
       <c r="AF76" s="7"/>
       <c r="AG76" s="7"/>
       <c r="AH76" s="7"/>
-      <c r="AI76" s="46"/>
-      <c r="AJ76" s="47"/>
-      <c r="AK76" s="9"/>
-      <c r="AL76" s="9"/>
+      <c r="AI76" s="42"/>
+      <c r="AJ76" s="46"/>
+      <c r="AK76" s="7"/>
+      <c r="AL76" s="7"/>
       <c r="AM76" s="11"/>
-      <c r="AN76" s="11"/>
-      <c r="AO76" s="11"/>
-      <c r="AP76" s="43"/>
-      <c r="AQ76" s="47"/>
+      <c r="AN76" s="9"/>
+      <c r="AO76" s="9"/>
+      <c r="AP76" s="42"/>
+      <c r="AQ76" s="46"/>
       <c r="AR76" s="7"/>
       <c r="AS76" s="7"/>
       <c r="AT76" s="7"/>
       <c r="AU76" s="7"/>
-      <c r="AV76" s="77"/>
+      <c r="AV76" s="76"/>
     </row>
     <row r="77" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="107"/>
-      <c r="K77" s="107"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="108"/>
+        <v>125</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="104"/>
+      <c r="L77" s="104"/>
+      <c r="M77" s="105"/>
       <c r="N77" s="15"/>
       <c r="O77" s="17" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="Q77" s="19"/>
-      <c r="R77" s="85"/>
+      <c r="R77" s="84"/>
       <c r="S77" s="27"/>
       <c r="T77" s="11"/>
-      <c r="U77" s="46"/>
-      <c r="V77" s="50"/>
+      <c r="U77" s="45"/>
+      <c r="V77" s="49"/>
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
       <c r="AA77" s="7"/>
-      <c r="AB77" s="43"/>
+      <c r="AB77" s="42"/>
       <c r="AC77" s="7"/>
       <c r="AD77" s="7"/>
       <c r="AE77" s="7"/>
       <c r="AF77" s="7"/>
       <c r="AG77" s="7"/>
       <c r="AH77" s="7"/>
-      <c r="AI77" s="43"/>
-      <c r="AJ77" s="47"/>
+      <c r="AI77" s="42"/>
+      <c r="AJ77" s="46"/>
       <c r="AK77" s="7"/>
       <c r="AL77" s="7"/>
       <c r="AM77" s="11"/>
-      <c r="AN77" s="9"/>
-      <c r="AO77" s="9"/>
-      <c r="AP77" s="43"/>
-      <c r="AQ77" s="47"/>
-      <c r="AR77" s="7"/>
-      <c r="AS77" s="7"/>
+      <c r="AN77" s="11"/>
+      <c r="AO77" s="11"/>
+      <c r="AP77" s="42"/>
+      <c r="AQ77" s="46"/>
+      <c r="AR77" s="9"/>
+      <c r="AS77" s="9"/>
       <c r="AT77" s="7"/>
       <c r="AU77" s="7"/>
-      <c r="AV77" s="77"/>
+      <c r="AV77" s="76"/>
     </row>
     <row r="78" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B78" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="107" t="s">
-        <v>202</v>
-      </c>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="107"/>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="108"/>
+        <v>132</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="104"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="104"/>
+      <c r="K78" s="104"/>
+      <c r="L78" s="104"/>
+      <c r="M78" s="105"/>
       <c r="N78" s="15"/>
       <c r="O78" s="17" t="s">
         <v>293</v>
@@ -9408,627 +9560,526 @@
         <v>295</v>
       </c>
       <c r="Q78" s="19"/>
-      <c r="R78" s="85"/>
+      <c r="R78" s="84"/>
       <c r="S78" s="27"/>
       <c r="T78" s="11"/>
-      <c r="U78" s="46"/>
-      <c r="V78" s="50"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="49"/>
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
       <c r="AA78" s="7"/>
-      <c r="AB78" s="43"/>
+      <c r="AB78" s="42"/>
       <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
       <c r="AE78" s="7"/>
       <c r="AF78" s="7"/>
       <c r="AG78" s="7"/>
       <c r="AH78" s="7"/>
-      <c r="AI78" s="43"/>
-      <c r="AJ78" s="47"/>
+      <c r="AI78" s="42"/>
+      <c r="AJ78" s="46"/>
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
       <c r="AM78" s="11"/>
       <c r="AN78" s="11"/>
       <c r="AO78" s="11"/>
-      <c r="AP78" s="43"/>
-      <c r="AQ78" s="47"/>
-      <c r="AR78" s="9"/>
+      <c r="AP78" s="42"/>
+      <c r="AQ78" s="46"/>
+      <c r="AR78" s="22"/>
       <c r="AS78" s="9"/>
       <c r="AT78" s="7"/>
       <c r="AU78" s="7"/>
-      <c r="AV78" s="77"/>
+      <c r="AV78" s="76"/>
     </row>
     <row r="79" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C79" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="107"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="K79" s="107"/>
-      <c r="L79" s="107"/>
-      <c r="M79" s="108"/>
+        <v>322</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="104"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="104"/>
+      <c r="M79" s="105"/>
       <c r="N79" s="15"/>
       <c r="O79" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P79" s="17" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="Q79" s="19"/>
-      <c r="R79" s="85"/>
+      <c r="R79" s="84"/>
       <c r="S79" s="27"/>
       <c r="T79" s="11"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="50"/>
+      <c r="U79" s="45"/>
+      <c r="V79" s="49"/>
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="7"/>
-      <c r="AB79" s="43"/>
+      <c r="AB79" s="42"/>
       <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
       <c r="AE79" s="7"/>
       <c r="AF79" s="7"/>
       <c r="AG79" s="7"/>
       <c r="AH79" s="7"/>
-      <c r="AI79" s="43"/>
-      <c r="AJ79" s="47"/>
+      <c r="AI79" s="42"/>
+      <c r="AJ79" s="46"/>
       <c r="AK79" s="7"/>
       <c r="AL79" s="7"/>
       <c r="AM79" s="11"/>
       <c r="AN79" s="11"/>
       <c r="AO79" s="11"/>
-      <c r="AP79" s="43"/>
-      <c r="AQ79" s="47"/>
-      <c r="AR79" s="22"/>
+      <c r="AP79" s="42"/>
+      <c r="AQ79" s="46"/>
+      <c r="AR79" s="9"/>
       <c r="AS79" s="9"/>
       <c r="AT79" s="7"/>
       <c r="AU79" s="7"/>
-      <c r="AV79" s="77"/>
+      <c r="AV79" s="76"/>
     </row>
     <row r="80" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B80" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="C80" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="D80" s="107" t="s">
-        <v>206</v>
-      </c>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="107"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="108"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="P80" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q80" s="19"/>
+      <c r="B80" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="110"/>
+      <c r="K80" s="110"/>
+      <c r="L80" s="110"/>
+      <c r="M80" s="111"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="38"/>
       <c r="R80" s="85"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="50"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
-      <c r="AB80" s="43"/>
-      <c r="AC80" s="7"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="46"/>
       <c r="AD80" s="7"/>
       <c r="AE80" s="7"/>
       <c r="AF80" s="7"/>
       <c r="AG80" s="7"/>
       <c r="AH80" s="7"/>
-      <c r="AI80" s="43"/>
-      <c r="AJ80" s="47"/>
+      <c r="AI80" s="42"/>
+      <c r="AJ80" s="46"/>
       <c r="AK80" s="7"/>
       <c r="AL80" s="7"/>
-      <c r="AM80" s="11"/>
-      <c r="AN80" s="11"/>
-      <c r="AO80" s="11"/>
-      <c r="AP80" s="43"/>
-      <c r="AQ80" s="47"/>
-      <c r="AR80" s="9"/>
-      <c r="AS80" s="9"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="42"/>
+      <c r="AQ80" s="46"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7"/>
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
-      <c r="AV80" s="77"/>
+      <c r="AV80" s="76"/>
     </row>
     <row r="81" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B81" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" s="124" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="124"/>
-      <c r="H81" s="124"/>
-      <c r="I81" s="124"/>
-      <c r="J81" s="124"/>
-      <c r="K81" s="124"/>
-      <c r="L81" s="124"/>
-      <c r="M81" s="125"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="86"/>
+      <c r="B81" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" s="106" t="s">
+        <v>275</v>
+      </c>
+      <c r="E81" s="106"/>
+      <c r="F81" s="106"/>
+      <c r="G81" s="106"/>
+      <c r="H81" s="106"/>
+      <c r="I81" s="106"/>
+      <c r="J81" s="106"/>
+      <c r="K81" s="106"/>
+      <c r="L81" s="106"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="O81" s="98" t="s">
+        <v>277</v>
+      </c>
+      <c r="P81" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q81" s="97"/>
+      <c r="R81" s="99">
+        <v>1</v>
+      </c>
       <c r="S81" s="25"/>
       <c r="T81" s="7"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="47"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="46"/>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="47"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="46"/>
       <c r="AD81" s="7"/>
       <c r="AE81" s="7"/>
       <c r="AF81" s="7"/>
       <c r="AG81" s="7"/>
       <c r="AH81" s="7"/>
-      <c r="AI81" s="43"/>
-      <c r="AJ81" s="47"/>
+      <c r="AI81" s="42"/>
+      <c r="AJ81" s="46"/>
       <c r="AK81" s="7"/>
       <c r="AL81" s="7"/>
       <c r="AM81" s="7"/>
       <c r="AN81" s="7"/>
       <c r="AO81" s="7"/>
-      <c r="AP81" s="43"/>
-      <c r="AQ81" s="47"/>
-      <c r="AR81" s="7"/>
-      <c r="AS81" s="7"/>
-      <c r="AT81" s="7"/>
-      <c r="AU81" s="7"/>
-      <c r="AV81" s="77"/>
+      <c r="AP81" s="42"/>
+      <c r="AQ81" s="46"/>
+      <c r="AR81" s="8"/>
+      <c r="AS81" s="8"/>
+      <c r="AT81" s="8"/>
+      <c r="AU81" s="8"/>
+      <c r="AV81" s="101"/>
     </row>
     <row r="82" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B82" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="C82" s="101" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" s="115" t="s">
-        <v>275</v>
-      </c>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
-      <c r="G82" s="115"/>
-      <c r="H82" s="115"/>
-      <c r="I82" s="115"/>
-      <c r="J82" s="115"/>
-      <c r="K82" s="115"/>
-      <c r="L82" s="115"/>
-      <c r="M82" s="116"/>
-      <c r="N82" s="98" t="s">
-        <v>276</v>
-      </c>
-      <c r="O82" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="P82" s="99" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q82" s="98"/>
-      <c r="R82" s="100">
-        <v>1</v>
-      </c>
+      <c r="B82" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="104"/>
+      <c r="L82" s="104"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="84"/>
       <c r="S82" s="25"/>
       <c r="T82" s="7"/>
-      <c r="U82" s="43"/>
-      <c r="V82" s="47"/>
+      <c r="U82" s="42"/>
+      <c r="V82" s="46"/>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="7"/>
-      <c r="AB82" s="43"/>
-      <c r="AC82" s="47"/>
+      <c r="AB82" s="42"/>
+      <c r="AC82" s="46"/>
       <c r="AD82" s="7"/>
       <c r="AE82" s="7"/>
       <c r="AF82" s="7"/>
       <c r="AG82" s="7"/>
       <c r="AH82" s="7"/>
-      <c r="AI82" s="43"/>
-      <c r="AJ82" s="47"/>
+      <c r="AI82" s="42"/>
+      <c r="AJ82" s="46"/>
       <c r="AK82" s="7"/>
       <c r="AL82" s="7"/>
       <c r="AM82" s="7"/>
       <c r="AN82" s="7"/>
       <c r="AO82" s="7"/>
-      <c r="AP82" s="43"/>
-      <c r="AQ82" s="47"/>
+      <c r="AP82" s="42"/>
+      <c r="AQ82" s="46"/>
       <c r="AR82" s="8"/>
-      <c r="AS82" s="8"/>
-      <c r="AT82" s="8"/>
-      <c r="AU82" s="8"/>
-      <c r="AV82" s="102"/>
+      <c r="AS82" s="7"/>
+      <c r="AT82" s="7"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="76"/>
     </row>
     <row r="83" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B83" s="36" t="s">
-        <v>274</v>
+      <c r="B83" s="96" t="s">
+        <v>134</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D83" s="107" t="s">
-        <v>210</v>
-      </c>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="108"/>
+        <v>196</v>
+      </c>
+      <c r="D83" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" s="104"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="104"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="104"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="104"/>
+      <c r="L83" s="104"/>
+      <c r="M83" s="105"/>
       <c r="N83" s="15"/>
       <c r="O83" s="17" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="P83" s="17" t="s">
         <v>293</v>
       </c>
       <c r="Q83" s="15"/>
-      <c r="R83" s="85"/>
+      <c r="R83" s="84"/>
       <c r="S83" s="25"/>
       <c r="T83" s="7"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="47"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="46"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="7"/>
-      <c r="AB83" s="43"/>
-      <c r="AC83" s="47"/>
+      <c r="AB83" s="42"/>
+      <c r="AC83" s="46"/>
       <c r="AD83" s="7"/>
       <c r="AE83" s="7"/>
       <c r="AF83" s="7"/>
       <c r="AG83" s="7"/>
       <c r="AH83" s="7"/>
-      <c r="AI83" s="43"/>
-      <c r="AJ83" s="47"/>
+      <c r="AI83" s="42"/>
+      <c r="AJ83" s="46"/>
       <c r="AK83" s="7"/>
       <c r="AL83" s="7"/>
       <c r="AM83" s="7"/>
       <c r="AN83" s="7"/>
       <c r="AO83" s="7"/>
-      <c r="AP83" s="43"/>
-      <c r="AQ83" s="47"/>
+      <c r="AP83" s="42"/>
+      <c r="AQ83" s="46"/>
       <c r="AR83" s="8"/>
       <c r="AS83" s="7"/>
       <c r="AT83" s="7"/>
       <c r="AU83" s="7"/>
-      <c r="AV83" s="77"/>
+      <c r="AV83" s="76"/>
     </row>
     <row r="84" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B84" s="97" t="s">
-        <v>134</v>
+      <c r="B84" s="36" t="s">
+        <v>135</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D84" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="E84" s="107"/>
-      <c r="F84" s="107"/>
-      <c r="G84" s="107"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="107"/>
-      <c r="K84" s="107"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="108"/>
+        <v>212</v>
+      </c>
+      <c r="D84" s="104" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" s="104"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="104"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="104"/>
+      <c r="L84" s="104"/>
+      <c r="M84" s="105"/>
       <c r="N84" s="15"/>
       <c r="O84" s="17" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="P84" s="17" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Q84" s="15"/>
-      <c r="R84" s="85"/>
+      <c r="R84" s="84"/>
       <c r="S84" s="25"/>
       <c r="T84" s="7"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="47"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="46"/>
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
       <c r="AA84" s="7"/>
-      <c r="AB84" s="43"/>
-      <c r="AC84" s="47"/>
+      <c r="AB84" s="42"/>
+      <c r="AC84" s="46"/>
       <c r="AD84" s="7"/>
       <c r="AE84" s="7"/>
       <c r="AF84" s="7"/>
       <c r="AG84" s="7"/>
       <c r="AH84" s="7"/>
-      <c r="AI84" s="43"/>
-      <c r="AJ84" s="47"/>
+      <c r="AI84" s="42"/>
+      <c r="AJ84" s="46"/>
       <c r="AK84" s="7"/>
       <c r="AL84" s="7"/>
       <c r="AM84" s="7"/>
       <c r="AN84" s="7"/>
       <c r="AO84" s="7"/>
-      <c r="AP84" s="43"/>
-      <c r="AQ84" s="47"/>
-      <c r="AR84" s="8"/>
-      <c r="AS84" s="7"/>
-      <c r="AT84" s="7"/>
+      <c r="AP84" s="42"/>
+      <c r="AQ84" s="46"/>
+      <c r="AR84" s="7"/>
+      <c r="AS84" s="8"/>
+      <c r="AT84" s="8"/>
       <c r="AU84" s="7"/>
-      <c r="AV84" s="77"/>
+      <c r="AV84" s="76"/>
     </row>
     <row r="85" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B85" s="36" t="s">
-        <v>135</v>
+      <c r="B85" s="96" t="s">
+        <v>136</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="107" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" s="107"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="107"/>
-      <c r="J85" s="107"/>
-      <c r="K85" s="107"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="108"/>
+        <v>196</v>
+      </c>
+      <c r="D85" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" s="104"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="104"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="104"/>
+      <c r="L85" s="104"/>
+      <c r="M85" s="105"/>
       <c r="N85" s="15"/>
       <c r="O85" s="17" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="P85" s="17" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q85" s="15"/>
-      <c r="R85" s="85"/>
+      <c r="R85" s="84"/>
       <c r="S85" s="25"/>
       <c r="T85" s="7"/>
-      <c r="U85" s="43"/>
-      <c r="V85" s="47"/>
+      <c r="U85" s="42"/>
+      <c r="V85" s="46"/>
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
-      <c r="AB85" s="43"/>
-      <c r="AC85" s="47"/>
+      <c r="AB85" s="42"/>
+      <c r="AC85" s="46"/>
       <c r="AD85" s="7"/>
       <c r="AE85" s="7"/>
       <c r="AF85" s="7"/>
       <c r="AG85" s="7"/>
       <c r="AH85" s="7"/>
-      <c r="AI85" s="43"/>
-      <c r="AJ85" s="47"/>
+      <c r="AI85" s="42"/>
+      <c r="AJ85" s="46"/>
       <c r="AK85" s="7"/>
       <c r="AL85" s="7"/>
       <c r="AM85" s="7"/>
       <c r="AN85" s="7"/>
       <c r="AO85" s="7"/>
-      <c r="AP85" s="43"/>
-      <c r="AQ85" s="47"/>
+      <c r="AP85" s="42"/>
+      <c r="AQ85" s="46"/>
       <c r="AR85" s="7"/>
-      <c r="AS85" s="8"/>
+      <c r="AS85" s="7"/>
       <c r="AT85" s="8"/>
       <c r="AU85" s="7"/>
-      <c r="AV85" s="77"/>
+      <c r="AV85" s="76"/>
     </row>
-    <row r="86" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B86" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D86" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="107"/>
-      <c r="J86" s="107"/>
-      <c r="K86" s="107"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="108"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="P86" s="17" t="s">
+    <row r="86" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="D86" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108"/>
+      <c r="G86" s="108"/>
+      <c r="H86" s="108"/>
+      <c r="I86" s="108"/>
+      <c r="J86" s="108"/>
+      <c r="K86" s="108"/>
+      <c r="L86" s="108"/>
+      <c r="M86" s="109"/>
+      <c r="N86" s="67"/>
+      <c r="O86" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="P86" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="85"/>
-      <c r="S86" s="25"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="43"/>
-      <c r="V86" s="47"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="43"/>
-      <c r="AC86" s="47"/>
-      <c r="AD86" s="7"/>
-      <c r="AE86" s="7"/>
-      <c r="AF86" s="7"/>
-      <c r="AG86" s="7"/>
-      <c r="AH86" s="7"/>
-      <c r="AI86" s="43"/>
-      <c r="AJ86" s="47"/>
-      <c r="AK86" s="7"/>
-      <c r="AL86" s="7"/>
-      <c r="AM86" s="7"/>
-      <c r="AN86" s="7"/>
-      <c r="AO86" s="7"/>
-      <c r="AP86" s="43"/>
-      <c r="AQ86" s="47"/>
-      <c r="AR86" s="7"/>
-      <c r="AS86" s="7"/>
-      <c r="AT86" s="8"/>
-      <c r="AU86" s="7"/>
+      <c r="Q86" s="67"/>
+      <c r="R86" s="88"/>
+      <c r="S86" s="69"/>
+      <c r="T86" s="70"/>
+      <c r="U86" s="71"/>
+      <c r="V86" s="72"/>
+      <c r="W86" s="70"/>
+      <c r="X86" s="70"/>
+      <c r="Y86" s="70"/>
+      <c r="Z86" s="70"/>
+      <c r="AA86" s="70"/>
+      <c r="AB86" s="71"/>
+      <c r="AC86" s="72"/>
+      <c r="AD86" s="70"/>
+      <c r="AE86" s="70"/>
+      <c r="AF86" s="70"/>
+      <c r="AG86" s="70"/>
+      <c r="AH86" s="70"/>
+      <c r="AI86" s="71"/>
+      <c r="AJ86" s="72"/>
+      <c r="AK86" s="70"/>
+      <c r="AL86" s="70"/>
+      <c r="AM86" s="70"/>
+      <c r="AN86" s="70"/>
+      <c r="AO86" s="70"/>
+      <c r="AP86" s="71"/>
+      <c r="AQ86" s="72"/>
+      <c r="AR86" s="70"/>
+      <c r="AS86" s="70"/>
+      <c r="AT86" s="70"/>
+      <c r="AU86" s="103"/>
       <c r="AV86" s="77"/>
-    </row>
-    <row r="87" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="C87" s="88" t="s">
-        <v>215</v>
-      </c>
-      <c r="D87" s="130" t="s">
-        <v>216</v>
-      </c>
-      <c r="E87" s="130"/>
-      <c r="F87" s="130"/>
-      <c r="G87" s="130"/>
-      <c r="H87" s="130"/>
-      <c r="I87" s="130"/>
-      <c r="J87" s="130"/>
-      <c r="K87" s="130"/>
-      <c r="L87" s="130"/>
-      <c r="M87" s="131"/>
-      <c r="N87" s="68"/>
-      <c r="O87" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="P87" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q87" s="68"/>
-      <c r="R87" s="89"/>
-      <c r="S87" s="70"/>
-      <c r="T87" s="71"/>
-      <c r="U87" s="72"/>
-      <c r="V87" s="73"/>
-      <c r="W87" s="71"/>
-      <c r="X87" s="71"/>
-      <c r="Y87" s="71"/>
-      <c r="Z87" s="71"/>
-      <c r="AA87" s="71"/>
-      <c r="AB87" s="72"/>
-      <c r="AC87" s="73"/>
-      <c r="AD87" s="71"/>
-      <c r="AE87" s="71"/>
-      <c r="AF87" s="71"/>
-      <c r="AG87" s="71"/>
-      <c r="AH87" s="71"/>
-      <c r="AI87" s="72"/>
-      <c r="AJ87" s="73"/>
-      <c r="AK87" s="71"/>
-      <c r="AL87" s="71"/>
-      <c r="AM87" s="71"/>
-      <c r="AN87" s="71"/>
-      <c r="AO87" s="71"/>
-      <c r="AP87" s="72"/>
-      <c r="AQ87" s="73"/>
-      <c r="AR87" s="71"/>
-      <c r="AS87" s="71"/>
-      <c r="AT87" s="71"/>
-      <c r="AU87" s="104"/>
-      <c r="AV87" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D80:M80"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D77:M77"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="C81:M81"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="C56:M56"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="C66:M66"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D62:M62"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D58:M58"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D36:M36"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="D48:M48"/>
     <mergeCell ref="D54:M54"/>
@@ -10045,28 +10096,70 @@
     <mergeCell ref="C16:M16"/>
     <mergeCell ref="C26:M26"/>
     <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="C56:M56"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="C80:M80"/>
+    <mergeCell ref="D82:M82"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="D68:M68"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D60:M60"/>
+    <mergeCell ref="C66:M66"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D62:M62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B16 B26 P23:P25 B46 B66 B81 B7 P11:P15 O14:O15 O31 P27:P42 O37:O42 O43:P43 O52 O54:O55 O58:O59 O61:O64 O68:O71 O77:P80 O82:P87 O65:P65 P57:P64 P48:P55 O49 P67:P73 O75 O44:P45 P74:P75" numberStoredAsText="1"/>
+    <ignoredError sqref="B16 B26 P23:P25 B46 B66 B80 B7 P11:P15 O14:O15 O31 P27:P43 O37:O42 O43 O52 O54:O55 O58:O59 O61:O64 O68:O71 O76:P79 O81:P86 O65:P65 P57:P64 P48:P55 O49 P67:P73 O75 O44:P45 P74:P75" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/일정관리/221015_WBS&Gantt_V220.xlsx
+++ b/일정관리/221015_WBS&Gantt_V220.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="344">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1296,6 +1296,49 @@
   </si>
   <si>
     <t>Google API를 활용하여 맵 특정 좌표에 오브젝트 / 상호작용 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 시스템 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2096,83 +2139,83 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2326,13 +2369,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>77203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2388,13 +2431,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2450,13 +2493,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>386</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>86711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>12675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>148889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2512,13 +2555,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>82227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1539</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>136920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2574,13 +2617,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>202181</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>91333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2884,13 +2927,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>16393</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2946,13 +2989,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>208429</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>92121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>29290</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>149598</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3008,13 +3051,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>2085</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>67765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3132,13 +3175,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1471</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>75344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>132069</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3194,13 +3237,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>4795</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>86850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>132569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3256,13 +3299,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>887</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>95675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>157368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3318,13 +3361,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>24210</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>98016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>8257</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>162161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3442,13 +3485,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>14402</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>80447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>265259</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>134790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3504,13 +3547,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>17124</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>83169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>267981</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>137512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3566,13 +3609,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>3609</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>84790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>27569</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>146483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3628,13 +3671,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>4192</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>78065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3752,13 +3795,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>13325</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>87130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>269515</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>151275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3814,13 +3857,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>252445</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>89571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3876,13 +3919,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>268773</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>92292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>29936</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3938,13 +3981,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>6239</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>113105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>257096</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>167448</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4000,13 +4043,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>19846</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>85890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>270703</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>140233</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4062,13 +4105,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>257887</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>108620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>168727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4186,13 +4229,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>3108</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>75825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4248,13 +4291,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>6913</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>80787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4310,13 +4353,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>16327</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4372,13 +4415,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>244281</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>108621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>168728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4434,13 +4477,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>268774</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>65079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>29937</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>125186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4496,13 +4539,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>8961</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>88612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>259818</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4820,11 +4863,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AV86"/>
+  <dimension ref="B1:AV88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="AX69" sqref="AX69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4897,92 +4940,92 @@
     </row>
     <row r="4" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:48" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114" t="s">
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="120" t="s">
+      <c r="O5" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="120" t="s">
+      <c r="P5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="114" t="s">
+      <c r="Q5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="125" t="s">
+      <c r="R5" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="124" t="s">
+      <c r="S5" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122" t="s">
+      <c r="T5" s="115"/>
+      <c r="U5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="122"/>
-      <c r="AM5" s="122"/>
-      <c r="AN5" s="122"/>
-      <c r="AO5" s="122"/>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="122"/>
-      <c r="AR5" s="122"/>
-      <c r="AS5" s="122"/>
-      <c r="AT5" s="122"/>
-      <c r="AU5" s="122"/>
-      <c r="AV5" s="123"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="116"/>
     </row>
     <row r="6" spans="2:48" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="113"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="126"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="119"/>
       <c r="S6" s="73">
         <v>29</v>
       </c>
@@ -5078,19 +5121,19 @@
       <c r="B7" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="128"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="121"/>
       <c r="N7" s="65"/>
       <c r="O7" s="66"/>
       <c r="P7" s="66"/>
@@ -5134,18 +5177,18 @@
       <c r="C8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="117"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
       <c r="N8" s="50" t="s">
         <v>24</v>
       </c>
@@ -5199,18 +5242,18 @@
       <c r="C9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="110"/>
       <c r="N9" s="50" t="s">
         <v>29</v>
       </c>
@@ -5264,18 +5307,18 @@
       <c r="C10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="117"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="110"/>
       <c r="N10" s="50" t="s">
         <v>27</v>
       </c>
@@ -5329,18 +5372,18 @@
       <c r="C11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="117"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="110"/>
       <c r="N11" s="50" t="s">
         <v>90</v>
       </c>
@@ -5394,18 +5437,18 @@
       <c r="C12" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="117"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="110"/>
       <c r="N12" s="50" t="s">
         <v>226</v>
       </c>
@@ -5459,18 +5502,18 @@
       <c r="C13" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="117"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="110"/>
       <c r="N13" s="50" t="s">
         <v>150</v>
       </c>
@@ -5522,32 +5565,32 @@
         <v>238</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="116" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="117"/>
+        <v>333</v>
+      </c>
+      <c r="D14" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
       <c r="N14" s="50" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="P14" s="51" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="52"/>
       <c r="R14" s="81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" s="31"/>
       <c r="T14" s="53"/>
@@ -5567,10 +5610,10 @@
       <c r="AH14" s="53"/>
       <c r="AI14" s="62"/>
       <c r="AJ14" s="63"/>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="53"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
       <c r="AM14" s="53"/>
-      <c r="AN14" s="6"/>
+      <c r="AN14" s="53"/>
       <c r="AO14" s="53"/>
       <c r="AP14" s="62"/>
       <c r="AQ14" s="63"/>
@@ -5585,28 +5628,28 @@
         <v>239</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="116" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="117"/>
+        <v>196</v>
+      </c>
+      <c r="D15" s="109" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="110"/>
       <c r="N15" s="50" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P15" s="51" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="Q15" s="52"/>
       <c r="R15" s="81">
@@ -5633,107 +5676,105 @@
       <c r="AK15" s="53"/>
       <c r="AL15" s="53"/>
       <c r="AM15" s="53"/>
+      <c r="AN15" s="6"/>
       <c r="AO15" s="53"/>
       <c r="AP15" s="62"/>
       <c r="AQ15" s="63"/>
       <c r="AR15" s="53"/>
       <c r="AS15" s="53"/>
       <c r="AT15" s="53"/>
-      <c r="AU15" s="6"/>
+      <c r="AU15" s="53"/>
       <c r="AV15" s="74"/>
     </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="7"/>
-      <c r="AV16" s="76"/>
+    <row r="16" spans="2:48" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="O16" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="81">
+        <v>2</v>
+      </c>
+      <c r="S16" s="31"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="53"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="74"/>
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="118" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="16">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P17" s="16">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>1</v>
-      </c>
-      <c r="R17" s="83">
-        <v>1</v>
-      </c>
-      <c r="S17" s="32"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="8"/>
+      <c r="B17" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
@@ -5762,44 +5803,44 @@
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B18" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="17">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="P18" s="17">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="Q18" s="19">
+        <v>18</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="16">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P18" s="16">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="Q18" s="18">
         <v>1</v>
       </c>
-      <c r="R18" s="84">
+      <c r="R18" s="83">
         <v>1</v>
       </c>
-      <c r="S18" s="27"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="8"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -5827,45 +5868,45 @@
     </row>
     <row r="19" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B19" s="36" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="105"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
       <c r="N19" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="17">
         <v>10.039999999999999</v>
       </c>
       <c r="P19" s="17">
-        <v>10.050000000000001</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Q19" s="19">
         <v>1</v>
       </c>
       <c r="R19" s="84">
-        <v>2</v>
-      </c>
-      <c r="S19" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="27"/>
       <c r="T19" s="7"/>
       <c r="U19" s="42"/>
       <c r="V19" s="46"/>
       <c r="W19" s="7"/>
       <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="42"/>
@@ -5892,47 +5933,47 @@
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B20" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="106"/>
       <c r="N20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O20" s="17">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P20" s="17">
         <v>10.050000000000001</v>
-      </c>
-      <c r="P20" s="17">
-        <v>10.06</v>
       </c>
       <c r="Q20" s="19">
         <v>1</v>
       </c>
       <c r="R20" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="7"/>
       <c r="U20" s="42"/>
       <c r="V20" s="46"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
+      <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="11"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
       <c r="AB20" s="42"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
@@ -5957,25 +5998,25 @@
     </row>
     <row r="21" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B21" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="105"/>
+        <v>157</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="106"/>
       <c r="N21" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O21" s="17">
         <v>10.050000000000001</v>
@@ -5987,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" s="25"/>
       <c r="T21" s="7"/>
@@ -5995,9 +6036,9 @@
       <c r="V21" s="46"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="7"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="11"/>
       <c r="AB21" s="42"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
@@ -6022,31 +6063,31 @@
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B22" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
+        <v>158</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="106"/>
       <c r="N22" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O22" s="17">
-        <v>10.039999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="P22" s="17">
-        <v>10.050000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="Q22" s="19">
         <v>1</v>
@@ -6059,9 +6100,9 @@
       <c r="U22" s="42"/>
       <c r="V22" s="46"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="42"/>
       <c r="AC22" s="7"/>
@@ -6087,47 +6128,47 @@
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="105"/>
+        <v>11</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
       <c r="N23" s="15" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="O23" s="17">
-        <v>10.06</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>55</v>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P23" s="17">
+        <v>10.050000000000001</v>
       </c>
       <c r="Q23" s="19">
         <v>1</v>
       </c>
       <c r="R23" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23" s="25"/>
       <c r="T23" s="7"/>
       <c r="U23" s="42"/>
       <c r="V23" s="46"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
       <c r="AB23" s="42"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
@@ -6152,31 +6193,31 @@
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
+        <v>160</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
       <c r="N24" s="15" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="O24" s="17">
-        <v>10.119999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="19">
         <v>1</v>
@@ -6191,13 +6232,13 @@
       <c r="W24" s="7"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="11"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="8"/>
       <c r="AB24" s="42"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="9"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="42"/>
@@ -6217,31 +6258,31 @@
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="105"/>
+        <v>161</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
       <c r="N25" s="15" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O25" s="17">
-        <v>10.130000000000001</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="19">
         <v>1</v>
@@ -6262,8 +6303,8 @@
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="8"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
       <c r="AI25" s="42"/>
       <c r="AJ25" s="46"/>
@@ -6281,42 +6322,54 @@
       <c r="AV25" s="76"/>
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B26" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="82"/>
+      <c r="B26" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O26" s="17">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>1</v>
+      </c>
+      <c r="R26" s="84">
+        <v>1</v>
+      </c>
       <c r="S26" s="25"/>
       <c r="T26" s="7"/>
       <c r="U26" s="42"/>
       <c r="V26" s="46"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="11"/>
       <c r="AB26" s="42"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="8"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="42"/>
       <c r="AJ26" s="46"/>
@@ -6335,58 +6388,56 @@
     </row>
     <row r="27" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B27" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="105"/>
+        <v>343</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="106"/>
       <c r="N27" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O27" s="17">
-        <v>9.2899999999999991</v>
+        <v>341</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>336</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q27" s="19">
-        <v>1</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="Q27" s="19"/>
       <c r="R27" s="84">
         <v>1</v>
       </c>
-      <c r="S27" s="26"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="7"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="11"/>
       <c r="AB27" s="42"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="42"/>
       <c r="AJ27" s="46"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
@@ -6399,48 +6450,36 @@
       <c r="AV27" s="76"/>
     </row>
     <row r="28" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="17">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28" s="19">
-        <v>1</v>
-      </c>
-      <c r="R28" s="84">
-        <v>2</v>
-      </c>
+      <c r="B28" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="82"/>
       <c r="S28" s="25"/>
       <c r="T28" s="7"/>
       <c r="U28" s="42"/>
       <c r="V28" s="46"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
       <c r="AB28" s="42"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
@@ -6465,46 +6504,46 @@
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="105"/>
+        <v>40</v>
+      </c>
+      <c r="D29" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
       <c r="N29" s="15" t="s">
         <v>10</v>
       </c>
       <c r="O29" s="17">
-        <v>10.039999999999999</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="19">
         <v>1</v>
       </c>
       <c r="R29" s="84">
-        <v>2</v>
-      </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="26"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="9"/>
       <c r="X29" s="9"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="42"/>
       <c r="AC29" s="7"/>
@@ -6530,31 +6569,31 @@
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
+        <v>42</v>
+      </c>
+      <c r="D30" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="106"/>
       <c r="N30" s="15" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="O30" s="17">
-        <v>10.11</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="19">
         <v>1</v>
@@ -6567,15 +6606,15 @@
       <c r="U30" s="42"/>
       <c r="V30" s="46"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
       <c r="AB30" s="42"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="42"/>
@@ -6595,53 +6634,53 @@
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B31" s="36" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="104" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="105"/>
+        <v>12</v>
+      </c>
+      <c r="D31" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="106"/>
       <c r="N31" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="O31" s="17">
+        <v>10.039999999999999</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="19">
         <v>1</v>
       </c>
       <c r="R31" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="25"/>
       <c r="T31" s="7"/>
       <c r="U31" s="42"/>
       <c r="V31" s="46"/>
       <c r="W31" s="7"/>
-      <c r="X31" s="11"/>
+      <c r="X31" s="9"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="42"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="9"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
       <c r="AI31" s="42"/>
       <c r="AJ31" s="46"/>
@@ -6660,37 +6699,37 @@
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="105"/>
+        <v>93</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="106"/>
       <c r="N32" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O32" s="17">
         <v>10.11</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>269</v>
+        <v>96</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>1</v>
       </c>
       <c r="R32" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" s="25"/>
       <c r="T32" s="7"/>
@@ -6725,37 +6764,37 @@
     </row>
     <row r="33" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B33" s="36" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="105"/>
+        <v>201</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="106"/>
       <c r="N33" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O33" s="17">
-        <v>10.11</v>
+        <v>245</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>219</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q33" s="19" t="s">
-        <v>330</v>
+        <v>268</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>1</v>
       </c>
       <c r="R33" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33" s="25"/>
       <c r="T33" s="7"/>
@@ -6769,8 +6808,8 @@
       <c r="AB33" s="42"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="42"/>
@@ -6790,35 +6829,37 @@
     </row>
     <row r="34" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B34" s="36" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C34" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="104" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="105"/>
+      <c r="D34" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="106"/>
       <c r="N34" s="15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O34" s="17">
-        <v>10.119999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="P34" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q34" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>269</v>
+      </c>
       <c r="R34" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34" s="25"/>
       <c r="T34" s="7"/>
@@ -6832,9 +6873,9 @@
       <c r="AB34" s="42"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="11"/>
+      <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
+      <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="42"/>
       <c r="AJ34" s="46"/>
@@ -6853,34 +6894,34 @@
     </row>
     <row r="35" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B35" s="36" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="105"/>
+        <v>102</v>
+      </c>
+      <c r="D35" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="106"/>
       <c r="N35" s="15" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="O35" s="17">
-        <v>10.119999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q35" s="19">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="R35" s="84">
         <v>2</v>
@@ -6897,9 +6938,9 @@
       <c r="AB35" s="42"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="11"/>
+      <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
-      <c r="AG35" s="11"/>
+      <c r="AG35" s="9"/>
       <c r="AH35" s="7"/>
       <c r="AI35" s="42"/>
       <c r="AJ35" s="46"/>
@@ -6918,37 +6959,35 @@
     </row>
     <row r="36" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B36" s="36" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="104" t="s">
-        <v>258</v>
-      </c>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="105"/>
+        <v>98</v>
+      </c>
+      <c r="D36" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="106"/>
       <c r="N36" s="15" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="O36" s="17">
         <v>10.119999999999999</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q36" s="19">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Q36" s="19"/>
       <c r="R36" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" s="25"/>
       <c r="T36" s="7"/>
@@ -6983,34 +7022,34 @@
     </row>
     <row r="37" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B37" s="36" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="D37" s="104" t="s">
-        <v>255</v>
-      </c>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="105"/>
+        <v>98</v>
+      </c>
+      <c r="D37" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="106"/>
       <c r="N37" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="O37" s="17" t="s">
-        <v>257</v>
+        <v>144</v>
+      </c>
+      <c r="O37" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q37" s="19" t="s">
-        <v>330</v>
+        <v>142</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>1</v>
       </c>
       <c r="R37" s="84">
         <v>2</v>
@@ -7029,8 +7068,8 @@
       <c r="AD37" s="7"/>
       <c r="AE37" s="11"/>
       <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="7"/>
       <c r="AI37" s="42"/>
       <c r="AJ37" s="46"/>
       <c r="AK37" s="7"/>
@@ -7048,33 +7087,35 @@
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B38" s="36" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="104" t="s">
-        <v>270</v>
-      </c>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="105"/>
+        <v>145</v>
+      </c>
+      <c r="D38" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="106"/>
       <c r="N38" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>257</v>
+        <v>147</v>
+      </c>
+      <c r="O38" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q38" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>1</v>
+      </c>
       <c r="R38" s="84">
         <v>1</v>
       </c>
@@ -7093,10 +7134,10 @@
       <c r="AE38" s="11"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="48"/>
-      <c r="AK38" s="9"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
@@ -7111,34 +7152,34 @@
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="104" t="s">
-        <v>247</v>
-      </c>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="105"/>
+        <v>254</v>
+      </c>
+      <c r="D39" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="106"/>
       <c r="N39" s="15" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q39" s="19">
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="R39" s="84">
         <v>2</v>
@@ -7156,12 +7197,12 @@
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
+      <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="9"/>
-      <c r="AI39" s="45"/>
-      <c r="AJ39" s="49"/>
-      <c r="AK39" s="11"/>
+      <c r="AI39" s="42"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
@@ -7176,35 +7217,35 @@
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B40" s="36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="105"/>
+        <v>198</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="106"/>
       <c r="N40" s="15" t="s">
         <v>234</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P40" s="17" t="s">
         <v>223</v>
       </c>
       <c r="Q40" s="19"/>
       <c r="R40" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S40" s="25"/>
       <c r="T40" s="7"/>
@@ -7219,7 +7260,7 @@
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
+      <c r="AF40" s="9"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
       <c r="AI40" s="44"/>
@@ -7239,37 +7280,37 @@
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B41" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="104" t="s">
-        <v>261</v>
-      </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="105"/>
+        <v>198</v>
+      </c>
+      <c r="D41" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="106"/>
       <c r="N41" s="15" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="O41" s="17" t="s">
         <v>219</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q41" s="19">
         <v>1</v>
       </c>
       <c r="R41" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S41" s="25"/>
       <c r="T41" s="7"/>
@@ -7304,35 +7345,33 @@
     </row>
     <row r="42" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B42" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C42" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="104" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="105"/>
+      <c r="D42" s="105" t="s">
+        <v>259</v>
+      </c>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="106"/>
       <c r="N42" s="15" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q42" s="19">
-        <v>1</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="Q42" s="19"/>
       <c r="R42" s="84">
         <v>2</v>
       </c>
@@ -7351,10 +7390,10 @@
       <c r="AE42" s="11"/>
       <c r="AF42" s="11"/>
       <c r="AG42" s="9"/>
-      <c r="AH42" s="11"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="11"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="48"/>
+      <c r="AK42" s="9"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="7"/>
@@ -7369,37 +7408,37 @@
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B43" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C43" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="104" t="s">
-        <v>264</v>
-      </c>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="105"/>
+      <c r="D43" s="105" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="106"/>
       <c r="N43" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O43" s="17" t="s">
         <v>219</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="Q43" s="19">
         <v>1</v>
       </c>
       <c r="R43" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43" s="25"/>
       <c r="T43" s="7"/>
@@ -7416,7 +7455,7 @@
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="9"/>
-      <c r="AH43" s="11"/>
+      <c r="AH43" s="9"/>
       <c r="AI43" s="45"/>
       <c r="AJ43" s="49"/>
       <c r="AK43" s="11"/>
@@ -7434,35 +7473,37 @@
     </row>
     <row r="44" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B44" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="104" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="104"/>
-      <c r="K44" s="104"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="105"/>
+        <v>201</v>
+      </c>
+      <c r="D44" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="106"/>
       <c r="N44" s="15" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="P44" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q44" s="19"/>
+        <v>260</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>1</v>
+      </c>
       <c r="R44" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" s="25"/>
       <c r="T44" s="7"/>
@@ -7478,11 +7519,11 @@
       <c r="AD44" s="7"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="9"/>
-      <c r="AI44" s="44"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="45"/>
+      <c r="AJ44" s="49"/>
+      <c r="AK44" s="11"/>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
@@ -7497,37 +7538,37 @@
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B45" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C45" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="104" t="s">
-        <v>280</v>
-      </c>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="105"/>
+      <c r="D45" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="106"/>
       <c r="N45" s="15" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="P45" s="17" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="Q45" s="19">
         <v>1</v>
       </c>
       <c r="R45" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S45" s="25"/>
       <c r="T45" s="7"/>
@@ -7543,10 +7584,11 @@
       <c r="AD45" s="7"/>
       <c r="AE45" s="11"/>
       <c r="AF45" s="11"/>
-      <c r="AG45" s="11"/>
-      <c r="AI45" s="9"/>
-      <c r="AJ45" s="48"/>
-      <c r="AK45" s="7"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="45"/>
+      <c r="AJ45" s="49"/>
+      <c r="AK45" s="11"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
@@ -7560,46 +7602,56 @@
       <c r="AV45" s="76"/>
     </row>
     <row r="46" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B46" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="110" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="85"/>
+      <c r="B46" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="106"/>
+      <c r="N46" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="P46" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="84">
+        <v>1</v>
+      </c>
       <c r="S46" s="25"/>
       <c r="T46" s="7"/>
       <c r="U46" s="42"/>
       <c r="V46" s="46"/>
       <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
+      <c r="X46" s="11"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="42"/>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="7"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="46"/>
-      <c r="AK46" s="7"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="48"/>
+      <c r="AK46" s="9"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
@@ -7614,36 +7666,36 @@
     </row>
     <row r="47" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B47" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="O47" s="56">
-        <v>10.11</v>
-      </c>
-      <c r="P47" s="56">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="Q47" s="79">
+        <v>290</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q47" s="19">
         <v>1</v>
       </c>
-      <c r="R47" s="86">
+      <c r="R47" s="84">
         <v>1</v>
       </c>
       <c r="S47" s="25"/>
@@ -7651,19 +7703,18 @@
       <c r="U47" s="42"/>
       <c r="V47" s="46"/>
       <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="X47" s="11"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="42"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="46"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="48"/>
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
@@ -7678,39 +7729,27 @@
       <c r="AV47" s="76"/>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B48" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="107"/>
-      <c r="N48" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="O48" s="56">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="P48" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q48" s="79">
-        <v>1</v>
-      </c>
-      <c r="R48" s="86">
-        <v>1</v>
-      </c>
+      <c r="B48" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="123"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="85"/>
       <c r="S48" s="25"/>
       <c r="T48" s="7"/>
       <c r="U48" s="42"/>
@@ -7723,13 +7762,13 @@
       <c r="AB48" s="42"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="8"/>
-      <c r="AH48" s="8"/>
-      <c r="AI48" s="43"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="8"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="7"/>
       <c r="AL48" s="7"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="7"/>
@@ -7744,34 +7783,34 @@
     </row>
     <row r="49" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C49" s="92" t="s">
-        <v>312</v>
-      </c>
-      <c r="D49" s="106" t="s">
-        <v>313</v>
-      </c>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="107"/>
+        <v>58</v>
+      </c>
+      <c r="D49" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="114"/>
       <c r="N49" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="O49" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="P49" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q49" s="79" t="s">
-        <v>330</v>
+        <v>64</v>
+      </c>
+      <c r="O49" s="56">
+        <v>10.11</v>
+      </c>
+      <c r="P49" s="56">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="Q49" s="79">
+        <v>1</v>
       </c>
       <c r="R49" s="86">
         <v>1</v>
@@ -7788,13 +7827,13 @@
       <c r="AB49" s="42"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="45"/>
-      <c r="AJ49" s="49"/>
-      <c r="AK49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="42"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
@@ -7809,34 +7848,34 @@
     </row>
     <row r="50" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="107"/>
+        <v>177</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="113" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="114"/>
       <c r="N50" s="39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O50" s="56">
-        <v>10.17</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="P50" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q50" s="129" t="s">
-        <v>330</v>
+        <v>170</v>
+      </c>
+      <c r="Q50" s="79">
+        <v>1</v>
       </c>
       <c r="R50" s="86">
         <v>1</v>
@@ -7855,14 +7894,14 @@
       <c r="AD50" s="7"/>
       <c r="AE50" s="11"/>
       <c r="AF50" s="11"/>
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="42"/>
-      <c r="AJ50" s="46"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="10"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="43"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
       <c r="AO50" s="7"/>
       <c r="AP50" s="42"/>
       <c r="AQ50" s="46"/>
@@ -7874,58 +7913,58 @@
     </row>
     <row r="51" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B51" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="104"/>
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="104"/>
-      <c r="K51" s="104"/>
-      <c r="L51" s="104"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O51" s="17">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="P51" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q51" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="R51" s="84">
+        <v>128</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>312</v>
+      </c>
+      <c r="D51" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="O51" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="P51" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q51" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="R51" s="86">
         <v>1</v>
       </c>
-      <c r="S51" s="27"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
       <c r="AB51" s="42"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="9"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
       <c r="AG51" s="11"/>
       <c r="AH51" s="11"/>
-      <c r="AI51" s="42"/>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="11"/>
-      <c r="AL51" s="11"/>
+      <c r="AI51" s="45"/>
+      <c r="AJ51" s="49"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="7"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
       <c r="AO51" s="7"/>
@@ -7939,59 +7978,61 @@
     </row>
     <row r="52" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
-      <c r="K52" s="104"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O52" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="P52" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="84">
+        <v>129</v>
+      </c>
+      <c r="C52" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="O52" s="56">
+        <v>10.17</v>
+      </c>
+      <c r="P52" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q52" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="R52" s="86">
         <v>1</v>
       </c>
-      <c r="S52" s="27"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="42"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
+      <c r="AE52" s="11"/>
       <c r="AF52" s="11"/>
       <c r="AG52" s="11"/>
-      <c r="AH52" s="7"/>
+      <c r="AH52" s="11"/>
       <c r="AI52" s="42"/>
       <c r="AJ52" s="46"/>
-      <c r="AK52" s="11"/>
-      <c r="AL52" s="11"/>
-      <c r="AM52" s="11"/>
-      <c r="AN52" s="9"/>
-      <c r="AO52" s="9"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="10"/>
+      <c r="AO52" s="7"/>
       <c r="AP52" s="42"/>
       <c r="AQ52" s="46"/>
       <c r="AR52" s="7"/>
@@ -8002,31 +8043,35 @@
     </row>
     <row r="53" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B53" s="36" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="104"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="17" t="s">
-        <v>291</v>
+        <v>70</v>
+      </c>
+      <c r="D53" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O53" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q53" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="Q53" s="19" t="s">
+        <v>272</v>
+      </c>
       <c r="R53" s="84">
         <v>1</v>
       </c>
@@ -8043,53 +8088,55 @@
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7"/>
-      <c r="AH53" s="7"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
       <c r="AI53" s="42"/>
       <c r="AJ53" s="46"/>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7"/>
-      <c r="AM53" s="11"/>
-      <c r="AN53" s="9"/>
-      <c r="AO53" s="9"/>
-      <c r="AP53" s="45"/>
-      <c r="AQ53" s="49"/>
-      <c r="AR53" s="11"/>
-      <c r="AS53" s="11"/>
-      <c r="AT53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="42"/>
+      <c r="AQ53" s="46"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7"/>
+      <c r="AT53" s="7"/>
       <c r="AU53" s="7"/>
       <c r="AV53" s="76"/>
     </row>
     <row r="54" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B54" s="36" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="104"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="D54" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="O54" s="17" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="Q54" s="19"/>
       <c r="R54" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S54" s="27"/>
       <c r="T54" s="11"/>
@@ -8104,49 +8151,49 @@
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="7"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
       <c r="AH54" s="7"/>
       <c r="AI54" s="42"/>
       <c r="AJ54" s="46"/>
-      <c r="AK54" s="7"/>
-      <c r="AL54" s="7"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
       <c r="AM54" s="11"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="45"/>
-      <c r="AQ54" s="49"/>
-      <c r="AR54" s="9"/>
-      <c r="AS54" s="9"/>
-      <c r="AT54" s="11"/>
+      <c r="AN54" s="9"/>
+      <c r="AO54" s="9"/>
+      <c r="AP54" s="42"/>
+      <c r="AQ54" s="46"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7"/>
       <c r="AU54" s="7"/>
       <c r="AV54" s="76"/>
     </row>
     <row r="55" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B55" s="36" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104"/>
-      <c r="M55" s="105"/>
+        <v>74</v>
+      </c>
+      <c r="D55" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="106"/>
       <c r="N55" s="15"/>
       <c r="O55" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="84">
@@ -8173,44 +8220,52 @@
       <c r="AK55" s="7"/>
       <c r="AL55" s="7"/>
       <c r="AM55" s="11"/>
-      <c r="AN55" s="11"/>
-      <c r="AO55" s="11"/>
+      <c r="AN55" s="9"/>
+      <c r="AO55" s="9"/>
       <c r="AP55" s="45"/>
       <c r="AQ55" s="49"/>
-      <c r="AR55" s="9"/>
-      <c r="AS55" s="9"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="11"/>
       <c r="AT55" s="11"/>
       <c r="AU55" s="7"/>
       <c r="AV55" s="76"/>
     </row>
     <row r="56" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B56" s="37">
-        <v>5</v>
-      </c>
-      <c r="C56" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="110"/>
-      <c r="K56" s="110"/>
-      <c r="L56" s="110"/>
-      <c r="M56" s="111"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="85"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="42"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
+      <c r="B56" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="84">
+        <v>2</v>
+      </c>
+      <c r="S56" s="27"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
@@ -8225,114 +8280,100 @@
       <c r="AJ56" s="46"/>
       <c r="AK56" s="7"/>
       <c r="AL56" s="7"/>
-      <c r="AM56" s="7"/>
-      <c r="AN56" s="7"/>
-      <c r="AO56" s="7"/>
-      <c r="AP56" s="42"/>
-      <c r="AQ56" s="46"/>
-      <c r="AR56" s="7"/>
-      <c r="AS56" s="7"/>
-      <c r="AT56" s="7"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="45"/>
+      <c r="AQ56" s="49"/>
+      <c r="AR56" s="9"/>
+      <c r="AS56" s="9"/>
+      <c r="AT56" s="11"/>
       <c r="AU56" s="7"/>
       <c r="AV56" s="76"/>
     </row>
     <row r="57" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B57" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="104"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="O57" s="17">
-        <v>10.11</v>
+        <v>314</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q57" s="19">
-        <v>1</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="Q57" s="19"/>
       <c r="R57" s="84">
         <v>1</v>
       </c>
-      <c r="S57" s="25"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
       <c r="AB57" s="42"/>
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
-      <c r="AE57" s="8"/>
-      <c r="AF57" s="11"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
       <c r="AI57" s="42"/>
       <c r="AJ57" s="46"/>
       <c r="AK57" s="7"/>
       <c r="AL57" s="7"/>
-      <c r="AM57" s="7"/>
-      <c r="AN57" s="7"/>
-      <c r="AO57" s="7"/>
-      <c r="AP57" s="42"/>
-      <c r="AQ57" s="46"/>
-      <c r="AR57" s="7"/>
-      <c r="AS57" s="7"/>
-      <c r="AT57" s="7"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+      <c r="AP57" s="45"/>
+      <c r="AQ57" s="49"/>
+      <c r="AR57" s="9"/>
+      <c r="AS57" s="9"/>
+      <c r="AT57" s="11"/>
       <c r="AU57" s="7"/>
       <c r="AV57" s="76"/>
     </row>
     <row r="58" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B58" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="104"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="O58" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="P58" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="84">
-        <v>1</v>
-      </c>
+      <c r="B58" s="37">
+        <v>5</v>
+      </c>
+      <c r="C58" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="123"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="85"/>
       <c r="S58" s="25"/>
       <c r="T58" s="7"/>
       <c r="U58" s="42"/>
@@ -8345,13 +8386,13 @@
       <c r="AB58" s="42"/>
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
       <c r="AG58" s="7"/>
-      <c r="AH58" s="8"/>
-      <c r="AI58" s="43"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="8"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="42"/>
+      <c r="AJ58" s="46"/>
+      <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
@@ -8366,34 +8407,38 @@
     </row>
     <row r="59" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B59" s="36" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="104"/>
-      <c r="L59" s="104"/>
-      <c r="M59" s="105"/>
+        <v>61</v>
+      </c>
+      <c r="D59" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="106"/>
       <c r="N59" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="O59" s="17" t="s">
-        <v>271</v>
+        <v>59</v>
+      </c>
+      <c r="O59" s="17">
+        <v>10.11</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="84"/>
+        <v>65</v>
+      </c>
+      <c r="Q59" s="19">
+        <v>1</v>
+      </c>
+      <c r="R59" s="84">
+        <v>1</v>
+      </c>
       <c r="S59" s="25"/>
       <c r="T59" s="7"/>
       <c r="U59" s="42"/>
@@ -8406,15 +8451,15 @@
       <c r="AB59" s="42"/>
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
-      <c r="AE59" s="11"/>
+      <c r="AE59" s="8"/>
       <c r="AF59" s="11"/>
-      <c r="AG59" s="11"/>
+      <c r="AG59" s="7"/>
       <c r="AH59" s="7"/>
       <c r="AI59" s="42"/>
       <c r="AJ59" s="46"/>
-      <c r="AK59" s="8"/>
-      <c r="AL59" s="8"/>
-      <c r="AM59" s="8"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
       <c r="AP59" s="42"/>
@@ -8427,37 +8472,35 @@
     </row>
     <row r="60" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="104"/>
-      <c r="K60" s="104"/>
-      <c r="L60" s="104"/>
-      <c r="M60" s="105"/>
+        <v>81</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="106"/>
       <c r="N60" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O60" s="17">
-        <v>10.11</v>
+        <v>296</v>
+      </c>
+      <c r="O60" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="P60" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q60" s="15" t="s">
-        <v>86</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Q60" s="19"/>
       <c r="R60" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S60" s="25"/>
       <c r="T60" s="7"/>
@@ -8471,13 +8514,13 @@
       <c r="AB60" s="42"/>
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
-      <c r="AE60" s="9"/>
+      <c r="AE60" s="11"/>
       <c r="AF60" s="11"/>
       <c r="AG60" s="7"/>
-      <c r="AH60" s="7"/>
-      <c r="AI60" s="42"/>
-      <c r="AJ60" s="46"/>
-      <c r="AK60" s="7"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="43"/>
+      <c r="AJ60" s="47"/>
+      <c r="AK60" s="8"/>
       <c r="AL60" s="7"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
@@ -8492,31 +8535,33 @@
     </row>
     <row r="61" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B61" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="104"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="104"/>
-      <c r="K61" s="104"/>
-      <c r="L61" s="104"/>
-      <c r="M61" s="105"/>
-      <c r="N61" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="105"/>
+      <c r="L61" s="105"/>
+      <c r="M61" s="106"/>
+      <c r="N61" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="O61" s="17" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="P61" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q61" s="15"/>
+        <v>298</v>
+      </c>
+      <c r="Q61" s="19"/>
       <c r="R61" s="84"/>
       <c r="S61" s="25"/>
       <c r="T61" s="7"/>
@@ -8532,15 +8577,15 @@
       <c r="AD61" s="7"/>
       <c r="AE61" s="11"/>
       <c r="AF61" s="11"/>
-      <c r="AG61" s="7"/>
+      <c r="AG61" s="11"/>
       <c r="AH61" s="7"/>
       <c r="AI61" s="42"/>
       <c r="AJ61" s="46"/>
-      <c r="AK61" s="7"/>
-      <c r="AL61" s="7"/>
-      <c r="AM61" s="7"/>
-      <c r="AN61" s="9"/>
-      <c r="AO61" s="9"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
       <c r="AP61" s="42"/>
       <c r="AQ61" s="46"/>
       <c r="AR61" s="7"/>
@@ -8551,37 +8596,37 @@
     </row>
     <row r="62" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B62" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="104"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="104"/>
-      <c r="J62" s="104"/>
-      <c r="K62" s="104"/>
-      <c r="L62" s="104"/>
-      <c r="M62" s="105"/>
+        <v>112</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
+      <c r="M62" s="106"/>
       <c r="N62" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="O62" s="17" t="s">
-        <v>300</v>
+        <v>68</v>
+      </c>
+      <c r="O62" s="17">
+        <v>10.11</v>
       </c>
       <c r="P62" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q62" s="19">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="Q62" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="R62" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S62" s="25"/>
       <c r="T62" s="7"/>
@@ -8595,12 +8640,12 @@
       <c r="AB62" s="42"/>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
-      <c r="AE62" s="11"/>
+      <c r="AE62" s="9"/>
       <c r="AF62" s="11"/>
       <c r="AG62" s="7"/>
       <c r="AH62" s="7"/>
-      <c r="AI62" s="43"/>
-      <c r="AJ62" s="47"/>
+      <c r="AI62" s="42"/>
+      <c r="AJ62" s="46"/>
       <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
       <c r="AM62" s="7"/>
@@ -8616,29 +8661,29 @@
     </row>
     <row r="63" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B63" s="36" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="C63" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" s="104"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="D63" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="105"/>
+      <c r="L63" s="105"/>
+      <c r="M63" s="106"/>
       <c r="N63" s="15"/>
       <c r="O63" s="17" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q63" s="15"/>
       <c r="R63" s="84"/>
@@ -8660,11 +8705,11 @@
       <c r="AH63" s="7"/>
       <c r="AI63" s="42"/>
       <c r="AJ63" s="46"/>
-      <c r="AK63" s="9"/>
-      <c r="AL63" s="9"/>
-      <c r="AM63" s="9"/>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7"/>
       <c r="AN63" s="9"/>
-      <c r="AO63" s="7"/>
+      <c r="AO63" s="9"/>
       <c r="AP63" s="42"/>
       <c r="AQ63" s="46"/>
       <c r="AR63" s="7"/>
@@ -8675,33 +8720,35 @@
     </row>
     <row r="64" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="104" t="s">
-        <v>332</v>
-      </c>
-      <c r="E64" s="104"/>
-      <c r="F64" s="104"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="104"/>
-      <c r="J64" s="104"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="104"/>
-      <c r="M64" s="105"/>
+        <v>115</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="105"/>
+      <c r="K64" s="105"/>
+      <c r="L64" s="105"/>
+      <c r="M64" s="106"/>
       <c r="N64" s="15" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="O64" s="17" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q64" s="15"/>
+        <v>301</v>
+      </c>
+      <c r="Q64" s="19">
+        <v>1</v>
+      </c>
       <c r="R64" s="84">
         <v>1</v>
       </c>
@@ -8721,13 +8768,13 @@
       <c r="AF64" s="11"/>
       <c r="AG64" s="7"/>
       <c r="AH64" s="7"/>
-      <c r="AI64" s="42"/>
-      <c r="AJ64" s="46"/>
-      <c r="AK64" s="9"/>
-      <c r="AL64" s="11"/>
-      <c r="AM64" s="11"/>
-      <c r="AN64" s="11"/>
-      <c r="AO64" s="11"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="47"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
       <c r="AP64" s="42"/>
       <c r="AQ64" s="46"/>
       <c r="AR64" s="7"/>
@@ -8738,29 +8785,29 @@
     </row>
     <row r="65" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="C65" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="E65" s="104"/>
-      <c r="F65" s="104"/>
-      <c r="G65" s="104"/>
-      <c r="H65" s="104"/>
-      <c r="I65" s="104"/>
-      <c r="J65" s="104"/>
-      <c r="K65" s="104"/>
-      <c r="L65" s="104"/>
-      <c r="M65" s="105"/>
+        <v>191</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="105"/>
+      <c r="L65" s="105"/>
+      <c r="M65" s="106"/>
       <c r="N65" s="15"/>
       <c r="O65" s="17" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="Q65" s="15"/>
       <c r="R65" s="84"/>
@@ -8782,41 +8829,51 @@
       <c r="AH65" s="7"/>
       <c r="AI65" s="42"/>
       <c r="AJ65" s="46"/>
-      <c r="AK65" s="7"/>
-      <c r="AL65" s="7"/>
-      <c r="AM65" s="7"/>
-      <c r="AN65" s="7"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="9"/>
+      <c r="AM65" s="9"/>
+      <c r="AN65" s="9"/>
       <c r="AO65" s="7"/>
       <c r="AP65" s="42"/>
       <c r="AQ65" s="46"/>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7"/>
-      <c r="AT65" s="10"/>
-      <c r="AU65" s="10"/>
-      <c r="AV65" s="102"/>
+      <c r="AT65" s="7"/>
+      <c r="AU65" s="7"/>
+      <c r="AV65" s="76"/>
     </row>
     <row r="66" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B66" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="110" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="110"/>
-      <c r="I66" s="110"/>
-      <c r="J66" s="110"/>
-      <c r="K66" s="110"/>
-      <c r="L66" s="110"/>
-      <c r="M66" s="111"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="85"/>
+      <c r="B66" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="105" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="105"/>
+      <c r="K66" s="105"/>
+      <c r="L66" s="105"/>
+      <c r="M66" s="106"/>
+      <c r="N66" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="O66" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="P66" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="84">
+        <v>1</v>
+      </c>
       <c r="S66" s="25"/>
       <c r="T66" s="7"/>
       <c r="U66" s="42"/>
@@ -8829,17 +8886,17 @@
       <c r="AB66" s="42"/>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
-      <c r="AF66" s="7"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="11"/>
       <c r="AG66" s="7"/>
       <c r="AH66" s="7"/>
       <c r="AI66" s="42"/>
       <c r="AJ66" s="46"/>
-      <c r="AK66" s="7"/>
-      <c r="AL66" s="7"/>
-      <c r="AM66" s="7"/>
-      <c r="AN66" s="7"/>
-      <c r="AO66" s="7"/>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="11"/>
       <c r="AP66" s="42"/>
       <c r="AQ66" s="46"/>
       <c r="AR66" s="7"/>
@@ -8850,38 +8907,32 @@
     </row>
     <row r="67" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B67" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="104"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="104"/>
-      <c r="M67" s="105"/>
-      <c r="N67" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O67" s="17">
-        <v>10.119999999999999</v>
+        <v>311</v>
+      </c>
+      <c r="C67" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="105"/>
+      <c r="L67" s="105"/>
+      <c r="M67" s="106"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="17" t="s">
+        <v>305</v>
       </c>
       <c r="P67" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q67" s="19">
-        <v>1</v>
-      </c>
-      <c r="R67" s="84">
-        <v>1</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="84"/>
       <c r="S67" s="25"/>
       <c r="T67" s="7"/>
       <c r="U67" s="42"/>
@@ -8895,11 +8946,11 @@
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
       <c r="AE67" s="11"/>
-      <c r="AF67" s="8"/>
-      <c r="AG67" s="8"/>
-      <c r="AH67" s="11"/>
-      <c r="AI67" s="45"/>
-      <c r="AJ67" s="49"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="7"/>
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="42"/>
+      <c r="AJ67" s="46"/>
       <c r="AK67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
@@ -8909,42 +8960,32 @@
       <c r="AQ67" s="46"/>
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
-      <c r="AT67" s="7"/>
-      <c r="AU67" s="7"/>
-      <c r="AV67" s="76"/>
+      <c r="AT67" s="10"/>
+      <c r="AU67" s="10"/>
+      <c r="AV67" s="102"/>
     </row>
     <row r="68" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B68" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" s="104" t="s">
-        <v>194</v>
-      </c>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104"/>
-      <c r="K68" s="104"/>
-      <c r="L68" s="104"/>
-      <c r="M68" s="105"/>
-      <c r="N68" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="O68" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="P68" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="84">
-        <v>1</v>
-      </c>
+      <c r="B68" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="122"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="122"/>
+      <c r="I68" s="122"/>
+      <c r="J68" s="122"/>
+      <c r="K68" s="122"/>
+      <c r="L68" s="122"/>
+      <c r="M68" s="123"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="85"/>
       <c r="S68" s="25"/>
       <c r="T68" s="7"/>
       <c r="U68" s="42"/>
@@ -8958,13 +8999,13 @@
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
-      <c r="AF68" s="11"/>
-      <c r="AG68" s="11"/>
-      <c r="AH68" s="11"/>
-      <c r="AI68" s="45"/>
-      <c r="AJ68" s="49"/>
-      <c r="AK68" s="8"/>
-      <c r="AL68" s="8"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="42"/>
+      <c r="AJ68" s="46"/>
+      <c r="AK68" s="7"/>
+      <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
       <c r="AO68" s="7"/>
@@ -8978,55 +9019,61 @@
     </row>
     <row r="69" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="104" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="104"/>
-      <c r="K69" s="104"/>
-      <c r="L69" s="104"/>
-      <c r="M69" s="105"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="17" t="s">
-        <v>223</v>
+      <c r="D69" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="105"/>
+      <c r="L69" s="105"/>
+      <c r="M69" s="106"/>
+      <c r="N69" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O69" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="45"/>
-      <c r="V69" s="49"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="Q69" s="19">
+        <v>1</v>
+      </c>
+      <c r="R69" s="84">
+        <v>1</v>
+      </c>
+      <c r="S69" s="25"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
       <c r="AB69" s="42"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
-      <c r="AE69" s="7"/>
-      <c r="AF69" s="11"/>
-      <c r="AG69" s="11"/>
+      <c r="AE69" s="11"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
       <c r="AH69" s="11"/>
       <c r="AI69" s="45"/>
       <c r="AJ69" s="49"/>
-      <c r="AK69" s="8"/>
-      <c r="AL69" s="8"/>
-      <c r="AM69" s="11"/>
-      <c r="AN69" s="11"/>
-      <c r="AO69" s="11"/>
+      <c r="AK69" s="7"/>
+      <c r="AL69" s="7"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+      <c r="AO69" s="7"/>
       <c r="AP69" s="42"/>
       <c r="AQ69" s="46"/>
       <c r="AR69" s="7"/>
@@ -9037,38 +9084,42 @@
     </row>
     <row r="70" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B70" s="36" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D70" s="104" t="s">
-        <v>197</v>
-      </c>
-      <c r="E70" s="104"/>
-      <c r="F70" s="104"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="104"/>
-      <c r="J70" s="104"/>
-      <c r="K70" s="104"/>
-      <c r="L70" s="104"/>
-      <c r="M70" s="105"/>
-      <c r="N70" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="D70" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="105"/>
+      <c r="M70" s="106"/>
+      <c r="N70" s="15" t="s">
+        <v>321</v>
+      </c>
       <c r="O70" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="P70" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="P70" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="45"/>
-      <c r="V70" s="49"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="84">
+        <v>1</v>
+      </c>
+      <c r="S70" s="25"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
@@ -9076,16 +9127,16 @@
       <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
       <c r="AE70" s="7"/>
-      <c r="AF70" s="7"/>
-      <c r="AG70" s="7"/>
-      <c r="AH70" s="7"/>
-      <c r="AI70" s="42"/>
-      <c r="AJ70" s="46"/>
-      <c r="AK70" s="7"/>
+      <c r="AF70" s="11"/>
+      <c r="AG70" s="11"/>
+      <c r="AH70" s="11"/>
+      <c r="AI70" s="45"/>
+      <c r="AJ70" s="49"/>
+      <c r="AK70" s="8"/>
       <c r="AL70" s="8"/>
-      <c r="AM70" s="8"/>
-      <c r="AN70" s="11"/>
-      <c r="AO70" s="11"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+      <c r="AO70" s="7"/>
       <c r="AP70" s="42"/>
       <c r="AQ70" s="46"/>
       <c r="AR70" s="7"/>
@@ -9096,35 +9147,31 @@
     </row>
     <row r="71" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="104" t="s">
-        <v>193</v>
-      </c>
-      <c r="E71" s="104"/>
-      <c r="F71" s="104"/>
-      <c r="G71" s="104"/>
-      <c r="H71" s="104"/>
-      <c r="I71" s="104"/>
-      <c r="J71" s="104"/>
-      <c r="K71" s="104"/>
-      <c r="L71" s="104"/>
-      <c r="M71" s="105"/>
-      <c r="N71" s="15" t="s">
-        <v>318</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D71" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="105"/>
+      <c r="L71" s="105"/>
+      <c r="M71" s="106"/>
+      <c r="N71" s="15"/>
       <c r="O71" s="17" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="P71" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q71" s="19" t="s">
-        <v>319</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="Q71" s="19"/>
       <c r="R71" s="84"/>
       <c r="S71" s="27"/>
       <c r="T71" s="11"/>
@@ -9139,13 +9186,13 @@
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
       <c r="AE71" s="7"/>
-      <c r="AF71" s="7"/>
-      <c r="AG71" s="7"/>
-      <c r="AH71" s="8"/>
-      <c r="AI71" s="43"/>
-      <c r="AJ71" s="47"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="45"/>
+      <c r="AJ71" s="49"/>
       <c r="AK71" s="8"/>
-      <c r="AL71" s="7"/>
+      <c r="AL71" s="8"/>
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="11"/>
@@ -9159,38 +9206,32 @@
     </row>
     <row r="72" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B72" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D72" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="104"/>
-      <c r="F72" s="104"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="104"/>
-      <c r="I72" s="104"/>
-      <c r="J72" s="104"/>
-      <c r="K72" s="104"/>
-      <c r="L72" s="104"/>
-      <c r="M72" s="105"/>
-      <c r="N72" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="O72" s="17">
-        <v>10.14</v>
+        <v>196</v>
+      </c>
+      <c r="D72" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="105"/>
+      <c r="K72" s="105"/>
+      <c r="L72" s="105"/>
+      <c r="M72" s="106"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="P72" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q72" s="19">
-        <v>1</v>
-      </c>
-      <c r="R72" s="84">
-        <v>2</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="84"/>
       <c r="S72" s="27"/>
       <c r="T72" s="11"/>
       <c r="U72" s="45"/>
@@ -9206,12 +9247,12 @@
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
       <c r="AG72" s="7"/>
-      <c r="AH72" s="8"/>
-      <c r="AI72" s="43"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="8"/>
-      <c r="AL72" s="7"/>
-      <c r="AM72" s="11"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="42"/>
+      <c r="AJ72" s="46"/>
+      <c r="AK72" s="7"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="8"/>
       <c r="AN72" s="11"/>
       <c r="AO72" s="11"/>
       <c r="AP72" s="42"/>
@@ -9224,38 +9265,36 @@
     </row>
     <row r="73" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="E73" s="104"/>
-      <c r="F73" s="104"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="104"/>
-      <c r="J73" s="104"/>
-      <c r="K73" s="104"/>
-      <c r="L73" s="104"/>
-      <c r="M73" s="105"/>
+        <v>122</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" s="105"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="105"/>
+      <c r="J73" s="105"/>
+      <c r="K73" s="105"/>
+      <c r="L73" s="105"/>
+      <c r="M73" s="106"/>
       <c r="N73" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="O73" s="17">
-        <v>10.119999999999999</v>
+        <v>318</v>
+      </c>
+      <c r="O73" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q73" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="R73" s="84">
-        <v>2</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="Q73" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="R73" s="84"/>
       <c r="S73" s="27"/>
       <c r="T73" s="11"/>
       <c r="U73" s="45"/>
@@ -9269,12 +9308,12 @@
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
       <c r="AE73" s="7"/>
-      <c r="AF73" s="9"/>
-      <c r="AG73" s="9"/>
-      <c r="AH73" s="9"/>
-      <c r="AI73" s="44"/>
-      <c r="AJ73" s="48"/>
-      <c r="AK73" s="9"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="43"/>
+      <c r="AJ73" s="47"/>
+      <c r="AK73" s="8"/>
       <c r="AL73" s="7"/>
       <c r="AM73" s="11"/>
       <c r="AN73" s="11"/>
@@ -9289,37 +9328,37 @@
     </row>
     <row r="74" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" s="104" t="s">
-        <v>199</v>
-      </c>
-      <c r="E74" s="104"/>
-      <c r="F74" s="104"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="104"/>
-      <c r="J74" s="104"/>
-      <c r="K74" s="104"/>
-      <c r="L74" s="104"/>
-      <c r="M74" s="105"/>
+        <v>123</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="106"/>
       <c r="N74" s="15" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="O74" s="17">
-        <v>10.15</v>
+        <v>10.14</v>
       </c>
       <c r="P74" s="17" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="Q74" s="19">
         <v>1</v>
       </c>
       <c r="R74" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S74" s="27"/>
       <c r="T74" s="11"/>
@@ -9336,10 +9375,10 @@
       <c r="AE74" s="7"/>
       <c r="AF74" s="7"/>
       <c r="AG74" s="7"/>
-      <c r="AH74" s="7"/>
-      <c r="AI74" s="44"/>
-      <c r="AJ74" s="46"/>
-      <c r="AK74" s="7"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="43"/>
+      <c r="AJ74" s="47"/>
+      <c r="AK74" s="8"/>
       <c r="AL74" s="7"/>
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
@@ -9354,33 +9393,35 @@
     </row>
     <row r="75" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C75" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="D75" s="104" t="s">
-        <v>324</v>
-      </c>
-      <c r="E75" s="104"/>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="104"/>
-      <c r="J75" s="104"/>
-      <c r="K75" s="104"/>
-      <c r="L75" s="104"/>
-      <c r="M75" s="105"/>
+        <v>198</v>
+      </c>
+      <c r="D75" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="105"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="106"/>
       <c r="N75" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="O75" s="17" t="s">
-        <v>316</v>
+        <v>218</v>
+      </c>
+      <c r="O75" s="17">
+        <v>10.119999999999999</v>
       </c>
       <c r="P75" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q75" s="19"/>
+        <v>170</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>0.5</v>
+      </c>
       <c r="R75" s="84">
         <v>2</v>
       </c>
@@ -9397,13 +9438,13 @@
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
-      <c r="AG75" s="7"/>
-      <c r="AH75" s="7"/>
-      <c r="AI75" s="45"/>
-      <c r="AJ75" s="46"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="44"/>
+      <c r="AJ75" s="48"/>
       <c r="AK75" s="9"/>
-      <c r="AL75" s="9"/>
+      <c r="AL75" s="7"/>
       <c r="AM75" s="11"/>
       <c r="AN75" s="11"/>
       <c r="AO75" s="11"/>
@@ -9417,32 +9458,38 @@
     </row>
     <row r="76" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B76" s="36" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C76" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D76" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
-      <c r="J76" s="104"/>
-      <c r="K76" s="104"/>
-      <c r="L76" s="104"/>
-      <c r="M76" s="105"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="17" t="s">
-        <v>310</v>
+      <c r="D76" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="106"/>
+      <c r="N76" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="O76" s="17">
+        <v>10.15</v>
       </c>
       <c r="P76" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="84"/>
+        <v>235</v>
+      </c>
+      <c r="Q76" s="19">
+        <v>1</v>
+      </c>
+      <c r="R76" s="84">
+        <v>1</v>
+      </c>
       <c r="S76" s="27"/>
       <c r="T76" s="11"/>
       <c r="U76" s="45"/>
@@ -9459,13 +9506,13 @@
       <c r="AF76" s="7"/>
       <c r="AG76" s="7"/>
       <c r="AH76" s="7"/>
-      <c r="AI76" s="42"/>
+      <c r="AI76" s="44"/>
       <c r="AJ76" s="46"/>
       <c r="AK76" s="7"/>
       <c r="AL76" s="7"/>
       <c r="AM76" s="11"/>
-      <c r="AN76" s="9"/>
-      <c r="AO76" s="9"/>
+      <c r="AN76" s="11"/>
+      <c r="AO76" s="11"/>
       <c r="AP76" s="42"/>
       <c r="AQ76" s="46"/>
       <c r="AR76" s="7"/>
@@ -9476,32 +9523,36 @@
     </row>
     <row r="77" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D77" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="105"/>
-      <c r="N77" s="15"/>
+        <v>323</v>
+      </c>
+      <c r="D77" s="105" t="s">
+        <v>324</v>
+      </c>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="105"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="106"/>
+      <c r="N77" s="15" t="s">
+        <v>325</v>
+      </c>
       <c r="O77" s="17" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="Q77" s="19"/>
-      <c r="R77" s="84"/>
+      <c r="R77" s="84">
+        <v>2</v>
+      </c>
       <c r="S77" s="27"/>
       <c r="T77" s="11"/>
       <c r="U77" s="45"/>
@@ -9518,46 +9569,46 @@
       <c r="AF77" s="7"/>
       <c r="AG77" s="7"/>
       <c r="AH77" s="7"/>
-      <c r="AI77" s="42"/>
+      <c r="AI77" s="45"/>
       <c r="AJ77" s="46"/>
-      <c r="AK77" s="7"/>
-      <c r="AL77" s="7"/>
+      <c r="AK77" s="9"/>
+      <c r="AL77" s="9"/>
       <c r="AM77" s="11"/>
       <c r="AN77" s="11"/>
       <c r="AO77" s="11"/>
       <c r="AP77" s="42"/>
       <c r="AQ77" s="46"/>
-      <c r="AR77" s="9"/>
-      <c r="AS77" s="9"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="7"/>
       <c r="AT77" s="7"/>
       <c r="AU77" s="7"/>
       <c r="AV77" s="76"/>
     </row>
     <row r="78" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B78" s="36" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D78" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" s="104"/>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="104"/>
-      <c r="J78" s="104"/>
-      <c r="K78" s="104"/>
-      <c r="L78" s="104"/>
-      <c r="M78" s="105"/>
+        <v>198</v>
+      </c>
+      <c r="D78" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="105"/>
+      <c r="L78" s="105"/>
+      <c r="M78" s="106"/>
       <c r="N78" s="15"/>
       <c r="O78" s="17" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P78" s="17" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Q78" s="19"/>
       <c r="R78" s="84"/>
@@ -9582,41 +9633,41 @@
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
       <c r="AM78" s="11"/>
-      <c r="AN78" s="11"/>
-      <c r="AO78" s="11"/>
+      <c r="AN78" s="9"/>
+      <c r="AO78" s="9"/>
       <c r="AP78" s="42"/>
       <c r="AQ78" s="46"/>
-      <c r="AR78" s="22"/>
-      <c r="AS78" s="9"/>
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7"/>
       <c r="AT78" s="7"/>
       <c r="AU78" s="7"/>
       <c r="AV78" s="76"/>
     </row>
     <row r="79" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c r="C79" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" s="104" t="s">
-        <v>206</v>
-      </c>
-      <c r="E79" s="104"/>
-      <c r="F79" s="104"/>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="104"/>
-      <c r="J79" s="104"/>
-      <c r="K79" s="104"/>
-      <c r="L79" s="104"/>
-      <c r="M79" s="105"/>
+        <v>201</v>
+      </c>
+      <c r="D79" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="105"/>
+      <c r="M79" s="106"/>
       <c r="N79" s="15"/>
       <c r="O79" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="P79" s="17" t="s">
         <v>295</v>
-      </c>
-      <c r="P79" s="17" t="s">
-        <v>305</v>
       </c>
       <c r="Q79" s="19"/>
       <c r="R79" s="84"/>
@@ -9652,38 +9703,44 @@
       <c r="AV79" s="76"/>
     </row>
     <row r="80" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B80" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C80" s="110" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="110"/>
-      <c r="E80" s="110"/>
-      <c r="F80" s="110"/>
-      <c r="G80" s="110"/>
-      <c r="H80" s="110"/>
-      <c r="I80" s="110"/>
-      <c r="J80" s="110"/>
-      <c r="K80" s="110"/>
-      <c r="L80" s="110"/>
-      <c r="M80" s="111"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="85"/>
-      <c r="S80" s="25"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="42"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
+      <c r="B80" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="105"/>
+      <c r="J80" s="105"/>
+      <c r="K80" s="105"/>
+      <c r="L80" s="105"/>
+      <c r="M80" s="106"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="P80" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="84"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="49"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
       <c r="AB80" s="42"/>
-      <c r="AC80" s="46"/>
+      <c r="AC80" s="7"/>
       <c r="AD80" s="7"/>
       <c r="AE80" s="7"/>
       <c r="AF80" s="7"/>
@@ -9693,60 +9750,56 @@
       <c r="AJ80" s="46"/>
       <c r="AK80" s="7"/>
       <c r="AL80" s="7"/>
-      <c r="AM80" s="7"/>
-      <c r="AN80" s="7"/>
-      <c r="AO80" s="7"/>
+      <c r="AM80" s="11"/>
+      <c r="AN80" s="11"/>
+      <c r="AO80" s="11"/>
       <c r="AP80" s="42"/>
       <c r="AQ80" s="46"/>
-      <c r="AR80" s="7"/>
-      <c r="AS80" s="7"/>
+      <c r="AR80" s="22"/>
+      <c r="AS80" s="9"/>
       <c r="AT80" s="7"/>
       <c r="AU80" s="7"/>
       <c r="AV80" s="76"/>
     </row>
     <row r="81" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B81" s="96" t="s">
-        <v>273</v>
-      </c>
-      <c r="C81" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="D81" s="106" t="s">
-        <v>275</v>
-      </c>
-      <c r="E81" s="106"/>
-      <c r="F81" s="106"/>
-      <c r="G81" s="106"/>
-      <c r="H81" s="106"/>
-      <c r="I81" s="106"/>
-      <c r="J81" s="106"/>
-      <c r="K81" s="106"/>
-      <c r="L81" s="106"/>
-      <c r="M81" s="107"/>
-      <c r="N81" s="97" t="s">
-        <v>276</v>
-      </c>
-      <c r="O81" s="98" t="s">
-        <v>277</v>
-      </c>
-      <c r="P81" s="98" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q81" s="97"/>
-      <c r="R81" s="99">
-        <v>1</v>
-      </c>
-      <c r="S81" s="25"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="42"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
+      <c r="B81" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C81" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="105"/>
+      <c r="K81" s="105"/>
+      <c r="L81" s="105"/>
+      <c r="M81" s="106"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="P81" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="84"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="45"/>
+      <c r="V81" s="49"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
       <c r="AB81" s="42"/>
-      <c r="AC81" s="46"/>
+      <c r="AC81" s="7"/>
       <c r="AD81" s="7"/>
       <c r="AE81" s="7"/>
       <c r="AF81" s="7"/>
@@ -9756,45 +9809,39 @@
       <c r="AJ81" s="46"/>
       <c r="AK81" s="7"/>
       <c r="AL81" s="7"/>
-      <c r="AM81" s="7"/>
-      <c r="AN81" s="7"/>
-      <c r="AO81" s="7"/>
+      <c r="AM81" s="11"/>
+      <c r="AN81" s="11"/>
+      <c r="AO81" s="11"/>
       <c r="AP81" s="42"/>
       <c r="AQ81" s="46"/>
-      <c r="AR81" s="8"/>
-      <c r="AS81" s="8"/>
-      <c r="AT81" s="8"/>
-      <c r="AU81" s="8"/>
-      <c r="AV81" s="101"/>
+      <c r="AR81" s="9"/>
+      <c r="AS81" s="9"/>
+      <c r="AT81" s="7"/>
+      <c r="AU81" s="7"/>
+      <c r="AV81" s="76"/>
     </row>
     <row r="82" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="B82" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D82" s="104" t="s">
-        <v>210</v>
-      </c>
-      <c r="E82" s="104"/>
-      <c r="F82" s="104"/>
-      <c r="G82" s="104"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="104"/>
-      <c r="K82" s="104"/>
-      <c r="L82" s="104"/>
-      <c r="M82" s="105"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="P82" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="84"/>
+      <c r="B82" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="122" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="122"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="122"/>
+      <c r="G82" s="122"/>
+      <c r="H82" s="122"/>
+      <c r="I82" s="122"/>
+      <c r="J82" s="122"/>
+      <c r="K82" s="122"/>
+      <c r="L82" s="122"/>
+      <c r="M82" s="123"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="85"/>
       <c r="S82" s="25"/>
       <c r="T82" s="7"/>
       <c r="U82" s="42"/>
@@ -9820,7 +9867,7 @@
       <c r="AO82" s="7"/>
       <c r="AP82" s="42"/>
       <c r="AQ82" s="46"/>
-      <c r="AR82" s="8"/>
+      <c r="AR82" s="7"/>
       <c r="AS82" s="7"/>
       <c r="AT82" s="7"/>
       <c r="AU82" s="7"/>
@@ -9828,32 +9875,36 @@
     </row>
     <row r="83" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B83" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="E83" s="104"/>
-      <c r="F83" s="104"/>
-      <c r="G83" s="104"/>
-      <c r="H83" s="104"/>
-      <c r="I83" s="104"/>
-      <c r="J83" s="104"/>
-      <c r="K83" s="104"/>
-      <c r="L83" s="104"/>
-      <c r="M83" s="105"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="113" t="s">
+        <v>275</v>
+      </c>
+      <c r="E83" s="113"/>
+      <c r="F83" s="113"/>
+      <c r="G83" s="113"/>
+      <c r="H83" s="113"/>
+      <c r="I83" s="113"/>
+      <c r="J83" s="113"/>
+      <c r="K83" s="113"/>
+      <c r="L83" s="113"/>
+      <c r="M83" s="114"/>
+      <c r="N83" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="O83" s="98" t="s">
         <v>277</v>
       </c>
-      <c r="P83" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="84"/>
+      <c r="P83" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q83" s="97"/>
+      <c r="R83" s="99">
+        <v>1</v>
+      </c>
       <c r="S83" s="25"/>
       <c r="T83" s="7"/>
       <c r="U83" s="42"/>
@@ -9880,36 +9931,36 @@
       <c r="AP83" s="42"/>
       <c r="AQ83" s="46"/>
       <c r="AR83" s="8"/>
-      <c r="AS83" s="7"/>
-      <c r="AT83" s="7"/>
-      <c r="AU83" s="7"/>
-      <c r="AV83" s="76"/>
+      <c r="AS83" s="8"/>
+      <c r="AT83" s="8"/>
+      <c r="AU83" s="8"/>
+      <c r="AV83" s="101"/>
     </row>
     <row r="84" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B84" s="36" t="s">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D84" s="104" t="s">
-        <v>213</v>
-      </c>
-      <c r="E84" s="104"/>
-      <c r="F84" s="104"/>
-      <c r="G84" s="104"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="104"/>
-      <c r="J84" s="104"/>
-      <c r="K84" s="104"/>
-      <c r="L84" s="104"/>
-      <c r="M84" s="105"/>
+        <v>209</v>
+      </c>
+      <c r="D84" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="106"/>
       <c r="N84" s="15"/>
       <c r="O84" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P84" s="17" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="Q84" s="15"/>
       <c r="R84" s="84"/>
@@ -9938,37 +9989,37 @@
       <c r="AO84" s="7"/>
       <c r="AP84" s="42"/>
       <c r="AQ84" s="46"/>
-      <c r="AR84" s="7"/>
-      <c r="AS84" s="8"/>
-      <c r="AT84" s="8"/>
+      <c r="AR84" s="8"/>
+      <c r="AS84" s="7"/>
+      <c r="AT84" s="7"/>
       <c r="AU84" s="7"/>
       <c r="AV84" s="76"/>
     </row>
     <row r="85" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B85" s="96" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D85" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="E85" s="104"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="104"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="104"/>
-      <c r="K85" s="104"/>
-      <c r="L85" s="104"/>
-      <c r="M85" s="105"/>
+      <c r="D85" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="105"/>
+      <c r="K85" s="105"/>
+      <c r="L85" s="105"/>
+      <c r="M85" s="106"/>
       <c r="N85" s="15"/>
       <c r="O85" s="17" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="P85" s="17" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="84"/>
@@ -9997,169 +10048,289 @@
       <c r="AO85" s="7"/>
       <c r="AP85" s="42"/>
       <c r="AQ85" s="46"/>
-      <c r="AR85" s="7"/>
+      <c r="AR85" s="8"/>
       <c r="AS85" s="7"/>
-      <c r="AT85" s="8"/>
+      <c r="AT85" s="7"/>
       <c r="AU85" s="7"/>
       <c r="AV85" s="76"/>
     </row>
-    <row r="86" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="95" t="s">
+    <row r="86" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B86" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="105"/>
+      <c r="K86" s="105"/>
+      <c r="L86" s="105"/>
+      <c r="M86" s="106"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="P86" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="84"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="42"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="42"/>
+      <c r="AC86" s="46"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="42"/>
+      <c r="AJ86" s="46"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="42"/>
+      <c r="AQ86" s="46"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="8"/>
+      <c r="AT86" s="8"/>
+      <c r="AU86" s="7"/>
+      <c r="AV86" s="76"/>
+    </row>
+    <row r="87" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B87" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="105"/>
+      <c r="K87" s="105"/>
+      <c r="L87" s="105"/>
+      <c r="M87" s="106"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="P87" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="84"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="42"/>
+      <c r="AC87" s="46"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="42"/>
+      <c r="AJ87" s="46"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="42"/>
+      <c r="AQ87" s="46"/>
+      <c r="AR87" s="7"/>
+      <c r="AS87" s="7"/>
+      <c r="AT87" s="8"/>
+      <c r="AU87" s="7"/>
+      <c r="AV87" s="76"/>
+    </row>
+    <row r="88" spans="2:48" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="87" t="s">
+      <c r="C88" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="D86" s="108" t="s">
+      <c r="D88" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108"/>
-      <c r="G86" s="108"/>
-      <c r="H86" s="108"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="108"/>
-      <c r="K86" s="108"/>
-      <c r="L86" s="108"/>
-      <c r="M86" s="109"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="68" t="s">
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="128"/>
+      <c r="J88" s="128"/>
+      <c r="K88" s="128"/>
+      <c r="L88" s="128"/>
+      <c r="M88" s="129"/>
+      <c r="N88" s="67"/>
+      <c r="O88" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="P86" s="68" t="s">
+      <c r="P88" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="88"/>
-      <c r="S86" s="69"/>
-      <c r="T86" s="70"/>
-      <c r="U86" s="71"/>
-      <c r="V86" s="72"/>
-      <c r="W86" s="70"/>
-      <c r="X86" s="70"/>
-      <c r="Y86" s="70"/>
-      <c r="Z86" s="70"/>
-      <c r="AA86" s="70"/>
-      <c r="AB86" s="71"/>
-      <c r="AC86" s="72"/>
-      <c r="AD86" s="70"/>
-      <c r="AE86" s="70"/>
-      <c r="AF86" s="70"/>
-      <c r="AG86" s="70"/>
-      <c r="AH86" s="70"/>
-      <c r="AI86" s="71"/>
-      <c r="AJ86" s="72"/>
-      <c r="AK86" s="70"/>
-      <c r="AL86" s="70"/>
-      <c r="AM86" s="70"/>
-      <c r="AN86" s="70"/>
-      <c r="AO86" s="70"/>
-      <c r="AP86" s="71"/>
-      <c r="AQ86" s="72"/>
-      <c r="AR86" s="70"/>
-      <c r="AS86" s="70"/>
-      <c r="AT86" s="70"/>
-      <c r="AU86" s="103"/>
-      <c r="AV86" s="77"/>
+      <c r="Q88" s="67"/>
+      <c r="R88" s="88"/>
+      <c r="S88" s="69"/>
+      <c r="T88" s="70"/>
+      <c r="U88" s="71"/>
+      <c r="V88" s="72"/>
+      <c r="W88" s="70"/>
+      <c r="X88" s="70"/>
+      <c r="Y88" s="70"/>
+      <c r="Z88" s="70"/>
+      <c r="AA88" s="70"/>
+      <c r="AB88" s="71"/>
+      <c r="AC88" s="72"/>
+      <c r="AD88" s="70"/>
+      <c r="AE88" s="70"/>
+      <c r="AF88" s="70"/>
+      <c r="AG88" s="70"/>
+      <c r="AH88" s="70"/>
+      <c r="AI88" s="71"/>
+      <c r="AJ88" s="72"/>
+      <c r="AK88" s="70"/>
+      <c r="AL88" s="70"/>
+      <c r="AM88" s="70"/>
+      <c r="AN88" s="70"/>
+      <c r="AO88" s="70"/>
+      <c r="AP88" s="71"/>
+      <c r="AQ88" s="72"/>
+      <c r="AR88" s="70"/>
+      <c r="AS88" s="70"/>
+      <c r="AT88" s="70"/>
+      <c r="AU88" s="103"/>
+      <c r="AV88" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="92">
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="D57:M57"/>
+    <mergeCell ref="D65:M65"/>
+    <mergeCell ref="D67:M67"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="D70:M70"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="D62:M62"/>
+    <mergeCell ref="C68:M68"/>
+    <mergeCell ref="D69:M69"/>
+    <mergeCell ref="D61:M61"/>
+    <mergeCell ref="D64:M64"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="D81:M81"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D47:M47"/>
+    <mergeCell ref="D66:M66"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D88:M88"/>
+    <mergeCell ref="C82:M82"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="C58:M58"/>
+    <mergeCell ref="D59:M59"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D55:M55"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
     <mergeCell ref="D30:M30"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D58:M58"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D12:M12"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D27:M27"/>
     <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D48:M48"/>
-    <mergeCell ref="D54:M54"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="D56:M56"/>
     <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D29:M29"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D8:M8"/>
     <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D20:M20"/>
     <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="D47:M47"/>
-    <mergeCell ref="C56:M56"/>
-    <mergeCell ref="D57:M57"/>
-    <mergeCell ref="D50:M50"/>
-    <mergeCell ref="D51:M51"/>
-    <mergeCell ref="D52:M52"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="C80:M80"/>
-    <mergeCell ref="D82:M82"/>
-    <mergeCell ref="D83:M83"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="D81:M81"/>
-    <mergeCell ref="D49:M49"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D60:M60"/>
     <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D78:M78"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="D74:M74"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D46:M46"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D34:M34"/>
     <mergeCell ref="D41:M41"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="D42:M42"/>
     <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D45:M45"/>
-    <mergeCell ref="D64:M64"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="D76:M76"/>
-    <mergeCell ref="D75:M75"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="D55:M55"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="D65:M65"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="D61:M61"/>
-    <mergeCell ref="D60:M60"/>
-    <mergeCell ref="C66:M66"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="D59:M59"/>
-    <mergeCell ref="D62:M62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B16 B26 P23:P25 B46 B66 B80 B7 P11:P15 O14:O15 O31 P27:P43 O37:O42 O43 O52 O54:O55 O58:O59 O61:O64 O68:O71 O76:P79 O81:P86 O65:P65 P57:P64 P48:P55 O49 P67:P73 O75 O44:P45 P74:P75" numberStoredAsText="1"/>
+    <ignoredError sqref="B17 B28 P24:P27 B48 B68 B82 B7 O15:P16 O33 P29:P45 O39:O45 O54 O56:O57 O60:O61 O63:O66 O70:O73 O78:P81 O83:P88 O67:P67 P59:P66 P50:P57 O51 O77 O46:P47 P69:P77 P11:P14 O14 O27" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
